--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\Digitales Lernen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C7216A-1F60-4722-A53B-94D81D49E183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E89AD-C330-42C5-8F77-E1EAA7D142A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>Gebiet</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>wenn zwei der Funktionen - Preis-Absatz-Funktion, Erlösfunktion, Kostenfunktion oder Gewinnfunktion - gegeben sind, die jeweils anderen beiden berechnen (Funktionsgrad höchstens 3).</t>
+  </si>
+  <si>
+    <t>Produktlebenszyklus</t>
+  </si>
+  <si>
+    <t>Allgemein</t>
+  </si>
+  <si>
+    <t>LineareFunktionen</t>
+  </si>
+  <si>
+    <t>Stochastik</t>
+  </si>
+  <si>
+    <t>Binomilaverteilung</t>
   </si>
 </sst>
 </file>
@@ -292,20 +307,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:F62" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:F62" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B1:F62" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F62">
-    <sortCondition ref="B2:B62"/>
+    <sortCondition descending="1" ref="B2:B62"/>
     <sortCondition ref="C2:C62"/>
     <sortCondition ref="D2:D62"/>
-    <sortCondition ref="E2:E62"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{DBCA7FE2-6088-43C5-A2DC-4A7FA5139923}" name="Feld" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{830DA51E-E29A-409F-B7D0-4658EC277249}" name="Situation" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F844340D-9A5E-4F5D-B404-2DA23BA10E8D}" name="Ich kann…" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{159EB0C9-6DCE-43D7-A978-0C2A82E1089D}" name="Übung" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{DBCA7FE2-6088-43C5-A2DC-4A7FA5139923}" name="Feld" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{830DA51E-E29A-409F-B7D0-4658EC277249}" name="Situation" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F844340D-9A5E-4F5D-B404-2DA23BA10E8D}" name="Ich kann…" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{159EB0C9-6DCE-43D7-A978-0C2A82E1089D}" name="Übung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -632,13 +646,13 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="127.28515625" style="2" customWidth="1"/>
@@ -668,37 +682,27 @@
     </row>
     <row r="2" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -711,10 +715,10 @@
         <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,7 +732,10 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,7 +749,10 @@
         <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -756,7 +766,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,7 +780,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -798,7 +808,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,7 +822,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,7 +836,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -840,9 +850,8 @@
         <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -855,9 +864,8 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -870,8 +878,9 @@
         <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -884,8 +893,9 @@
         <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
@@ -898,7 +908,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,7 +922,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -926,7 +936,7 @@
         <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -940,7 +950,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -954,7 +964,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -968,25 +978,47 @@
         <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
     <row r="25" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E89AD-C330-42C5-8F77-E1EAA7D142A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15966CC6-4C88-4F07-AC46-593C0D79DE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
   <si>
     <t>Gebiet</t>
   </si>
@@ -186,13 +186,94 @@
   </si>
   <si>
     <t>Binomilaverteilung</t>
+  </si>
+  <si>
+    <t>KennzahlenGraphisch_E1K1</t>
+  </si>
+  <si>
+    <t>KennzahlenGraphisch_E2K1, KennzahlenGraphisch_E1K2, KennzahlenGraphisch_E2K2</t>
+  </si>
+  <si>
+    <t>KennzahlenGraphisch_E1K3, KennzahlenGraphisch_E2K3</t>
+  </si>
+  <si>
+    <t>Steckbriefaufgaben_quadratischKennzahlen</t>
+  </si>
+  <si>
+    <t>Steckbriefaufgaben_quadratischMengen</t>
+  </si>
+  <si>
+    <t>Steckbriefaufgaben_kubischKennzahlen</t>
+  </si>
+  <si>
+    <t>Steckbriefaufgaben_kubischMengen</t>
+  </si>
+  <si>
+    <t>Steckbriefaufgaben_linearKennzahlen</t>
+  </si>
+  <si>
+    <t>Steckbriefaufgaben_linearMengen</t>
+  </si>
+  <si>
+    <t>KostenkennzahlenGraphisch_K3</t>
+  </si>
+  <si>
+    <t>KostenkennzahlenRechnerisch_K3</t>
+  </si>
+  <si>
+    <t>KostenkennzahlenRechnerisch_K3ohneGl3Gr</t>
+  </si>
+  <si>
+    <t>KennzahlenRechnerisch_E1K1</t>
+  </si>
+  <si>
+    <t>KennzahlenRechnerisch_E2K1, KennzahlenRechnerisch_E1K2, KennzahlenRechnerisch_E2K2</t>
+  </si>
+  <si>
+    <t>KennzahlenRechnerisch_E1K3, KennzahlenRechnerisch_E2K3</t>
+  </si>
+  <si>
+    <t>KennzahlenRechnerisch_E1K3ohneGl3Gr, KennzahlenRechnerisch_E2K3ohneGl3Gr</t>
+  </si>
+  <si>
+    <t>KennzahlenRechnerisch_(cx+d)exp(lx)+z, KennzahlenRechnerisch_(bx^2+d)exp(lx)+z, KennzahlenRechnerisch_(bx^2+cx)exp(lx), KennzahlenRechnerisch_(ax^3+bx^2)exp(lx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charakteristische Kennzahlen graphisch bestimmen und interpretieren. </t>
+  </si>
+  <si>
+    <t>KennzahlenGraphisch_Form1Umsatz, KennzahlenGraphisch_Form2Umsatz, KennzahlenGraphisch_Form1Ableitung, KennzahlenGraphisch_Form2Ableitung</t>
+  </si>
+  <si>
+    <t>Integrale_Gemischt</t>
+  </si>
+  <si>
+    <t>Zyklen von Erlösen, Kosten und Gewinnen untersuchen.</t>
+  </si>
+  <si>
+    <t>EKGZyklus_Gemischt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charakteristische Kennzahlen berechnen und interpretieren (ohne Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">charakteristische Kennzahlen berechnen und interpretieren (mit Integration). </t>
+  </si>
+  <si>
+    <t>Exponentialfunktionen</t>
+  </si>
+  <si>
+    <t>Funktionen der Art f(x)=p(x)*exp(ax)+b ableiten.</t>
+  </si>
+  <si>
+    <t>Differenzieren_dexp(lx)+z, Differenzieren_(cx+d)exp(lx)+z, Differenzieren_(bx^2+cx+d)exp(lx)+z, Differenzieren_(ax^3+bx^2+cx+d)exp(lx)+z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +285,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,12 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -262,13 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -318,8 +400,8 @@
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{DBCA7FE2-6088-43C5-A2DC-4A7FA5139923}" name="Feld" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{830DA51E-E29A-409F-B7D0-4658EC277249}" name="Situation" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F844340D-9A5E-4F5D-B404-2DA23BA10E8D}" name="Ich kann…" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{159EB0C9-6DCE-43D7-A978-0C2A82E1089D}" name="Übung" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{F844340D-9A5E-4F5D-B404-2DA23BA10E8D}" name="Ich kann…" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{159EB0C9-6DCE-43D7-A978-0C2A82E1089D}" name="Übung" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -646,21 +728,21 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="56.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="127.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41" style="1" customWidth="1"/>
     <col min="7" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -680,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
@@ -692,7 +774,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -700,550 +782,664 @@
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="6" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="7" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    <row r="8" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
+    <row r="25" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    <row r="26" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+    <row r="31" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+    <row r="32" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1343,7 +1539,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15966CC6-4C88-4F07-AC46-593C0D79DE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84828DDF-81CA-4AE3-BFBF-94FAA8ADD378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -400,8 +400,8 @@
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{DBCA7FE2-6088-43C5-A2DC-4A7FA5139923}" name="Feld" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{830DA51E-E29A-409F-B7D0-4658EC277249}" name="Situation" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F844340D-9A5E-4F5D-B404-2DA23BA10E8D}" name="Ich kann…" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{159EB0C9-6DCE-43D7-A978-0C2A82E1089D}" name="Übung" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{F844340D-9A5E-4F5D-B404-2DA23BA10E8D}" name="Ich kann…" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{159EB0C9-6DCE-43D7-A978-0C2A82E1089D}" name="Übung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -727,7 +727,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84828DDF-81CA-4AE3-BFBF-94FAA8ADD378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514F0AC-280C-4A85-A67B-C00F72D5E673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -236,9 +236,6 @@
     <t>KennzahlenRechnerisch_E1K3ohneGl3Gr, KennzahlenRechnerisch_E2K3ohneGl3Gr</t>
   </si>
   <si>
-    <t>KennzahlenRechnerisch_(cx+d)exp(lx)+z, KennzahlenRechnerisch_(bx^2+d)exp(lx)+z, KennzahlenRechnerisch_(bx^2+cx)exp(lx), KennzahlenRechnerisch_(ax^3+bx^2)exp(lx)</t>
-  </si>
-  <si>
     <t xml:space="preserve">charakteristische Kennzahlen graphisch bestimmen und interpretieren. </t>
   </si>
   <si>
@@ -266,7 +263,10 @@
     <t>Funktionen der Art f(x)=p(x)*exp(ax)+b ableiten.</t>
   </si>
   <si>
-    <t>Differenzieren_dexp(lx)+z, Differenzieren_(cx+d)exp(lx)+z, Differenzieren_(bx^2+cx+d)exp(lx)+z, Differenzieren_(ax^3+bx^2+cx+d)exp(lx)+z</t>
+    <t>Differenzieren_Polynom0Exp, Differenzieren_Polynom1Exp, Differenzieren_Polynom2Exp, Differenzieren_Polynom3Exp</t>
+  </si>
+  <si>
+    <t>KennzahlenRechnerisch_Var1, KennzahlenRechnerisch_Var2, KennzahlenRechnerisch_Var3, KennzahlenRechnerisch_Var4</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -782,13 +782,13 @@
         <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1165,10 +1165,10 @@
         <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,10 +1182,10 @@
         <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,10 +1199,10 @@
         <v>41</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,10 +1216,10 @@
         <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F514F0AC-280C-4A85-A67B-C00F72D5E673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4B7A53-B5A3-4DA1-87F7-BA7155581482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -728,7 +728,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -779,7 +779,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>69</v>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4B7A53-B5A3-4DA1-87F7-BA7155581482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F717C6-8B58-4899-88A8-E1962F2E8587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -728,7 +728,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F717C6-8B58-4899-88A8-E1962F2E8587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32DFD63-7730-4158-A7C7-8EA2866F2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
   <si>
     <t>Gebiet</t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t xml:space="preserve">charakteristische Kennzahlen berechnen und interpretieren (mit Integration). </t>
-  </si>
-  <si>
-    <t>Exponentialfunktionen</t>
   </si>
   <si>
     <t>Funktionen der Art f(x)=p(x)*exp(ax)+b ableiten.</t>
@@ -728,7 +725,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -782,13 +779,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,7 +1165,7 @@
         <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32DFD63-7730-4158-A7C7-8EA2866F2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C03B0B7-BA13-4FD7-9B29-22379222B1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
   <si>
     <t>Gebiet</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Wirtschaft</t>
   </si>
   <si>
-    <t>Feld</t>
-  </si>
-  <si>
     <t>zu einer gegebenen Menge die Erlöse, Kosten und Gewinne berechnen.</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>folgende Kennzahlen berechnen (ertragsgesetzliche Kostenfunktion, ohne Gleichungen dritten Grades): Betriebsminimum, kurzfristige Preisuntergrenze, Betriebsoptimum, langfristige Preisuntergrenze</t>
   </si>
   <si>
-    <t>ErlöseKostenGewinne</t>
-  </si>
-  <si>
     <t>Funktionsterme_E1K1</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t>Allgemein</t>
   </si>
   <si>
-    <t>LineareFunktionen</t>
-  </si>
-  <si>
     <t>Stochastik</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
     <t>KennzahlenRechnerisch_E1K3ohneGl3Gr, KennzahlenRechnerisch_E2K3ohneGl3Gr</t>
   </si>
   <si>
-    <t xml:space="preserve">charakteristische Kennzahlen graphisch bestimmen und interpretieren. </t>
-  </si>
-  <si>
     <t>KennzahlenGraphisch_Form1Umsatz, KennzahlenGraphisch_Form2Umsatz, KennzahlenGraphisch_Form1Ableitung, KennzahlenGraphisch_Form2Ableitung</t>
   </si>
   <si>
@@ -264,6 +252,33 @@
   </si>
   <si>
     <t>KennzahlenRechnerisch_Var1, KennzahlenRechnerisch_Var2, KennzahlenRechnerisch_Var3, KennzahlenRechnerisch_Var4</t>
+  </si>
+  <si>
+    <t>Ökonomische Funktionen</t>
+  </si>
+  <si>
+    <t>Teilgebiet</t>
+  </si>
+  <si>
+    <t>Schwerpunkt</t>
+  </si>
+  <si>
+    <t>Lineare Funktionen</t>
+  </si>
+  <si>
+    <t>Quadratische Funktionen</t>
+  </si>
+  <si>
+    <t>Kubische Funktionen</t>
+  </si>
+  <si>
+    <t>Exponentialfunktionen</t>
+  </si>
+  <si>
+    <t>Binomialverteilung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charakteristische Kennzahlen graphisch bestimmen und interpretieren (ohne Integration). </t>
   </si>
 </sst>
 </file>
@@ -350,7 +365,10 @@
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -386,19 +404,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:F62" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B1:F62" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:G62" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B1:G62" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G62">
     <sortCondition descending="1" ref="B2:B62"/>
-    <sortCondition ref="C2:C62"/>
     <sortCondition ref="D2:D62"/>
+    <sortCondition ref="E2:E62"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DBCA7FE2-6088-43C5-A2DC-4A7FA5139923}" name="Feld" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{830DA51E-E29A-409F-B7D0-4658EC277249}" name="Situation" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F844340D-9A5E-4F5D-B404-2DA23BA10E8D}" name="Ich kann…" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{159EB0C9-6DCE-43D7-A978-0C2A82E1089D}" name="Übung" dataDxfId="0"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D951BCF6-452C-41BB-B179-EF714D923B63}" name="Teilgebiet" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{DBCA7FE2-6088-43C5-A2DC-4A7FA5139923}" name="Schwerpunkt" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{830DA51E-E29A-409F-B7D0-4658EC277249}" name="Situation" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F844340D-9A5E-4F5D-B404-2DA23BA10E8D}" name="Ich kann…" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{159EB0C9-6DCE-43D7-A978-0C2A82E1089D}" name="Übung" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -722,24 +741,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="127.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="32.28515625" style="2"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="127.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="41" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -747,693 +767,772 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
+    <row r="21" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A57825-8A1C-40AE-929E-C3D0F2055998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51003AB0-A35F-4AB0-B2BC-15BCBA6DD099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="111">
   <si>
     <t>Gebiet</t>
   </si>
@@ -157,18 +157,9 @@
     <t>Integrale_Gemischt</t>
   </si>
   <si>
-    <t>Zyklen von Erlösen, Kosten und Gewinnen untersuchen.</t>
-  </si>
-  <si>
     <t>EKGZyklus_Gemischt</t>
   </si>
   <si>
-    <t xml:space="preserve">charakteristische Kennzahlen berechnen und interpretieren (ohne Integration). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">charakteristische Kennzahlen berechnen und interpretieren (mit Integration). </t>
-  </si>
-  <si>
     <t>Differenzieren_Polynom0Exp, Differenzieren_Polynom1Exp, Differenzieren_Polynom2Exp, Differenzieren_Polynom3Exp</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
     <t>Binomialverteilung</t>
   </si>
   <si>
-    <t xml:space="preserve">charakteristische Kennzahlen graphisch bestimmen und interpretieren (ohne Integration). </t>
-  </si>
-  <si>
     <t>Info</t>
   </si>
   <si>
@@ -241,33 +229,6 @@
     <t>Dazu gehören das Betriebsminimum, die kurzfristige Preisuntergrenze und die Menge beim Übergang vom degressiven zum progressiven Kostenwachstum.</t>
   </si>
   <si>
-    <t>lineare, ökonomische Funktionen berechnen.</t>
-  </si>
-  <si>
-    <t>quadratische, ökonomische Funktionen berechnen.</t>
-  </si>
-  <si>
-    <t>kubische, ökonomische Funktionen berechnen.</t>
-  </si>
-  <si>
-    <t>die Gleichungen quadratischer, ökonomischer Funktionen austellen (Vorgabe: Informationen zu Mengen).</t>
-  </si>
-  <si>
-    <t>die Gleichungen quadratischer, ökonomischer Funktionen austellen (Vorgabe: allgemeine Informationen).</t>
-  </si>
-  <si>
-    <t>die Gleichungen kubischer, ökonomischer Funktionen austellen (Vorgabe: Informationen zu Mengen).</t>
-  </si>
-  <si>
-    <t>die Gleichungen kubischer, ökonomischer Funktionen austellen (Vorgabe: allgemeine Informationen).</t>
-  </si>
-  <si>
-    <t>die Gleichungen linearer, ökonomischer Funktionen austellen (Vorgabe: Informationen zu Mengen).</t>
-  </si>
-  <si>
-    <t>die Gleichungen linearer, ökonomischer Funktionen austellen (Vorgabe: allgemeine Informationen).</t>
-  </si>
-  <si>
     <t>Kennzahlen ertragsgesetzlicher Kostenfunktionen berechnen.</t>
   </si>
   <si>
@@ -331,13 +292,88 @@
     <t>Marktgleichgewicht</t>
   </si>
   <si>
-    <t>Ganzrationale Funktionen</t>
-  </si>
-  <si>
-    <t>Differentialrechnung</t>
-  </si>
-  <si>
     <t>Methoden und Modelle</t>
+  </si>
+  <si>
+    <t>Gleichungen kubischer, ökonomischer Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t>Gleichungen kubischer, ökonomischer Funktionen austellen (Vorgabe: allgemeine Informationen).</t>
+  </si>
+  <si>
+    <t>Gleichungen kubischer, ökonomischer Funktionen austellen (Vorgabe: Informationen zu Mengen).</t>
+  </si>
+  <si>
+    <t>Gleichungen linearer, ökonomischer Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t>Gleichungen linearer, ökonomischer Funktionen austellen (Vorgabe: Informationen zu Mengen).</t>
+  </si>
+  <si>
+    <t>Gleichungen linearer, ökonomischer Funktionen austellen (Vorgabe: allgemeine Informationen).</t>
+  </si>
+  <si>
+    <t>Gleichungen quadratischer, ökonomischer Funktionen austellen (Vorgabe: allgemeine Informationen).</t>
+  </si>
+  <si>
+    <t>Gleichungen quadratischer, ökonomischer Funktionen austellen (Vorgabe: Informationen zu Mengen).</t>
+  </si>
+  <si>
+    <t>Gleichungen quadratischer, ökonomischer Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (ohne Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus graphisch bestimmen (ohne Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (mit Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus, inklusive Erlösen, Kosten und Gewinnen, berechnen (mit Integration). </t>
+  </si>
+  <si>
+    <t>Dazu gehören die Gleichgewichtsmenge, der Gleichgewichtspreis, der Höchstpreis, die Sättigungsmenge und der Mindestangebotspreis.</t>
+  </si>
+  <si>
+    <t>KennzahlenRechnerisch_Linear</t>
+  </si>
+  <si>
+    <t>KennzahlenRechnerisch_LinearQuadratisch</t>
+  </si>
+  <si>
+    <t>KennzahlenRechnerisch_LinearQuadratischExp</t>
+  </si>
+  <si>
+    <t>Kennzahlen des Marktgleichgewichts mit linearer Preis-Absatz- und Preis-Nachfrage-Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t>Kennzahlen des Marktgleichgewichts mit quadratischer Preis-Absatz- und Preis-Nachfrage-Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t>Kennzahlen des Marktgleichgewichts mit exponentieller Preis-Absatz- und Preis-Nachfrage-Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t>KennzahlenGraphisch_Ablesen</t>
+  </si>
+  <si>
+    <t>Kennzahlen des Marktgleichgewichts graphisch bestimmen.</t>
+  </si>
+  <si>
+    <t>Renten_BestimmungPRKR</t>
+  </si>
+  <si>
+    <t>die Produzenten- und Konsumentenrente berechnen.</t>
+  </si>
+  <si>
+    <t>AbschöpfungKR_BestimmungPreis</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>den Verkaufspreis auf einem Teilmarkt berechnen, so dass die Konsumentenrente optimal abgeschöpft wird.</t>
   </si>
 </sst>
 </file>
@@ -466,13 +502,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H62" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H62" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H62">
-    <sortCondition ref="B2:B62"/>
-    <sortCondition ref="C2:C62"/>
-    <sortCondition ref="D2:D62"/>
-    <sortCondition ref="E2:E62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H87" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H87" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H87">
+    <sortCondition ref="B2:B87"/>
+    <sortCondition ref="D2:D87"/>
+    <sortCondition ref="E2:E87"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -805,10 +840,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -832,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -847,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -855,22 +890,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,106 +913,105 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,22 +1019,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,22 +1042,22 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,22 +1065,22 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,22 +1088,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1077,22 +1111,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,45 +1134,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,83 +1181,92 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,46 +1274,45 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="1"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,22 +1320,22 @@
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1300,22 +1343,22 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,22 +1366,22 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,22 +1389,22 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,22 +1412,22 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1392,22 +1435,22 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1418,12 +1461,14 @@
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -1433,134 +1478,205 @@
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="H29" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="H30" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="32" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="H33" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="34" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -1724,6 +1840,181 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="H87" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1756,7 +2047,7 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1764,26 +2055,26 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -1791,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1799,10 +2090,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -1810,21 +2101,21 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51003AB0-A35F-4AB0-B2BC-15BCBA6DD099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9BEA1E-77B1-4ADF-8663-F912159A0334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="114">
   <si>
     <t>Gebiet</t>
   </si>
@@ -85,15 +85,6 @@
     <t>zu gegebenen Erlösen, Kosten oder Gewinnen die entsprechenden Mengen berechnen</t>
   </si>
   <si>
-    <t>Funktionsterme_E1K1</t>
-  </si>
-  <si>
-    <t>Funktionsterme_E1K3, Funktionsterme_E2K3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktionsterme_E2K1, Funktionsterme_E1K2, Funktionsterme_E2K2 </t>
-  </si>
-  <si>
     <t>Produktlebenszyklus</t>
   </si>
   <si>
@@ -103,69 +94,6 @@
     <t>Stochastik</t>
   </si>
   <si>
-    <t>KennzahlenGraphisch_E1K1</t>
-  </si>
-  <si>
-    <t>KennzahlenGraphisch_E2K1, KennzahlenGraphisch_E1K2, KennzahlenGraphisch_E2K2</t>
-  </si>
-  <si>
-    <t>KennzahlenGraphisch_E1K3, KennzahlenGraphisch_E2K3</t>
-  </si>
-  <si>
-    <t>Steckbriefaufgaben_quadratischKennzahlen</t>
-  </si>
-  <si>
-    <t>Steckbriefaufgaben_quadratischMengen</t>
-  </si>
-  <si>
-    <t>Steckbriefaufgaben_kubischKennzahlen</t>
-  </si>
-  <si>
-    <t>Steckbriefaufgaben_kubischMengen</t>
-  </si>
-  <si>
-    <t>Steckbriefaufgaben_linearKennzahlen</t>
-  </si>
-  <si>
-    <t>Steckbriefaufgaben_linearMengen</t>
-  </si>
-  <si>
-    <t>KostenkennzahlenGraphisch_K3</t>
-  </si>
-  <si>
-    <t>KostenkennzahlenRechnerisch_K3</t>
-  </si>
-  <si>
-    <t>KostenkennzahlenRechnerisch_K3ohneGl3Gr</t>
-  </si>
-  <si>
-    <t>KennzahlenRechnerisch_E1K1</t>
-  </si>
-  <si>
-    <t>KennzahlenRechnerisch_E2K1, KennzahlenRechnerisch_E1K2, KennzahlenRechnerisch_E2K2</t>
-  </si>
-  <si>
-    <t>KennzahlenRechnerisch_E1K3, KennzahlenRechnerisch_E2K3</t>
-  </si>
-  <si>
-    <t>KennzahlenRechnerisch_E1K3ohneGl3Gr, KennzahlenRechnerisch_E2K3ohneGl3Gr</t>
-  </si>
-  <si>
-    <t>KennzahlenGraphisch_Form1Umsatz, KennzahlenGraphisch_Form2Umsatz, KennzahlenGraphisch_Form1Ableitung, KennzahlenGraphisch_Form2Ableitung</t>
-  </si>
-  <si>
-    <t>Integrale_Gemischt</t>
-  </si>
-  <si>
-    <t>EKGZyklus_Gemischt</t>
-  </si>
-  <si>
-    <t>Differenzieren_Polynom0Exp, Differenzieren_Polynom1Exp, Differenzieren_Polynom2Exp, Differenzieren_Polynom3Exp</t>
-  </si>
-  <si>
-    <t>KennzahlenRechnerisch_Var1, KennzahlenRechnerisch_Var2, KennzahlenRechnerisch_Var3, KennzahlenRechnerisch_Var4</t>
-  </si>
-  <si>
     <t>Ökonomische Funktionen</t>
   </si>
   <si>
@@ -337,15 +265,6 @@
     <t>Dazu gehören die Gleichgewichtsmenge, der Gleichgewichtspreis, der Höchstpreis, die Sättigungsmenge und der Mindestangebotspreis.</t>
   </si>
   <si>
-    <t>KennzahlenRechnerisch_Linear</t>
-  </si>
-  <si>
-    <t>KennzahlenRechnerisch_LinearQuadratisch</t>
-  </si>
-  <si>
-    <t>KennzahlenRechnerisch_LinearQuadratischExp</t>
-  </si>
-  <si>
     <t>Kennzahlen des Marktgleichgewichts mit linearer Preis-Absatz- und Preis-Nachfrage-Funktionen berechnen.</t>
   </si>
   <si>
@@ -355,25 +274,115 @@
     <t>Kennzahlen des Marktgleichgewichts mit exponentieller Preis-Absatz- und Preis-Nachfrage-Funktionen berechnen.</t>
   </si>
   <si>
-    <t>KennzahlenGraphisch_Ablesen</t>
-  </si>
-  <si>
     <t>Kennzahlen des Marktgleichgewichts graphisch bestimmen.</t>
   </si>
   <si>
-    <t>Renten_BestimmungPRKR</t>
-  </si>
-  <si>
     <t>die Produzenten- und Konsumentenrente berechnen.</t>
   </si>
   <si>
-    <t>AbschöpfungKR_BestimmungPreis</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>den Verkaufspreis auf einem Teilmarkt berechnen, so dass die Konsumentenrente optimal abgeschöpft wird.</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Marktgleichgewicht_KennzahlenRechnerisch_Linear</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Marktgleichgewicht_KennzahlenRechnerisch_LinearQuadratisch</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Marktgleichgewicht_KennzahlenRechnerisch_LinearQuadratischExp</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Marktgleichgewicht_KennzahlenGraphisch_Ablesen</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Marktgleichgewicht_Renten_BestimmungPRKR</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Marktgleichgewicht_AbschöpfungKR_BestimmungPreis</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Steckbriefaufgaben_kubischKennzahlen</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Steckbriefaufgaben_kubischMengen</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KostenkennzahlenRechnerisch_K3</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KostenkennzahlenRechnerisch_K3ohneGl3Gr</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KostenkennzahlenGraphisch_K3</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E1K1</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Steckbriefaufgaben_linearKennzahlen</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Steckbriefaufgaben_linearMengen</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K1</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E1K1</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Steckbriefaufgaben_quadratischKennzahlen</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Steckbriefaufgaben_quadratischMengen</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E1K3, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K3</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K3, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K3</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K3ohneGl3Gr, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K3ohneGl3Gr</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E1K3, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K1, Funktionsterme_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K2 </t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K2</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K2</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom0Exp, Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom1Exp, Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom2Exp, Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom3Exp</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var1, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var2, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var3, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var4</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Umsatz, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Umsatz, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Ableitung, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Ableitung</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_Integrale_Gemischt</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_EKGZyklus_Gemischt</t>
+  </si>
+  <si>
+    <t>Hypothesentest</t>
+  </si>
+  <si>
+    <t>Baumdiagramme</t>
+  </si>
+  <si>
+    <t>Vierfeldertafel</t>
   </si>
 </sst>
 </file>
@@ -506,6 +515,7 @@
   <autoFilter ref="B1:H87" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H87">
     <sortCondition ref="B2:B87"/>
+    <sortCondition ref="C2:C87"/>
     <sortCondition ref="D2:D87"/>
     <sortCondition ref="E2:E87"/>
   </sortState>
@@ -842,24 +852,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" style="2" customWidth="1"/>
-    <col min="7" max="7" width="41" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="57.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="85.28515625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -867,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -882,686 +892,695 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -1570,21 +1589,15 @@
         <v>17</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
@@ -1593,423 +1606,434 @@
         <v>17</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="F37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2047,7 +2071,7 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2055,26 +2079,26 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -2082,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -2090,10 +2114,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2101,21 +2125,21 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9BEA1E-77B1-4ADF-8663-F912159A0334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72969CAA-E017-4DE1-B54D-19AB53D45C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="115">
   <si>
     <t>Gebiet</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>Vierfeldertafel</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeiten</t>
   </si>
 </sst>
 </file>
@@ -852,8 +855,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="F34" s="1"/>
       <c r="H34" s="1"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72969CAA-E017-4DE1-B54D-19AB53D45C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B343EB-36DB-4FD8-9945-754D8F333637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
   <si>
     <t>Gebiet</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Marktgleichgewicht</t>
   </si>
   <si>
-    <t>Methoden und Modelle</t>
-  </si>
-  <si>
     <t>Gleichungen kubischer, ökonomischer Funktionen berechnen.</t>
   </si>
   <si>
@@ -386,6 +383,48 @@
   </si>
   <si>
     <t>Wahrscheinlichkeiten</t>
+  </si>
+  <si>
+    <t>Methoden der Wahrscheinlichkeitsrechnung</t>
+  </si>
+  <si>
+    <t>Ich kann die Pfadmultiplikationsregel und die Pfadadditionsregel anwenden.</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Ausgehend von einem Baumdiagramm kann ich Wahrscheinlichkeiten symbolisch und textuell beschriebener Ereignisse berechnen.</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln interpretieren (mit bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Ausgehend von einer Vierfeldertafel kann ich Wahrscheinlichkeiten symbolisch und textuell beschriebener Ereignisse berechnen.</t>
+  </si>
+  <si>
+    <t>Formeln in der Stochastik</t>
+  </si>
+  <si>
+    <t>Gegenwahrscheinlichkeit, Sylvester, Bayes</t>
   </si>
 </sst>
 </file>
@@ -855,20 +894,20 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="57.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="85.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
@@ -912,13 +951,13 @@
         <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,7 +977,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>29</v>
@@ -958,13 +997,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -981,13 +1020,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,13 +1043,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1027,13 +1066,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,10 +1089,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
@@ -1073,10 +1112,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>32</v>
@@ -1096,10 +1135,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>34</v>
@@ -1122,7 +1161,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>36</v>
@@ -1145,7 +1184,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>37</v>
@@ -1168,7 +1207,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>46</v>
@@ -1192,7 +1231,7 @@
         <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>47</v>
@@ -1215,7 +1254,7 @@
         <v>48</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>36</v>
@@ -1238,7 +1277,7 @@
         <v>51</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>46</v>
@@ -1258,13 +1297,13 @@
         <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1282,10 +1321,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>27</v>
@@ -1305,10 +1344,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>33</v>
@@ -1328,10 +1367,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>35</v>
@@ -1354,7 +1393,7 @@
         <v>40</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>44</v>
@@ -1377,7 +1416,7 @@
         <v>49</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>44</v>
@@ -1397,13 +1436,13 @@
         <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1420,10 +1459,10 @@
         <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>27</v>
@@ -1443,10 +1482,10 @@
         <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>30</v>
@@ -1466,10 +1505,10 @@
         <v>17</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>31</v>
@@ -1492,7 +1531,7 @@
         <v>41</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>45</v>
@@ -1515,7 +1554,7 @@
         <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>45</v>
@@ -1532,13 +1571,13 @@
         <v>58</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1552,13 +1591,13 @@
         <v>58</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1572,13 +1611,13 @@
         <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,7 +1634,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1612,7 +1651,7 @@
         <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1626,7 +1665,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="1"/>
       <c r="H34" s="1"/>
@@ -1642,7 +1681,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="1"/>
@@ -1652,94 +1691,177 @@
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B343EB-36DB-4FD8-9945-754D8F333637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7FDFD2-3E9F-40D9-9E99-44645DCCDABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="171">
   <si>
     <t>Gebiet</t>
   </si>
@@ -391,30 +391,9 @@
     <t>Ich kann die Pfadmultiplikationsregel und die Pfadadditionsregel anwenden.</t>
   </si>
   <si>
-    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten).</t>
-  </si>
-  <si>
-    <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
-  </si>
-  <si>
-    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
-    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
     <t>Ausgehend von einem Baumdiagramm kann ich Wahrscheinlichkeiten symbolisch und textuell beschriebener Ereignisse berechnen.</t>
   </si>
   <si>
-    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
-  </si>
-  <si>
     <t>Vierfeldertafeln interpretieren (mit bedingten Wahrscheinlichkeiten).</t>
   </si>
   <si>
@@ -424,7 +403,157 @@
     <t>Formeln in der Stochastik</t>
   </si>
   <si>
-    <t>Gegenwahrscheinlichkeit, Sylvester, Bayes</t>
+    <t>Ausgehend von einem Baumdiagramm kann ich Wahrscheinlichkeiten symbolisch und textuell beschriebener Ereignisse berechnen. Ich kann anhand eines Baumdiagramms feststellen, ob Ereignisse stochastisch unabhängig sind.</t>
+  </si>
+  <si>
+    <t>Ausgehend von einer Vierfeldertafel kann ich Wahrscheinlichkeiten symbolisch und textuell beschriebener Ereignisse berechnen. Ich kann anhand einer Vierfeldertafel feststellen, ob Ereignisse stochastisch unabhängig sind.</t>
+  </si>
+  <si>
+    <t>Ich kann die Rechenregeln beim Umgang mit Vierfeldertafeln anwenden.</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester1, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester2, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester3</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit und von Sylvester anwenden.</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 1)</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 2)</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 3)</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_Var1KeineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_Var2KeineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_Var3KeineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_Var1InfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_Var2InfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_Var3InfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_AbhängigOhneBedingt</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_UnabhängigOhneBedingt</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 1)</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 2)</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 3)</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten).  (Variante 1)</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten). (Variante 2)</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Abhängig</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Unabhängig</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten). (Version 1)</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten). (Version 2)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Version 1)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Version 2)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Version 3)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Version 4)</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1KeineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2KeineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var3KeineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var4KeineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten). (Version 1)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten). (Version 2)</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_AbhängigOhneBedingt</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_UnabhängigOhneBedingt</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_Abhängig</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_Unabhängig</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 1)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 2)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 3)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 4)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 5)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 6)</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh1</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh2</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh3</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh1</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh2</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh3</t>
   </si>
 </sst>
 </file>
@@ -553,13 +682,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H87" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H87" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H87">
-    <sortCondition ref="B2:B87"/>
-    <sortCondition ref="C2:C87"/>
-    <sortCondition ref="D2:D87"/>
-    <sortCondition ref="E2:E87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H98" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H98" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H98">
+    <sortCondition ref="B2:B98"/>
+    <sortCondition ref="C2:C98"/>
+    <sortCondition ref="D2:D98"/>
+    <sortCondition ref="E2:E98"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -892,10 +1021,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1829,10 @@
         <v>111</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>115</v>
@@ -1720,7 +1852,10 @@
         <v>111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>115</v>
@@ -1740,10 +1875,13 @@
         <v>111</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1757,13 +1895,16 @@
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1777,13 +1918,16 @@
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1797,13 +1941,16 @@
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1817,13 +1964,16 @@
         <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,13 +1987,16 @@
         <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1857,124 +2010,385 @@
         <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
@@ -2164,6 +2578,83 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="H98" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7FDFD2-3E9F-40D9-9E99-44645DCCDABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69041D3B-10BD-434B-8181-94F19916E87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -472,24 +472,6 @@
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Unabhängig</t>
   </si>
   <si>
-    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten). (Version 1)</t>
-  </si>
-  <si>
-    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten). (Version 2)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Version 1)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Version 2)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Version 3)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Version 4)</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1KeineInfoUnabh</t>
   </si>
   <si>
@@ -502,12 +484,6 @@
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var4KeineInfoUnabh</t>
   </si>
   <si>
-    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten). (Version 1)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten). (Version 2)</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_AbhängigOhneBedingt</t>
   </si>
   <si>
@@ -520,24 +496,6 @@
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_Unabhängig</t>
   </si>
   <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 1)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 2)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 3)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 4)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 5)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Version 6)</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh1</t>
   </si>
   <si>
@@ -554,6 +512,48 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh3</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten). (Variante 1)</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten). (Variante 2)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 1)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 2)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 3)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 4)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten). (Variante 1)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten). (Variante 2)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 1)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 2)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 3)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 4)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 5)</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 6)</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2013,7 +2013,7 @@
         <v>111</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>141</v>
@@ -2036,7 +2036,7 @@
         <v>111</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>142</v>
@@ -2059,10 +2059,10 @@
         <v>112</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>122</v>
@@ -2082,10 +2082,10 @@
         <v>112</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>122</v>
@@ -2105,10 +2105,10 @@
         <v>112</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>122</v>
@@ -2128,10 +2128,10 @@
         <v>112</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>122</v>
@@ -2151,10 +2151,10 @@
         <v>112</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>118</v>
@@ -2174,10 +2174,10 @@
         <v>112</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>118</v>
@@ -2200,7 +2200,7 @@
         <v>117</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>121</v>
@@ -2223,7 +2223,7 @@
         <v>117</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>121</v>
@@ -2266,10 +2266,10 @@
         <v>119</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>78</v>
@@ -2289,10 +2289,10 @@
         <v>119</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>78</v>
@@ -2312,10 +2312,10 @@
         <v>119</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>78</v>
@@ -2335,10 +2335,10 @@
         <v>119</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>78</v>
@@ -2358,10 +2358,10 @@
         <v>119</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>78</v>
@@ -2381,10 +2381,10 @@
         <v>119</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>78</v>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69041D3B-10BD-434B-8181-94F19916E87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D00CA0-D002-4A71-AA2A-1E3EEF6D5E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="175">
   <si>
     <t>Gebiet</t>
   </si>
@@ -379,9 +379,6 @@
     <t>Baumdiagramme</t>
   </si>
   <si>
-    <t>Vierfeldertafel</t>
-  </si>
-  <si>
     <t>Wahrscheinlichkeiten</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
     <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 3)</t>
   </si>
   <si>
-    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 4)</t>
-  </si>
-  <si>
     <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten). (Variante 1)</t>
   </si>
   <si>
@@ -554,6 +548,24 @@
   </si>
   <si>
     <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 6)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 4)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 1)</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 2)</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1InfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2InfoUnabh</t>
   </si>
 </sst>
 </file>
@@ -682,13 +694,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H98" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H98" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H98">
-    <sortCondition ref="B2:B98"/>
-    <sortCondition ref="C2:C98"/>
-    <sortCondition ref="D2:D98"/>
-    <sortCondition ref="E2:E98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H100" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H100" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Vierfeldertafeln"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H100">
+    <sortCondition ref="B2:B100"/>
+    <sortCondition ref="C2:C100"/>
+    <sortCondition ref="D2:D100"/>
+    <sortCondition ref="E2:E100"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -1021,10 +1039,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1089,7 +1107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1199,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1222,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +1291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1319,7 +1337,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1343,7 +1361,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1412,7 +1430,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1436,7 +1454,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1459,7 +1477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1482,7 +1500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1505,7 +1523,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1528,7 +1546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1569,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1574,7 +1592,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1597,7 +1615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1643,7 +1661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1666,7 +1684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1689,7 +1707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1727,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1729,7 +1747,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1749,7 +1767,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1784,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1783,7 +1801,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1794,12 +1812,12 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1815,12 +1833,12 @@
       <c r="F35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>15</v>
@@ -1829,21 +1847,21 @@
         <v>111</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
@@ -1852,21 +1870,21 @@
         <v>111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
@@ -1875,21 +1893,21 @@
         <v>111</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
@@ -1898,21 +1916,21 @@
         <v>111</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>15</v>
@@ -1921,21 +1939,21 @@
         <v>111</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>15</v>
@@ -1944,21 +1962,21 @@
         <v>111</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>15</v>
@@ -1967,21 +1985,21 @@
         <v>111</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
@@ -1990,21 +2008,21 @@
         <v>111</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
@@ -2013,21 +2031,21 @@
         <v>111</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>15</v>
@@ -2036,13 +2054,13 @@
         <v>111</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2050,22 +2068,22 @@
         <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2073,22 +2091,22 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,22 +2114,22 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2119,22 +2137,22 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2142,22 +2160,22 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2165,22 +2183,22 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2188,22 +2206,22 @@
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2211,22 +2229,22 @@
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="F53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2234,22 +2252,22 @@
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2257,404 +2275,450 @@
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="H100" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D00CA0-D002-4A71-AA2A-1E3EEF6D5E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B18B35-E4AF-45FA-A075-4E32638E34F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B18B35-E4AF-45FA-A075-4E32638E34F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EAC1A-FE39-4594-AA01-C0EAEAAA31BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -469,18 +469,6 @@
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Unabhängig</t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1KeineInfoUnabh</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2KeineInfoUnabh</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var3KeineInfoUnabh</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var4KeineInfoUnabh</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_AbhängigOhneBedingt</t>
   </si>
   <si>
@@ -566,6 +554,18 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2InfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var3keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var4keineInfoUnabh</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2031,7 @@
         <v>111</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>140</v>
@@ -2054,7 +2054,7 @@
         <v>111</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>141</v>
@@ -2074,13 +2074,13 @@
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>121</v>
@@ -2097,13 +2097,13 @@
         <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>121</v>
@@ -2120,13 +2120,13 @@
         <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>121</v>
@@ -2143,13 +2143,13 @@
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>121</v>
@@ -2166,13 +2166,13 @@
         <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>121</v>
@@ -2189,13 +2189,13 @@
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>121</v>
@@ -2212,13 +2212,13 @@
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>117</v>
@@ -2235,13 +2235,13 @@
         <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>117</v>
@@ -2258,13 +2258,13 @@
         <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>120</v>
@@ -2281,13 +2281,13 @@
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>116</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>120</v>
@@ -2330,10 +2330,10 @@
         <v>118</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>78</v>
@@ -2353,10 +2353,10 @@
         <v>118</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>78</v>
@@ -2376,10 +2376,10 @@
         <v>118</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>78</v>
@@ -2399,10 +2399,10 @@
         <v>118</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>78</v>
@@ -2422,10 +2422,10 @@
         <v>118</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>78</v>
@@ -2445,10 +2445,10 @@
         <v>118</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>78</v>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271EAC1A-FE39-4594-AA01-C0EAEAAA31BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939D0E5-E545-440A-9352-EC0D6B060179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>Zusatz zu: Ich kann</t>
   </si>
   <si>
-    <t>Wenn zwei der Funktionen - Preis-Absatz-Funktion p(x), Erlösfunktion E(x), Kostenfunktion K(x) oder Gewinnfunktion G(x) - gegeben sind, kann ich die jeweils anderen beiden berechnen.</t>
-  </si>
-  <si>
     <t>Funktionen, die einen Produktlebenszyklus beschreiben, ableiten.</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>Ausgehend von einer Vierfeldertafel kann ich Wahrscheinlichkeiten symbolisch und textuell beschriebener Ereignisse berechnen. Ich kann anhand einer Vierfeldertafel feststellen, ob Ereignisse stochastisch unabhängig sind.</t>
   </si>
   <si>
-    <t>Ich kann die Rechenregeln beim Umgang mit Vierfeldertafeln anwenden.</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester1, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester2, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester3</t>
   </si>
   <si>
@@ -566,6 +560,12 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var4keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Ich kann die Rechenregeln für den Umgang mit Vierfeldertafeln anwenden.</t>
+  </si>
+  <si>
+    <t>Wenn zwei der Funktionen - Preis-Absatz-Funktion, Erlösfunktion, Kostenfunktion oder Gewinnfunktion - gegeben sind, kann ich die jeweils anderen beiden berechnen.</t>
   </si>
 </sst>
 </file>
@@ -695,13 +695,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H100" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H100" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Vierfeldertafeln"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:H100" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H100">
     <sortCondition ref="B2:B100"/>
     <sortCondition ref="C2:C100"/>
@@ -1042,7 +1036,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1095,19 +1089,19 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1121,16 +1115,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1144,16 +1138,16 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1167,16 +1161,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1190,16 +1184,16 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1213,16 +1207,16 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1236,16 +1230,16 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1259,16 +1253,16 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1282,16 +1276,16 @@
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1305,16 +1299,16 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1328,16 +1322,16 @@
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1351,17 +1345,17 @@
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1375,16 +1369,16 @@
         <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1398,16 +1392,16 @@
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1421,16 +1415,16 @@
         <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1441,20 +1435,20 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1468,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1491,16 +1485,16 @@
         <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1514,16 +1508,16 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1537,16 +1531,16 @@
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1560,16 +1554,16 @@
         <v>17</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1580,19 +1574,19 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1606,16 +1600,16 @@
         <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1629,16 +1623,16 @@
         <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1652,16 +1646,16 @@
         <v>17</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1675,16 +1669,16 @@
         <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1698,16 +1692,16 @@
         <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1715,59 +1709,59 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="1" t="s">
+    </row>
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -1781,10 +1775,10 @@
         <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -1798,10 +1792,10 @@
         <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1812,12 +1806,12 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1828,239 +1822,239 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,22 +2062,22 @@
         <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2091,22 +2085,22 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2114,22 +2108,22 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,22 +2131,22 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2160,22 +2154,22 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2183,22 +2177,22 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2206,22 +2200,22 @@
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,22 +2223,22 @@
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,22 +2246,22 @@
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,445 +2269,445 @@
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -2751,7 +2745,7 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2759,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -2767,10 +2761,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -2778,7 +2772,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -2786,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -2794,10 +2788,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2805,10 +2799,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -2816,7 +2810,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939D0E5-E545-440A-9352-EC0D6B060179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3760DDC9-533E-4EE9-A944-5E781CDFF509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -130,18 +130,9 @@
     <t>Die Funktionen haben die Form f(x)=p(x)*exp(ax)+b.</t>
   </si>
   <si>
-    <t>Es liegen dabei allgemeine Informationen zu drei ökonomischen Kennzahlen vor.</t>
-  </si>
-  <si>
     <t>Es liegen dabei für drei Mengen die entsprechenden Erlöse, Kosten oder Gewinne vor.</t>
   </si>
   <si>
-    <t>Es liegen dabei allgemeine Informationen zu vier ökonomischen Kennzahlen vor.</t>
-  </si>
-  <si>
-    <t>Es liegen dabei allgemeine Informationen zu zwei ökonomischen Kennzahlen vor.</t>
-  </si>
-  <si>
     <t>Es liegen dabei für vier Mengen die entsprechenden Erlöse, Kosten oder Gewinne vor.</t>
   </si>
   <si>
@@ -566,6 +557,15 @@
   </si>
   <si>
     <t>Wenn zwei der Funktionen - Preis-Absatz-Funktion, Erlösfunktion, Kostenfunktion oder Gewinnfunktion - gegeben sind, kann ich die jeweils anderen beiden berechnen.</t>
+  </si>
+  <si>
+    <t>Es liegen dabei für zwei ökonomische Kennzahlen allgemeine Informationen vor.</t>
+  </si>
+  <si>
+    <t>Es liegen dabei für vier ökonomische Kennzahlen allgemeine Informationen vor.</t>
+  </si>
+  <si>
+    <t>Es liegen dabei für drei ökonomische Kennzahlen allgemeine Informationen vor.</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1089,16 +1089,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>28</v>
@@ -1138,13 +1138,13 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1161,13 +1161,13 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1184,13 +1184,13 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1207,13 +1207,13 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1230,13 +1230,13 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,13 +1276,13 @@
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,13 +1299,13 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,13 +1322,13 @@
         <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1345,13 +1345,13 @@
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1369,13 +1369,13 @@
         <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1392,13 +1392,13 @@
         <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1415,13 +1415,13 @@
         <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,16 +1435,16 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1462,13 +1462,13 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,13 +1485,13 @@
         <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1508,13 +1508,13 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1531,13 +1531,13 @@
         <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,13 +1554,13 @@
         <v>17</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,16 +1574,16 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1600,13 +1600,13 @@
         <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,10 +1623,10 @@
         <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>29</v>
@@ -1646,13 +1646,13 @@
         <v>17</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1669,13 +1669,13 @@
         <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1692,13 +1692,13 @@
         <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,16 +1709,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1729,16 +1729,16 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,16 +1749,16 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F34" s="1"/>
       <c r="H34" s="1"/>
@@ -1822,7 +1822,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F35" s="1"/>
       <c r="H35" s="1"/>
@@ -1832,22 +1832,22 @@
         <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,22 +1855,22 @@
         <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,22 +1878,22 @@
         <v>16</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1901,22 +1901,22 @@
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,22 +1924,22 @@
         <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,22 +1947,22 @@
         <v>16</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1970,22 +1970,22 @@
         <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,22 +1993,22 @@
         <v>16</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2016,22 +2016,22 @@
         <v>16</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2039,22 +2039,22 @@
         <v>16</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,22 +2062,22 @@
         <v>16</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,22 +2085,22 @@
         <v>16</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2108,22 +2108,22 @@
         <v>16</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2131,22 +2131,22 @@
         <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,22 +2154,22 @@
         <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2177,22 +2177,22 @@
         <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2200,22 +2200,22 @@
         <v>16</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2223,22 +2223,22 @@
         <v>16</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2246,22 +2246,22 @@
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,22 +2269,22 @@
         <v>16</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,22 +2292,22 @@
         <v>16</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2315,22 +2315,22 @@
         <v>16</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2338,22 +2338,22 @@
         <v>16</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2361,22 +2361,22 @@
         <v>16</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2384,22 +2384,22 @@
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2407,22 +2407,22 @@
         <v>16</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2430,22 +2430,22 @@
         <v>16</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2745,7 +2745,7 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -2761,10 +2761,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -2772,7 +2772,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -2788,10 +2788,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2799,10 +2799,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3760DDC9-533E-4EE9-A944-5E781CDFF509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF36F8E1-8BD9-4D57-91CC-A033B00CFBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="180">
   <si>
     <t>Gebiet</t>
   </si>
@@ -566,6 +566,21 @@
   </si>
   <si>
     <t>Es liegen dabei für drei ökonomische Kennzahlen allgemeine Informationen vor.</t>
+  </si>
+  <si>
+    <t>textuelle und symbolische Beschreibungen von Wahrscheinlichkeiten in einander umwandeln (ohne bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>textuelle und symbolische Beschreibungen von Wahrscheinlichkeiten in einander umwandeln (mit bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Interpretation von Wahrscheinlichkeiten</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_Interpretationen_ohneBedingt</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_Interpretationen_mitBedingt</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1050,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2449,18 +2464,50 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF36F8E1-8BD9-4D57-91CC-A033B00CFBED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E2D768-FD35-4649-B7C5-C82A4690FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="182">
   <si>
     <t>Gebiet</t>
   </si>
@@ -581,6 +581,12 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_Interpretationen_mitBedingt</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_Venn_BasicMitBedingt</t>
+  </si>
+  <si>
+    <t>Venn-Diagramme interpretieren.</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1057,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2510,10 +2516,24 @@
       </c>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E2D768-FD35-4649-B7C5-C82A4690FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13FCFD2-9542-4B86-B209-C2B1865F404C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="181">
   <si>
     <t>Gebiet</t>
   </si>
@@ -581,9 +581,6 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_Interpretationen_mitBedingt</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_Venn_BasicMitBedingt</t>
   </si>
   <si>
     <t>Venn-Diagramme interpretieren.</t>
@@ -1057,7 +1054,7 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2529,9 +2526,6 @@
         <v>177</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G65" s="1" t="s">
         <v>180</v>
       </c>
       <c r="H65" s="1"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13FCFD2-9542-4B86-B209-C2B1865F404C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354A0140-BF94-4FA1-A340-D91E6BC6699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="200">
   <si>
     <t>Gebiet</t>
   </si>
@@ -82,9 +82,6 @@
     <t>zu einer gegebenen Menge die Erlöse, Kosten und Gewinne berechnen.</t>
   </si>
   <si>
-    <t>zu gegebenen Erlösen, Kosten oder Gewinnen die entsprechenden Mengen berechnen</t>
-  </si>
-  <si>
     <t>Produktlebenszyklus</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>Baumdiagramme</t>
   </si>
   <si>
-    <t>Wahrscheinlichkeiten</t>
-  </si>
-  <si>
     <t>Methoden der Wahrscheinlichkeitsrechnung</t>
   </si>
   <si>
@@ -584,6 +578,69 @@
   </si>
   <si>
     <t>Venn-Diagramme interpretieren.</t>
+  </si>
+  <si>
+    <t>Intervallwahrscheinlichkeiten der Binomialverteilung</t>
+  </si>
+  <si>
+    <t>die Parameter von Intervallwahrscheinlichkeiten der Binomialverteilung angeben.</t>
+  </si>
+  <si>
+    <t>zu gegebenen Erlösen, Kosten oder Gewinnen die entsprechenden Mengen berechnen.</t>
+  </si>
+  <si>
+    <t>Intervallwahrscheinlichkeiten der Binomialverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>Dies schließt die Eingabe in einen Taschenrechner ein.</t>
+  </si>
+  <si>
+    <t>Mit Hilfe eines Tafelwerks eines eines Taschenrechners.</t>
+  </si>
+  <si>
+    <t>Intervallwahrscheinlichkeiten der Binomialverteilung mit Hilfe eines Histogramms mit kumulierten Wahrscheinlichkeiten bestimmen.</t>
+  </si>
+  <si>
+    <t>Intervallwahrscheinlichkeiten der Binomialverteilung mit Hilfe eines Histogramms mit Einzelwahrscheinlichkeiten bestimmen.</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Bereichsparameter_Angabe</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Bereichswahrscheinlichkeiten_Berechnung</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Histogramme_einzeln</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Histogramme_kumuliert</t>
+  </si>
+  <si>
+    <t>Wenn bei einer binomialverteilten Zufallsgröße eine Intervallwahrscheinlichkeit, das entsprechende Intervall und die Trefferwahrscheinlichkeit gegeben ist, kann ich die Länge bestimmen.</t>
+  </si>
+  <si>
+    <t>Wenn bei einer binomialverteilten Zufallsgröße eine Intervallwahrscheinlichkeit, das entsprechende Intervall und die Länge gegeben ist, kann ich die Trefferwahrscheinlichkeit bestimmen.</t>
+  </si>
+  <si>
+    <t>Wenn bei der binomialverteilten Zufallsgröße eine Intervallwahrscheinlichkeit, eine Länge und eine Trefferwahrscheinlichkeit gegeben ist, kann ich die Intervallgrenze bestimmen.</t>
+  </si>
+  <si>
+    <t>bei Binomialverteilung Intervallgrenzen bestimmen.</t>
+  </si>
+  <si>
+    <t>bei Binomialverteilung Längen bestimmen.</t>
+  </si>
+  <si>
+    <t>bei Binomialverteilung Trefferwahrscheinlichkeiten bestimmen.</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var1, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var2, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var3, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var4</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_p gesucht Var1, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_p gesucht Var2, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_p gesucht Var3, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_p gesucht Var4</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var1, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var2, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var3, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var4</t>
   </si>
 </sst>
 </file>
@@ -712,13 +769,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H100" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H100" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H100">
-    <sortCondition ref="B2:B100"/>
-    <sortCondition ref="C2:C100"/>
-    <sortCondition ref="D2:D100"/>
-    <sortCondition ref="E2:E100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H110" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H110" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H110">
+    <sortCondition ref="B2:B110"/>
+    <sortCondition ref="C2:C110"/>
+    <sortCondition ref="D2:D110"/>
+    <sortCondition ref="E2:E110"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -1051,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1093,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1101,22 +1158,22 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,22 +1181,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1147,22 +1204,22 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1170,22 +1227,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1193,22 +1250,22 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,22 +1273,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,22 +1296,22 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,22 +1319,22 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,22 +1342,22 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,22 +1365,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1331,22 +1388,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1354,22 +1411,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1378,22 +1435,22 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,22 +1458,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1424,22 +1481,22 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,22 +1504,22 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1471,22 +1528,22 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1494,22 +1551,22 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,22 +1574,22 @@
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1540,22 +1597,22 @@
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,22 +1620,22 @@
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,22 +1643,22 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,22 +1666,22 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1632,22 +1689,22 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,22 +1712,22 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,22 +1735,22 @@
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,22 +1758,22 @@
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1727,16 +1784,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,16 +1804,16 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,16 +1824,16 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,13 +1844,13 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1804,800 +1861,903 @@
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="H34" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="H35" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>124</v>
+        <v>197</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2774,6 +2934,76 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="H110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2806,7 +3036,7 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2814,26 +3044,26 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -2841,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -2849,10 +3079,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2860,21 +3090,21 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354A0140-BF94-4FA1-A340-D91E6BC6699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42558D68-7220-4165-975B-468D6C199A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="230">
   <si>
     <t>Gebiet</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Abkürzungen</t>
   </si>
   <si>
-    <t>ohne Sonderzeichen, Unterstriche ok</t>
-  </si>
-  <si>
     <t>Marktgleichgewicht</t>
   </si>
   <si>
@@ -580,9 +577,6 @@
     <t>Venn-Diagramme interpretieren.</t>
   </si>
   <si>
-    <t>Intervallwahrscheinlichkeiten der Binomialverteilung</t>
-  </si>
-  <si>
     <t>die Parameter von Intervallwahrscheinlichkeiten der Binomialverteilung angeben.</t>
   </si>
   <si>
@@ -598,12 +592,6 @@
     <t>Mit Hilfe eines Tafelwerks eines eines Taschenrechners.</t>
   </si>
   <si>
-    <t>Intervallwahrscheinlichkeiten der Binomialverteilung mit Hilfe eines Histogramms mit kumulierten Wahrscheinlichkeiten bestimmen.</t>
-  </si>
-  <si>
-    <t>Intervallwahrscheinlichkeiten der Binomialverteilung mit Hilfe eines Histogramms mit Einzelwahrscheinlichkeiten bestimmen.</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Binomialverteilung_Bereichsparameter_Angabe</t>
   </si>
   <si>
@@ -622,18 +610,6 @@
     <t>Wenn bei einer binomialverteilten Zufallsgröße eine Intervallwahrscheinlichkeit, das entsprechende Intervall und die Länge gegeben ist, kann ich die Trefferwahrscheinlichkeit bestimmen.</t>
   </si>
   <si>
-    <t>Wenn bei der binomialverteilten Zufallsgröße eine Intervallwahrscheinlichkeit, eine Länge und eine Trefferwahrscheinlichkeit gegeben ist, kann ich die Intervallgrenze bestimmen.</t>
-  </si>
-  <si>
-    <t>bei Binomialverteilung Intervallgrenzen bestimmen.</t>
-  </si>
-  <si>
-    <t>bei Binomialverteilung Längen bestimmen.</t>
-  </si>
-  <si>
-    <t>bei Binomialverteilung Trefferwahrscheinlichkeiten bestimmen.</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var1, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var2, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var3, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var4</t>
   </si>
   <si>
@@ -641,6 +617,120 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var1, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var2, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var3, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var4</t>
+  </si>
+  <si>
+    <t>Intervallwahrscheinlichkeiten der Binomialverteilung mit Hilfe eines Histogramms der Einzelwahrscheinlichkeiten bestimmen.</t>
+  </si>
+  <si>
+    <t>Intervallwahrscheinlichkeiten der Binomialverteilung mit Hilfe eines Histogramms der kumulierten Wahrscheinlichkeiten bestimmen.</t>
+  </si>
+  <si>
+    <t>Intervallwahrscheinlichkeiten</t>
+  </si>
+  <si>
+    <t>Wenn bei einer binomialverteilten Zufallsgröße , die Länge, die Trefferwahrscheinlichkeit und eine Intervallwahrscheinlichkeit gegeben ist, kann ich die entsprechende Intervallgrenze bestimmen.</t>
+  </si>
+  <si>
+    <t>einer binomialverteilten Zufallsgröße die Länge bestimmen.</t>
+  </si>
+  <si>
+    <t>einer binomialverteilten Zufallsgröße die Trefferwahrscheinlichkeit bestimmen.</t>
+  </si>
+  <si>
+    <t>einer binomialverteilten Zufallsgröße Intervallgrenzen bestimmen.</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines einseitigen Hypothesentests herleiten (linksseitig).</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines einseitigen Hypothesentests herleiten (rechtsseitig).</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines einseitigen Hypothesentests anwenden und das Signifikanzniveau bestimmen (linksseitig).</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines einseitigen Hypothesentests anwenden und das Signifikanzniveau bestimmen (rechtsseitig).</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_HypothesenAblehnungsbereich_linksseitig</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_HypothesenAblehnungsbereich_rechtsseitig</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_HypothesenErgebnis_linksseitig</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_HypothesenErgebnis_rechtsseitig</t>
+  </si>
+  <si>
+    <t>Kennzahlen der Binomialverteilung</t>
+  </si>
+  <si>
+    <t>den Erwartungswert und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>den Erwartungswert und die Länge einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>die Länge und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>die Länge und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>die Standardabweichung und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>Hier sind die Länge und die Trefferwahrscheinlichkeit gegeben.</t>
+  </si>
+  <si>
+    <t>Hier sind die Länge und der Erwartungswert gegeben.</t>
+  </si>
+  <si>
+    <t>Hier sind der Erwartungswert und die Trefferwahrscheinlichkeit gegeben.</t>
+  </si>
+  <si>
+    <t>Hier sind der Erwartungswert und die Standardabweichung gegeben.</t>
+  </si>
+  <si>
+    <t>Hier sind die Standardabweichung und die Trefferwahrscheinlichkeit gegeben.</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeiten von absoluten Umgebungen des Erwartungswerts berechnen.</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeiten von relativen Umgebungen des Erwartungswerts berechnen.</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeiten von Sigma-Umgebungen des Erwartungswerts berechnen.</t>
+  </si>
+  <si>
+    <t>ohne Sonderzeichen, Unterstriche ok, keine ","</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_n_p gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_n_mu gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_p_mu gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_mu_sigma gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_p_sigma gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb_ absolut, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb_ absolut</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb_ relativ, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb_ relativ</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb_ sigma, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb_ sigma</t>
   </si>
 </sst>
 </file>
@@ -769,13 +859,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H110" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H110" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H110">
-    <sortCondition ref="B2:B110"/>
-    <sortCondition ref="C2:C110"/>
-    <sortCondition ref="D2:D110"/>
-    <sortCondition ref="E2:E110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H114" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H114" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H114">
+    <sortCondition ref="B2:B114"/>
+    <sortCondition ref="C2:C114"/>
+    <sortCondition ref="D2:D114"/>
+    <sortCondition ref="E2:E114"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -1108,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1212,7 @@
     <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
     <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
@@ -1164,16 +1254,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1193,7 +1283,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>27</v>
@@ -1213,13 +1303,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1236,13 +1326,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,13 +1349,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1282,13 +1372,13 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,13 +1395,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,10 +1418,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>29</v>
@@ -1351,13 +1441,13 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1377,7 +1467,7 @@
         <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>31</v>
@@ -1400,7 +1490,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>32</v>
@@ -1423,7 +1513,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
@@ -1447,7 +1537,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>42</v>
@@ -1470,7 +1560,7 @@
         <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>31</v>
@@ -1493,7 +1583,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>41</v>
@@ -1510,16 +1600,16 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -1537,13 +1627,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1560,10 +1650,10 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>30</v>
@@ -1583,13 +1673,13 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1609,7 +1699,7 @@
         <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>39</v>
@@ -1632,7 +1722,7 @@
         <v>44</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>39</v>
@@ -1649,16 +1739,16 @@
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,13 +1765,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1698,10 +1788,10 @@
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>28</v>
@@ -1721,13 +1811,13 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1747,7 +1837,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>40</v>
@@ -1770,7 +1860,7 @@
         <v>45</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>40</v>
@@ -1784,16 +1874,16 @@
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1804,16 +1894,16 @@
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1824,16 +1914,16 @@
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1850,7 +1940,7 @@
         <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1864,10 +1954,10 @@
         <v>16</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,16 +1971,16 @@
         <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,16 +1994,16 @@
         <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1927,17 +2017,15 @@
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
@@ -1950,17 +2038,15 @@
         <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
@@ -1973,16 +2059,16 @@
         <v>14</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1996,16 +2082,16 @@
         <v>14</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2019,38 +2105,86 @@
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
@@ -2063,39 +2197,62 @@
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="H44" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,22 +2260,22 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>108</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2126,22 +2283,22 @@
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2149,22 +2306,22 @@
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2172,22 +2329,22 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>129</v>
+        <v>218</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2195,22 +2352,22 @@
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2218,22 +2375,22 @@
         <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,22 +2398,22 @@
         <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2264,22 +2421,22 @@
         <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2287,22 +2444,22 @@
         <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2310,22 +2467,22 @@
         <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2333,22 +2490,22 @@
         <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,22 +2513,22 @@
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2379,22 +2536,22 @@
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2402,22 +2559,22 @@
         <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,22 +2582,22 @@
         <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2448,22 +2605,22 @@
         <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2471,22 +2628,22 @@
         <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2494,22 +2651,22 @@
         <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,22 +2674,22 @@
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,22 +2697,22 @@
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2563,22 +2720,22 @@
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2586,22 +2743,22 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,22 +2766,22 @@
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2632,22 +2789,22 @@
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,22 +2812,22 @@
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2678,22 +2835,19 @@
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2701,22 +2855,22 @@
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2724,22 +2878,22 @@
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2747,67 +2901,184 @@
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H75" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
@@ -3004,6 +3275,34 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="H114" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3020,7 +3319,7 @@
   <dimension ref="B6:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3093,7 +3392,7 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42558D68-7220-4165-975B-468D6C199A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F111419-E0FE-4E6B-902C-721248EA1B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="254">
   <si>
     <t>Gebiet</t>
   </si>
@@ -731,6 +731,78 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb_ sigma, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb_ sigma</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik</t>
+  </si>
+  <si>
+    <t>Finanzmathematik</t>
+  </si>
+  <si>
+    <t>Zinseszinsrechnung</t>
+  </si>
+  <si>
+    <t>Rentenrechnung</t>
+  </si>
+  <si>
+    <t>die Zinseszinsformel nach allen Größen umstellen.</t>
+  </si>
+  <si>
+    <t>die Formel für den nachschüssigen Rentenendwert nach allen Größen umformen.</t>
+  </si>
+  <si>
+    <t>Außer nach dem Zinsfaktor.</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__Zinseszins</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__NachschüssigerRentenendwert</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__VorschüssigerRentenendwert</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__NachschüssigerRentenbarwert</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__VorschüssigerRentenbarwert</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__NachschüssigerKapitalaufbau</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__VorschüssigerKapitalaufbau</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__NachschüssigerKapitalabbau</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__VorschüssigerKapitalabbau</t>
+  </si>
+  <si>
+    <t>die Formel für den vorschüssigen Rentenendwert nach allen Größen umformen.</t>
+  </si>
+  <si>
+    <t>Kapitalaufbau und Kapitalabbau</t>
+  </si>
+  <si>
+    <t>die Formel für den nachschüssigen Rentenbarwert nach allen Größen umformen.</t>
+  </si>
+  <si>
+    <t>die Formel für den vorschüssigen Rentenbarwert nach allen Größen umformen.</t>
+  </si>
+  <si>
+    <t>die Formel für den nachschüssigen Kapitalaufbau nach allen Größen umformen.</t>
+  </si>
+  <si>
+    <t>die Formel für den vorschüssigen Kapitalaufbau nach allen Größen umformen.</t>
+  </si>
+  <si>
+    <t>die Formel für den nachschüssigen Kapitalabbau nach allen Größen umformen.</t>
+  </si>
+  <si>
+    <t>die Formel für den vorschüssigen Kapitalabbau nach allen Größen umformen.</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1272,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3081,67 +3153,209 @@
       </c>
     </row>
     <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="B91" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F111419-E0FE-4E6B-902C-721248EA1B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F702E4C-3F89-4DD4-9488-237B1493924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -754,33 +754,6 @@
     <t>Außer nach dem Zinsfaktor.</t>
   </si>
   <si>
-    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__Zinseszins</t>
-  </si>
-  <si>
-    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__NachschüssigerRentenendwert</t>
-  </si>
-  <si>
-    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__VorschüssigerRentenendwert</t>
-  </si>
-  <si>
-    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__NachschüssigerRentenbarwert</t>
-  </si>
-  <si>
-    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__VorschüssigerRentenbarwert</t>
-  </si>
-  <si>
-    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__NachschüssigerKapitalaufbau</t>
-  </si>
-  <si>
-    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__VorschüssigerKapitalaufbau</t>
-  </si>
-  <si>
-    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__NachschüssigerKapitalabbau</t>
-  </si>
-  <si>
-    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen__VorschüssigerKapitalabbau</t>
-  </si>
-  <si>
     <t>die Formel für den vorschüssigen Rentenendwert nach allen Größen umformen.</t>
   </si>
   <si>
@@ -803,6 +776,33 @@
   </si>
   <si>
     <t>die Formel für den vorschüssigen Kapitalabbau nach allen Größen umformen.</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_Zinseszins</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_NachschüssigerRentenendwert</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_VorschüssigerRentenendwert</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_NachschüssigerRentenbarwert</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_VorschüssigerRentenbarwert</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_NachschüssigerKapitalaufbau</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_VorschüssigerKapitalaufbau</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_NachschüssigerKapitalabbau</t>
+  </si>
+  <si>
+    <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_VorschüssigerKapitalabbau</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3169,7 +3169,7 @@
         <v>234</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H83" s="1"/>
     </row>
@@ -3190,7 +3190,7 @@
         <v>235</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>236</v>
@@ -3210,10 +3210,10 @@
         <v>233</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>236</v>
@@ -3233,10 +3233,10 @@
         <v>233</v>
       </c>
       <c r="F86" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>236</v>
@@ -3256,10 +3256,10 @@
         <v>233</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>236</v>
@@ -3276,13 +3276,13 @@
         <v>11</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>236</v>
@@ -3299,13 +3299,13 @@
         <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>236</v>
@@ -3322,13 +3322,13 @@
         <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>236</v>
@@ -3345,13 +3345,13 @@
         <v>11</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>236</v>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F702E4C-3F89-4DD4-9488-237B1493924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE68A222-FD47-4A6F-8E03-A97D081AA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -709,30 +709,6 @@
     <t>ohne Sonderzeichen, Unterstriche ok, keine ","</t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_n_p gegeben</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_n_mu gegeben</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_p_mu gegeben</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_mu_sigma gegeben</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_p_sigma gegeben</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb_ absolut, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb_ absolut</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb_ relativ, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb_ relativ</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb_ sigma, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb_ sigma</t>
-  </si>
-  <si>
     <t>Angewandte Mathematik</t>
   </si>
   <si>
@@ -803,6 +779,30 @@
   </si>
   <si>
     <t>Angewandte Mathematik_Wirtschaft_Finanzmathematik_Formelumstellen_VorschüssigerKapitalabbau</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_n p gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_p mu gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_n mu gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_mu sigma gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_p sigma gegeben</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb absolut, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb absolut</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb relativ, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb relativ</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb sigma, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb sigma</t>
   </si>
 </sst>
 </file>
@@ -932,7 +932,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H114" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H114" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <autoFilter ref="B1:H114" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Kennzahlen der Binomialverteilung"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H114">
     <sortCondition ref="B2:B114"/>
     <sortCondition ref="C2:C114"/>
@@ -1272,8 +1278,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1598,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1691,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +1737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1754,7 +1760,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1777,7 +1783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>15</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
@@ -2099,7 +2105,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>15</v>
       </c>
@@ -2120,7 +2126,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>15</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>15</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>15</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>15</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2298,7 +2304,7 @@
         <v>208</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>213</v>
@@ -2321,7 +2327,7 @@
         <v>212</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>214</v>
@@ -2344,7 +2350,7 @@
         <v>210</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>215</v>
@@ -2367,7 +2373,7 @@
         <v>211</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>216</v>
@@ -2390,7 +2396,7 @@
         <v>209</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>217</v>
@@ -2413,7 +2419,7 @@
         <v>218</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>72</v>
@@ -2436,7 +2442,7 @@
         <v>219</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>72</v>
@@ -2459,13 +2465,13 @@
         <v>220</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
@@ -2649,7 +2655,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
@@ -2695,7 +2701,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -2787,7 +2793,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
@@ -2922,7 +2928,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
@@ -2945,7 +2951,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
@@ -3014,7 +3020,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
@@ -3060,7 +3066,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3129,7 +3135,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3152,366 +3158,366 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="F88" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G89" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="H91" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE68A222-FD47-4A6F-8E03-A97D081AA633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2E37EF-C62E-4028-B887-D6BED9603223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="260">
   <si>
     <t>Gebiet</t>
   </si>
@@ -232,9 +232,6 @@
     <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (ohne Integration). </t>
   </si>
   <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus graphisch bestimmen (ohne Integration). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (mit Integration). </t>
   </si>
   <si>
@@ -346,9 +343,6 @@
     <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var1, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var2, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var3, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var4</t>
   </si>
   <si>
-    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Umsatz, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Umsatz, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Ableitung, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Ableitung</t>
-  </si>
-  <si>
     <t>Analysis_Wirtschaft_Produktlebenszyklus_Integrale_Gemischt</t>
   </si>
   <si>
@@ -803,6 +797,30 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb sigma, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb sigma</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Ableitung, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Ableitung</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Umsatz, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Umsatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Produktlebenszyklusfunktion bestimmen (ohne Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Ableitung der Produktlebenszyklusfunktion bestimmen (ohne Integration). </t>
+  </si>
+  <si>
+    <t>Dazu gehören der Zeitpunkt, an dem der höchste Umsatz erzielt wird, der höchste Umsatz, der Zeitpunkt, an dem der Umsatz am stärksten steigt oder fällt, die Veränderung des Umstatzes, der Umsatz bei der Produkteinführung, der langfristig zu erwartende Umsatz und der Zeitpunkt, an dem das Produkt vom Markt genommen wird.</t>
+  </si>
+  <si>
+    <t>Dazu gehören der Zeitpunkt, an dem der höchste Umsatz erzielt wird, der Zeitpunkt, an dem der Umsatz am stärksten steigt oder fällt und die Veränderung des Umstatzes.</t>
+  </si>
+  <si>
+    <t>Hierbei kann zwischen dem Umsatz pro Zeiteinheit und dem Gesamtumsatz unterscheiden.</t>
+  </si>
+  <si>
+    <t>Dazu zählt die Untersuchung der zeitlichen Entwicklung von Erlösen, Kosten und Gewinnen.</t>
   </si>
 </sst>
 </file>
@@ -931,19 +949,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H114" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H114" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Kennzahlen der Binomialverteilung"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H114">
-    <sortCondition ref="B2:B114"/>
-    <sortCondition ref="C2:C114"/>
-    <sortCondition ref="D2:D114"/>
-    <sortCondition ref="E2:E114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H115" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H115" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H115">
+    <sortCondition ref="B2:B115"/>
+    <sortCondition ref="C2:C115"/>
+    <sortCondition ref="D2:D115"/>
+    <sortCondition ref="E2:E115"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -1276,10 +1288,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1335,16 +1347,16 @@
         <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1361,13 +1373,13 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1384,13 +1396,13 @@
         <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1404,16 +1416,16 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>101</v>
+        <v>253</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1427,16 +1439,16 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1450,39 +1462,39 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1496,16 +1508,16 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1519,16 +1531,16 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1542,16 +1554,16 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1565,16 +1577,16 @@
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1588,17 +1600,16 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1612,16 +1623,17 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1635,16 +1647,16 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1658,40 +1670,39 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1702,19 +1713,20 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1728,16 +1740,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1751,16 +1763,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1774,16 +1786,16 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1797,39 +1809,39 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1840,19 +1852,19 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1866,16 +1878,16 @@
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1889,16 +1901,16 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1912,16 +1924,16 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1935,36 +1947,39 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1975,16 +1990,16 @@
         <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1995,16 +2010,16 @@
         <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2012,16 +2027,19 @@
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2032,239 +2050,235 @@
         <v>16</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2275,16 +2289,16 @@
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2298,16 +2312,16 @@
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>213</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2321,17 +2335,15 @@
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
@@ -2344,17 +2356,15 @@
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
@@ -2367,16 +2377,16 @@
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2390,16 +2400,16 @@
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2413,16 +2423,16 @@
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,16 +2446,16 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2459,1070 +2469,1095 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="G59" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="1" t="s">
+    </row>
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="G91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="G92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="H115" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3612,7 +3647,7 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2E37EF-C62E-4028-B887-D6BED9603223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FFC9F2-ED06-485F-9E5C-426E8BD82309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="272">
   <si>
     <t>Gebiet</t>
   </si>
@@ -821,6 +821,42 @@
   </si>
   <si>
     <t>Dazu zählt die Untersuchung der zeitlichen Entwicklung von Erlösen, Kosten und Gewinnen.</t>
+  </si>
+  <si>
+    <t>Zufallsgrößen</t>
+  </si>
+  <si>
+    <t>Kennzahlen allgemeiner Zufallsgrößen</t>
+  </si>
+  <si>
+    <t>kann eine fehlende Wahrscheinlichkeit einer Wahrscheinlichkeitsverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>kann den Erwartungswert einer allgemeinen Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>kann die Standardabweichung einer allgemeinen Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>kann bei gegebenem Erwartungswert einen fehlenden Wert einer Wahrscheinlichkeitsverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>kann bei gegebenem Erwartungswert zwei fehlende Wahrscheinlichkeiten einer Wahrscheinlichkeitsverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Zufallsgrößen_Kennzahlen_FehlenderWert</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Zufallsgrößen_Kennzahlen_FehlendeWkt</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Zufallsgrößen_Kennzahlen_BestimmungEX</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Zufallsgrößen_Kennzahlen_BestimmungSX</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Zufallsgrößen_Kennzahlen_ZweiFehlendeWkt</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1326,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="F88" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3399,39 +3435,119 @@
       </c>
     </row>
     <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FFC9F2-ED06-485F-9E5C-426E8BD82309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C004CA-8B63-44FA-8620-37D380D077B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -205,27 +205,9 @@
     <t>Gleichungen kubischer, ökonomischer Funktionen berechnen.</t>
   </si>
   <si>
-    <t>Gleichungen kubischer, ökonomischer Funktionen austellen (Vorgabe: allgemeine Informationen).</t>
-  </si>
-  <si>
-    <t>Gleichungen kubischer, ökonomischer Funktionen austellen (Vorgabe: Informationen zu Mengen).</t>
-  </si>
-  <si>
     <t>Gleichungen linearer, ökonomischer Funktionen berechnen.</t>
   </si>
   <si>
-    <t>Gleichungen linearer, ökonomischer Funktionen austellen (Vorgabe: Informationen zu Mengen).</t>
-  </si>
-  <si>
-    <t>Gleichungen linearer, ökonomischer Funktionen austellen (Vorgabe: allgemeine Informationen).</t>
-  </si>
-  <si>
-    <t>Gleichungen quadratischer, ökonomischer Funktionen austellen (Vorgabe: allgemeine Informationen).</t>
-  </si>
-  <si>
-    <t>Gleichungen quadratischer, ökonomischer Funktionen austellen (Vorgabe: Informationen zu Mengen).</t>
-  </si>
-  <si>
     <t>Gleichungen quadratischer, ökonomischer Funktionen berechnen.</t>
   </si>
   <si>
@@ -857,6 +839,24 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Zufallsgrößen_Kennzahlen_ZweiFehlendeWkt</t>
+  </si>
+  <si>
+    <t>Gleichungen kubischer, ökonomischer Funktionen aufstellen (Vorgabe: Informationen zu Mengen).</t>
+  </si>
+  <si>
+    <t>Gleichungen kubischer, ökonomischer Funktionen aufstellen (Vorgabe: allgemeine Informationen).</t>
+  </si>
+  <si>
+    <t>Gleichungen linearer, ökonomischer Funktionen aufstellen (Vorgabe: Informationen zu Mengen).</t>
+  </si>
+  <si>
+    <t>Gleichungen linearer, ökonomischer Funktionen aufstellen (Vorgabe: allgemeine Informationen).</t>
+  </si>
+  <si>
+    <t>Gleichungen quadratischer, ökonomischer Funktionen aufstellen (Vorgabe: Informationen zu Mengen).</t>
+  </si>
+  <si>
+    <t>Gleichungen quadratischer, ökonomischer Funktionen aufstellen (Vorgabe: allgemeine Informationen).</t>
   </si>
 </sst>
 </file>
@@ -1326,8 +1326,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F88" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1383,13 +1383,13 @@
         <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,7 +1409,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>27</v>
@@ -1429,13 +1429,13 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,13 +1452,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,13 +1475,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,13 +1498,13 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1521,13 +1521,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,10 +1547,10 @@
         <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,10 +1567,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>29</v>
@@ -1590,13 +1590,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>31</v>
@@ -1639,7 +1639,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>32</v>
@@ -1662,7 +1662,7 @@
         <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>41</v>
@@ -1686,7 +1686,7 @@
         <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>42</v>
@@ -1709,7 +1709,7 @@
         <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>31</v>
@@ -1732,7 +1732,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>41</v>
@@ -1752,13 +1752,13 @@
         <v>52</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1776,13 +1776,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1799,10 +1799,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>30</v>
@@ -1822,13 +1822,13 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1848,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>39</v>
@@ -1871,7 +1871,7 @@
         <v>44</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>39</v>
@@ -1891,13 +1891,13 @@
         <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1914,13 +1914,13 @@
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1937,10 +1937,10 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>28</v>
@@ -1960,13 +1960,13 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1986,7 +1986,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>40</v>
@@ -2009,7 +2009,7 @@
         <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>40</v>
@@ -2026,13 +2026,13 @@
         <v>52</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2046,13 +2046,13 @@
         <v>52</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2066,13 +2066,13 @@
         <v>52</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,214 +2103,214 @@
         <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -2325,16 +2325,16 @@
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2348,16 +2348,16 @@
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2371,13 +2371,13 @@
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -2392,13 +2392,13 @@
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -2413,16 +2413,16 @@
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,16 +2436,16 @@
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2459,16 +2459,16 @@
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,16 +2482,16 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2505,16 +2505,16 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2528,16 +2528,16 @@
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2551,16 +2551,16 @@
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,16 +2574,16 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,16 +2597,16 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2620,16 +2620,16 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,16 +2643,16 @@
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,16 +2666,16 @@
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,16 +2689,16 @@
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2712,16 +2712,16 @@
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2735,16 +2735,16 @@
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2752,22 +2752,22 @@
         <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,22 +2775,22 @@
         <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2798,22 +2798,22 @@
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2821,22 +2821,22 @@
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2844,22 +2844,22 @@
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2867,22 +2867,22 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,22 +2890,22 @@
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2913,22 +2913,22 @@
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2936,22 +2936,22 @@
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2959,22 +2959,22 @@
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2982,22 +2982,22 @@
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,22 +3005,22 @@
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,22 +3028,22 @@
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3051,22 +3051,22 @@
         <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3074,22 +3074,22 @@
         <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,22 +3097,22 @@
         <v>15</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,22 +3120,22 @@
         <v>15</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,22 +3143,22 @@
         <v>15</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3166,22 +3166,22 @@
         <v>15</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3189,19 +3189,19 @@
         <v>15</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,22 +3209,22 @@
         <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="H83" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,22 +3232,22 @@
         <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,22 +3255,22 @@
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3278,22 +3278,22 @@
         <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3301,22 +3301,22 @@
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G87" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3324,22 +3324,22 @@
         <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3347,22 +3347,22 @@
         <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3370,22 +3370,22 @@
         <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3393,22 +3393,22 @@
         <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3416,22 +3416,22 @@
         <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,22 +3439,22 @@
         <v>15</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="H93" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3462,22 +3462,22 @@
         <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F94" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3485,22 +3485,22 @@
         <v>15</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3508,22 +3508,22 @@
         <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="H96" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,22 +3531,22 @@
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,7 +3763,7 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C004CA-8B63-44FA-8620-37D380D077B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80CB96-3E44-457A-B963-9EBE4A2DFCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -565,9 +565,6 @@
     <t>Dies schließt die Eingabe in einen Taschenrechner ein.</t>
   </si>
   <si>
-    <t>Mit Hilfe eines Tafelwerks eines eines Taschenrechners.</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Binomialverteilung_Bereichsparameter_Angabe</t>
   </si>
   <si>
@@ -857,6 +854,9 @@
   </si>
   <si>
     <t>Gleichungen quadratischer, ökonomischer Funktionen aufstellen (Vorgabe: allgemeine Informationen).</t>
+  </si>
+  <si>
+    <t>Mit Hilfe eines Tafelwerks oder Taschenrechners.</t>
   </si>
 </sst>
 </file>
@@ -1326,8 +1326,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1435,7 @@
         <v>93</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,13 +1452,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,13 +1475,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>94</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>95</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>74</v>
@@ -1590,7 +1590,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>73</v>
@@ -1799,7 +1799,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>80</v>
@@ -1822,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>79</v>
@@ -1937,7 +1937,7 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>84</v>
@@ -1960,7 +1960,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>83</v>
@@ -2111,206 +2111,206 @@
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -2328,10 +2328,10 @@
         <v>96</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>65</v>
@@ -2351,10 +2351,10 @@
         <v>96</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>65</v>
@@ -2374,10 +2374,10 @@
         <v>96</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -2395,10 +2395,10 @@
         <v>96</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -2413,13 +2413,13 @@
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>173</v>
@@ -2436,16 +2436,16 @@
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>172</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2459,13 +2459,13 @@
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>65</v>
@@ -2482,13 +2482,13 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>65</v>
@@ -2505,16 +2505,16 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2528,16 +2528,16 @@
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2551,16 +2551,16 @@
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,16 +2574,16 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,16 +2597,16 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2620,16 +2620,16 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,16 +2643,16 @@
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,16 +2666,16 @@
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,13 +2689,13 @@
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>65</v>
@@ -2712,13 +2712,13 @@
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>65</v>
@@ -2735,13 +2735,13 @@
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>65</v>
@@ -3439,19 +3439,19 @@
         <v>15</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="G93" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>65</v>
@@ -3462,19 +3462,19 @@
         <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="F94" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>65</v>
@@ -3485,19 +3485,19 @@
         <v>15</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>65</v>
@@ -3508,19 +3508,19 @@
         <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="F96" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>65</v>
@@ -3531,19 +3531,19 @@
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="F97" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>65</v>
@@ -3763,7 +3763,7 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC80CB96-3E44-457A-B963-9EBE4A2DFCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E464E4-3B42-4BAF-965E-4075BB2875BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="249">
   <si>
     <t>Gebiet</t>
   </si>
@@ -310,9 +310,6 @@
     <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E1K3, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K3</t>
   </si>
   <si>
-    <t xml:space="preserve">Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K1, Funktionsterme_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K2 </t>
-  </si>
-  <si>
     <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K2</t>
   </si>
   <si>
@@ -394,12 +391,6 @@
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_Var3InfoUnabh</t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_AbhängigOhneBedingt</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_UnabhängigOhneBedingt</t>
-  </si>
-  <si>
     <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 1)</t>
   </si>
   <si>
@@ -409,117 +400,15 @@
     <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 3)</t>
   </si>
   <si>
-    <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten).  (Variante 1)</t>
-  </si>
-  <si>
-    <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten). (Variante 2)</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Abhängig</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Unabhängig</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_AbhängigOhneBedingt</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_UnabhängigOhneBedingt</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_Abhängig</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_Unabhängig</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh1</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh2</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh3</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh1</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh2</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh3</t>
-  </si>
-  <si>
-    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten). (Variante 1)</t>
-  </si>
-  <si>
-    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten). (Variante 2)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 1)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 2)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 3)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten). (Variante 1)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten). (Variante 2)</t>
-  </si>
-  <si>
     <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 1)</t>
   </si>
   <si>
     <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 2)</t>
   </si>
   <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 3)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 4)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 5)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 6)</t>
-  </si>
-  <si>
     <t>Vierfeldertafeln</t>
   </si>
   <si>
-    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 4)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 1)</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 2)</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1InfoUnabh</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2InfoUnabh</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1keineInfoUnabh</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2keineInfoUnabh</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var3keineInfoUnabh</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var4keineInfoUnabh</t>
-  </si>
-  <si>
     <t>Ich kann die Rechenregeln für den Umgang mit Vierfeldertafeln anwenden.</t>
   </si>
   <si>
@@ -857,6 +746,48 @@
   </si>
   <si>
     <t>Mit Hilfe eines Tafelwerks oder Taschenrechners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K2 </t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh1, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh2, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh3</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh1, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh2, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh3</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_AbhängigOhneBedingt, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_UnabhängigOhneBedingt</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Abhängig, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Unabhängig</t>
+  </si>
+  <si>
+    <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_AbhängigOhneBedingt, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_UnabhängigOhneBedingt</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_Abhängig, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_Unabhängig</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1keineInfoUnabh, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2keineInfoUnabh, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var3keineInfoUnabh, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var4keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1InfoUnabh, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2InfoUnabh</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit).</t>
   </si>
 </sst>
 </file>
@@ -985,13 +916,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H115" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H115" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H115">
-    <sortCondition ref="B2:B115"/>
-    <sortCondition ref="C2:C115"/>
-    <sortCondition ref="D2:D115"/>
-    <sortCondition ref="E2:E115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H103" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H103" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H103">
+    <sortCondition ref="B2:B103"/>
+    <sortCondition ref="C2:C103"/>
+    <sortCondition ref="D2:D103"/>
+    <sortCondition ref="E2:E103"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -1324,10 +1255,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>27</v>
@@ -1432,10 +1363,10 @@
         <v>56</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,13 +1383,13 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,13 +1406,13 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1501,10 +1432,10 @@
         <v>57</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1524,10 +1455,10 @@
         <v>58</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1550,7 +1481,7 @@
         <v>85</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>74</v>
@@ -1590,13 +1521,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1782,7 +1713,7 @@
         <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1799,7 +1730,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>80</v>
@@ -1822,13 +1753,13 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,10 +1848,10 @@
         <v>55</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1937,7 +1868,7 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>84</v>
@@ -1960,13 +1891,13 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1986,7 +1917,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>40</v>
@@ -2009,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>40</v>
@@ -2103,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>65</v>
@@ -2111,206 +2042,206 @@
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -2325,13 +2256,13 @@
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>65</v>
@@ -2348,13 +2279,13 @@
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>65</v>
@@ -2371,13 +2302,13 @@
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -2392,13 +2323,13 @@
         <v>14</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -2413,16 +2344,16 @@
         <v>14</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,16 +2367,16 @@
         <v>14</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2459,13 +2390,13 @@
         <v>14</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>65</v>
@@ -2482,13 +2413,13 @@
         <v>14</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>65</v>
@@ -2505,16 +2436,16 @@
         <v>14</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2528,16 +2459,16 @@
         <v>14</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2551,16 +2482,16 @@
         <v>14</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,16 +2505,16 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,16 +2528,16 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2620,16 +2551,16 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,16 +2574,16 @@
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,16 +2597,16 @@
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,13 +2620,13 @@
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>65</v>
@@ -2712,13 +2643,13 @@
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>65</v>
@@ -2735,13 +2666,13 @@
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>65</v>
@@ -2752,22 +2683,22 @@
         <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,22 +2706,22 @@
         <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2798,22 +2729,22 @@
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2821,22 +2752,22 @@
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2844,22 +2775,22 @@
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2867,22 +2798,22 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,22 +2821,22 @@
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>122</v>
+        <v>239</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2913,22 +2844,22 @@
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>123</v>
+        <v>241</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2936,22 +2867,22 @@
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2959,22 +2890,22 @@
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2982,19 +2913,19 @@
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>65</v>
@@ -3005,16 +2936,16 @@
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>130</v>
@@ -3028,16 +2959,16 @@
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>131</v>
@@ -3051,18 +2982,15 @@
         <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G76" s="1" t="s">
         <v>132</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -3074,22 +3002,22 @@
         <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>146</v>
+        <v>246</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,22 +3025,22 @@
         <v>15</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,22 +3048,22 @@
         <v>15</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3143,22 +3071,22 @@
         <v>15</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3166,19 +3094,19 @@
         <v>15</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>65</v>
@@ -3189,16 +3117,19 @@
         <v>15</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>169</v>
+        <v>219</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>65</v>
@@ -3209,22 +3140,22 @@
         <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,22 +3163,22 @@
         <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,299 +3186,107 @@
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="H86" s="1"/>
     </row>
     <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="H88" s="1"/>
     </row>
     <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="H89" s="1"/>
     </row>
     <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="H90" s="1"/>
     </row>
     <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="B91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="H91" s="1"/>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="B92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="H94" s="1"/>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="H96" s="1"/>
     </row>
     <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="B97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="H97" s="1"/>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
@@ -3590,90 +3329,6 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="H112" s="1"/>
-    </row>
-    <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="H113" s="1"/>
-    </row>
-    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="H115" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3763,7 +3418,7 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E464E4-3B42-4BAF-965E-4075BB2875BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B8D85-8872-49C8-A42C-80BB8DAA6F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste2" sheetId="6" r:id="rId1"/>
@@ -920,8 +920,6 @@
   <autoFilter ref="B1:H103" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H103">
     <sortCondition ref="B2:B103"/>
-    <sortCondition ref="C2:C103"/>
-    <sortCondition ref="D2:D103"/>
     <sortCondition ref="E2:E103"/>
   </sortState>
   <tableColumns count="7">
@@ -1257,24 +1255,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1323,145 +1321,136 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1475,16 +1464,16 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1498,16 +1487,16 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1521,16 +1510,16 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1544,16 +1533,16 @@
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1567,16 +1556,16 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1590,17 +1579,17 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1614,16 +1603,16 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1637,21 +1626,21 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1660,16 +1649,16 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1680,20 +1669,20 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1707,16 +1696,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1730,16 +1719,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1753,21 +1742,21 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1776,21 +1765,21 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1799,16 +1788,16 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1819,19 +1808,19 @@
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1845,16 +1834,16 @@
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1868,22 +1857,19 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1891,22 +1877,16 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1914,133 +1894,151 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>134</v>
+        <v>58</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>176</v>
       </c>
@@ -2063,7 +2061,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>176</v>
       </c>
@@ -2086,7 +2084,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>176</v>
       </c>
@@ -2109,7 +2107,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>176</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>176</v>
       </c>
@@ -2155,7 +2153,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>176</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>176</v>
       </c>
@@ -2201,7 +2199,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>176</v>
       </c>
@@ -2224,7 +2222,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>176</v>
       </c>
@@ -2245,256 +2243,260 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H45" s="1" t="s">
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H50" s="1" t="s">
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
@@ -2505,19 +2507,19 @@
         <v>14</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2528,19 +2530,19 @@
         <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2551,19 +2553,17 @@
         <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
@@ -2574,88 +2574,83 @@
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
@@ -2666,664 +2661,667 @@
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H75" s="1" t="s">
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>216</v>
+        <v>23</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>222</v>
+        <v>100</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3348,23 +3346,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3372,7 +3370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -3383,7 +3381,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -3391,7 +3389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3399,7 +3397,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3410,7 +3408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -3421,7 +3419,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -3446,35 +3444,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3"/>
+    <col min="1" max="1" width="80.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="3"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="3"/>
+    <col min="4" max="16384" width="10.73046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\digitalmath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B8D85-8872-49C8-A42C-80BB8DAA6F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3DE7E5-DABD-439C-9A61-88F750AD5293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste2" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="258">
   <si>
     <t>Gebiet</t>
   </si>
@@ -788,6 +788,33 @@
   </si>
   <si>
     <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Lineare Algebra</t>
+  </si>
+  <si>
+    <t>Mehrstufige Produktionsprozesse</t>
+  </si>
+  <si>
+    <t>Matrizenrechnung</t>
+  </si>
+  <si>
+    <t>bei gegebener Rohstoff-Zwischenprodukt- und Zwischenprodukt-Endprodukt-Matrix die Rohstoff-Endprodukt-Matrix berechnen.</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Produktionsmatrizen_RE</t>
+  </si>
+  <si>
+    <t>bei gegebener Rohstoff-Zwischenprodukt- und Rohstoff-Endprodukt-Matrix die Zwischenprodukt-Endprodukt-Matrix berechnen.</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Produktionsmatrizen_ZE</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Produktionsmatrizen_RZ</t>
+  </si>
+  <si>
+    <t>bei gegebener Zwischenprodukt-Endprodukt- und Rohstoff-Endprodukt-Matrix die Rohstoff-Zwischenprodukt-Matrix berechnen.</t>
   </si>
 </sst>
 </file>
@@ -1255,24 +1282,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E80" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1298,7 +1325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +1348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1394,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1427,7 +1454,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1450,7 +1477,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1473,7 +1500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1523,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1542,7 +1569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1589,7 +1616,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1612,7 +1639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1635,7 +1662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1685,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1709,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1732,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1774,7 +1801,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1797,7 +1824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1820,7 +1847,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1843,7 +1870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1866,7 +1893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1883,7 +1910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1900,7 +1927,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1923,7 +1950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1946,7 +1973,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1969,7 +1996,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +2019,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +2042,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2038,7 +2065,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>176</v>
       </c>
@@ -2061,7 +2088,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>176</v>
       </c>
@@ -2084,7 +2111,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>176</v>
       </c>
@@ -2107,7 +2134,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>176</v>
       </c>
@@ -2130,7 +2157,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>176</v>
       </c>
@@ -2153,7 +2180,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>176</v>
       </c>
@@ -2176,7 +2203,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>176</v>
       </c>
@@ -2199,7 +2226,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>176</v>
       </c>
@@ -2222,7 +2249,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>176</v>
       </c>
@@ -2243,7 +2270,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2266,7 +2293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2289,7 +2316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2312,7 +2339,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2335,7 +2362,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
@@ -2358,7 +2385,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
@@ -2381,7 +2408,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
@@ -2404,7 +2431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
@@ -2427,7 +2454,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
@@ -2450,7 +2477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2500,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
@@ -2496,7 +2523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
@@ -2519,7 +2546,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2542,7 +2569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2563,7 +2590,7 @@
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
@@ -2584,7 +2611,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
@@ -2607,7 +2634,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
@@ -2630,7 +2657,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
@@ -2650,7 +2677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2700,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
@@ -2696,7 +2723,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
@@ -2719,7 +2746,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -2742,7 +2769,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -2765,7 +2792,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
@@ -2788,7 +2815,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
@@ -2811,7 +2838,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2834,7 +2861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
@@ -2857,7 +2884,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
@@ -2880,7 +2907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
@@ -2903,7 +2930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
@@ -2926,7 +2953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -2949,7 +2976,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
@@ -2972,7 +2999,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
@@ -2995,7 +3022,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3018,7 +3045,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
@@ -3041,7 +3068,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3064,7 +3091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
@@ -3087,7 +3114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3110,7 +3137,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3133,7 +3160,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
@@ -3156,7 +3183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -3179,7 +3206,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
@@ -3202,126 +3229,168 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3346,23 +3415,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3370,7 +3439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -3381,7 +3450,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -3389,7 +3458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3397,7 +3466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3408,7 +3477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -3419,7 +3488,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -3444,35 +3513,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="3"/>
+    <col min="1" max="1" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.73046875" style="3"/>
+    <col min="4" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3DE7E5-DABD-439C-9A61-88F750AD5293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CD9C0-2C11-4B2A-AC3C-84D384E12BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste2" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="265">
   <si>
     <t>Gebiet</t>
   </si>
@@ -815,6 +815,27 @@
   </si>
   <si>
     <t>bei gegebener Zwischenprodukt-Endprodukt- und Rohstoff-Endprodukt-Matrix die Rohstoff-Zwischenprodukt-Matrix berechnen.</t>
+  </si>
+  <si>
+    <t>das Inverse einer 2x2-Matrix berechnen.</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Inverse_2x2</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Inverse_2x3</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Inverse_2x4</t>
+  </si>
+  <si>
+    <t>das Inverse einer 3x3-Matrix berechnen.</t>
+  </si>
+  <si>
+    <t>das Inverse einer 4x4-Matrix berechnen.</t>
+  </si>
+  <si>
+    <t>Gauß-Jordan-Algorithmus</t>
   </si>
 </sst>
 </file>
@@ -1282,24 +1303,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
       <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1325,7 +1346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1348,7 +1369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1371,7 +1392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1414,7 +1435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1498,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1500,7 +1521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1544,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1616,7 +1637,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1639,7 +1660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +1683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1709,7 +1730,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1755,7 +1776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1778,7 +1799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1801,7 +1822,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1847,7 +1868,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1910,7 +1931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +1948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1950,7 +1971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1973,7 +1994,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1996,7 +2017,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2019,7 +2040,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2042,7 +2063,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2065,7 +2086,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>176</v>
       </c>
@@ -2088,7 +2109,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>176</v>
       </c>
@@ -2111,7 +2132,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>176</v>
       </c>
@@ -2134,7 +2155,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>176</v>
       </c>
@@ -2157,7 +2178,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>176</v>
       </c>
@@ -2180,7 +2201,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>176</v>
       </c>
@@ -2203,7 +2224,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>176</v>
       </c>
@@ -2226,7 +2247,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>176</v>
       </c>
@@ -2249,7 +2270,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>176</v>
       </c>
@@ -2270,7 +2291,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +2314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2316,7 +2337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2339,7 +2360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2362,7 +2383,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
@@ -2385,7 +2406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
@@ -2408,7 +2429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
@@ -2431,7 +2452,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2475,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
@@ -2477,7 +2498,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -2500,7 +2521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
@@ -2523,7 +2544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
@@ -2546,7 +2567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2569,7 +2590,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2590,7 +2611,7 @@
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
@@ -2611,7 +2632,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
@@ -2634,7 +2655,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
@@ -2657,7 +2678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
@@ -2677,7 +2698,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
@@ -2700,7 +2721,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
@@ -2723,7 +2744,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
@@ -2746,7 +2767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -2769,7 +2790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -2792,7 +2813,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
@@ -2815,7 +2836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
@@ -2838,7 +2859,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2861,7 +2882,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
@@ -2884,7 +2905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
@@ -2907,7 +2928,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
@@ -2930,7 +2951,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
@@ -2953,7 +2974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -2976,7 +2997,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
@@ -2999,7 +3020,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
@@ -3022,7 +3043,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3045,7 +3066,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
@@ -3068,7 +3089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3091,7 +3112,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
@@ -3114,7 +3135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3137,7 +3158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3160,7 +3181,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
@@ -3183,7 +3204,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -3206,7 +3227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
@@ -3229,7 +3250,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>249</v>
       </c>
@@ -3250,7 +3271,7 @@
       </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>249</v>
       </c>
@@ -3271,7 +3292,7 @@
       </c>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>249</v>
       </c>
@@ -3292,105 +3313,147 @@
       </c>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
-      <c r="D89" s="1"/>
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3415,23 +3478,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3439,7 +3502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -3450,7 +3513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -3458,7 +3521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3466,7 +3529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3477,7 +3540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -3488,7 +3551,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -3513,35 +3576,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3"/>
+    <col min="1" max="1" width="80.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="3"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="3"/>
+    <col min="4" max="16384" width="10.73046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CD9C0-2C11-4B2A-AC3C-84D384E12BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35953FCE-B124-49AC-8D05-50D90C89D3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste2" sheetId="6" r:id="rId1"/>
@@ -823,12 +823,6 @@
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Inverse_2x2</t>
   </si>
   <si>
-    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Inverse_2x3</t>
-  </si>
-  <si>
-    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Inverse_2x4</t>
-  </si>
-  <si>
     <t>das Inverse einer 3x3-Matrix berechnen.</t>
   </si>
   <si>
@@ -836,6 +830,12 @@
   </si>
   <si>
     <t>Gauß-Jordan-Algorithmus</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Inverse_3x3</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Inverse_4x4</t>
   </si>
 </sst>
 </file>
@@ -1304,23 +1304,23 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>176</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>176</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>176</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>176</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>176</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>176</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>176</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>176</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>176</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>249</v>
       </c>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>249</v>
       </c>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>249</v>
       </c>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>249</v>
       </c>
@@ -3331,10 +3331,10 @@
         <v>259</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>249</v>
       </c>
@@ -3346,16 +3346,16 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>249</v>
       </c>
@@ -3367,93 +3367,93 @@
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3478,23 +3478,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -3576,35 +3576,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="3"/>
+    <col min="1" max="1" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.73046875" style="3"/>
+    <col min="4" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35953FCE-B124-49AC-8D05-50D90C89D3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D6A080-2D92-4371-8DCB-E1D1E573DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="267">
   <si>
     <t>Gebiet</t>
   </si>
@@ -836,6 +836,12 @@
   </si>
   <si>
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Inverse_4x4</t>
+  </si>
+  <si>
+    <t>die Bedeutung der Elemente der Produktionsmatrizen angeben.</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Matrizenelemente_Interpretation</t>
   </si>
 </sst>
 </file>
@@ -3378,9 +3384,21 @@
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D6A080-2D92-4371-8DCB-E1D1E573DC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A7628-72C1-45AC-B95B-2AFBEAC0B4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="279">
   <si>
     <t>Gebiet</t>
   </si>
@@ -842,6 +842,42 @@
   </si>
   <si>
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Matrizenelemente_Interpretation</t>
+  </si>
+  <si>
+    <t>ausgehend von einem Vektor der verfügbaren Rohstoffe den Vektor der daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>ausgehend von einem Vektor der verfügbaren Rohstoffe den Vektor der daraus herstellbaren Zwischenprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>ausgehend von einem Vektor der verfügbaren Zwischenprodukte den Vektor der daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>ausgehend von einem Vektor der herzustellenden Endprodukte den Vektor der dafür benötigten Rohstoffe berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von einem Vektor der herzustellenden Endprodukte den Vektor der dafür benötigten Zwischenprodukte berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von einem Vektor der herzustellenden Zwischenprodukte den Vektor der dafür benötigten Rohstoffe berechnen.</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_gegEgesR</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_gegEgesZ</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_gegZgesR</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_gegRgesE</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_gegRgesZ</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_gegZgesE</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1345,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3383,7 +3419,9 @@
       </c>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="B92" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>251</v>
       </c>
@@ -3402,45 +3440,129 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="H94" s="1"/>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="H96" s="1"/>
     </row>
     <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666A7628-72C1-45AC-B95B-2AFBEAC0B4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F0D5EE-0A8F-4E0F-B4DA-A441BA7DD557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste2" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="282">
   <si>
     <t>Gebiet</t>
   </si>
@@ -878,6 +878,15 @@
   </si>
   <si>
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_gegZgesE</t>
+  </si>
+  <si>
+    <t>Kennzahlen mehrstufiger Produktionsprozesse berechnen.</t>
+  </si>
+  <si>
+    <t>Dazu zählen die Vektoren der variablen Stückkosten und der Stückdeckungsbeiträge, die Rohstoffkosten, die Kosten der ersten und zweiten Produktionsstufe, die Gesamtkosten, der Erlös, der Deckungsbeitrag und der Gewinn.</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_EKG_Kennzahlen</t>
   </si>
 </sst>
 </file>
@@ -1345,24 +1354,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="B89" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1388,7 +1397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1457,7 +1466,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1506,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +1526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1540,7 +1549,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1563,7 +1572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1655,7 +1664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1679,7 +1688,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1725,7 +1734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1748,7 +1757,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1781,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1795,7 +1804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1841,7 +1850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1864,7 +1873,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1887,7 +1896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1933,7 +1942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1990,7 +1999,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2013,7 +2022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2036,7 +2045,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2105,7 +2114,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2128,7 +2137,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>176</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>176</v>
       </c>
@@ -2174,7 +2183,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>176</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>176</v>
       </c>
@@ -2220,7 +2229,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>176</v>
       </c>
@@ -2243,7 +2252,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>176</v>
       </c>
@@ -2266,7 +2275,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>176</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>176</v>
       </c>
@@ -2312,7 +2321,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>176</v>
       </c>
@@ -2333,7 +2342,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2356,7 +2365,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2379,7 +2388,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2425,7 +2434,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
@@ -2448,7 +2457,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
@@ -2494,7 +2503,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
@@ -2540,7 +2549,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
@@ -2586,7 +2595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
@@ -2609,7 +2618,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2632,7 +2641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2653,7 +2662,7 @@
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
@@ -2674,7 +2683,7 @@
       </c>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
@@ -2697,7 +2706,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
@@ -2720,7 +2729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
@@ -2740,7 +2749,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
@@ -2786,7 +2795,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -2855,7 +2864,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
@@ -2901,7 +2910,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2924,7 +2933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
@@ -2970,7 +2979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
@@ -2993,7 +3002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
@@ -3016,7 +3025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -3039,7 +3048,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
@@ -3085,7 +3094,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3108,7 +3117,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
@@ -3131,7 +3140,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3200,7 +3209,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
@@ -3246,7 +3255,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
@@ -3292,7 +3301,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>249</v>
       </c>
@@ -3313,7 +3322,7 @@
       </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>249</v>
       </c>
@@ -3334,7 +3343,7 @@
       </c>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>249</v>
       </c>
@@ -3355,7 +3364,7 @@
       </c>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>249</v>
       </c>
@@ -3376,7 +3385,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>249</v>
       </c>
@@ -3397,7 +3406,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>249</v>
       </c>
@@ -3418,7 +3427,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>249</v>
       </c>
@@ -3439,7 +3448,7 @@
       </c>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>249</v>
       </c>
@@ -3460,7 +3469,7 @@
       </c>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>249</v>
       </c>
@@ -3481,7 +3490,7 @@
       </c>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>249</v>
       </c>
@@ -3502,7 +3511,7 @@
       </c>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>249</v>
       </c>
@@ -3523,7 +3532,7 @@
       </c>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>249</v>
       </c>
@@ -3544,7 +3553,7 @@
       </c>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>249</v>
       </c>
@@ -3565,35 +3574,51 @@
       </c>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3618,23 +3643,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -3653,7 +3678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -3661,7 +3686,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3669,7 +3694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -3691,7 +3716,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -3716,35 +3741,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3"/>
+    <col min="1" max="1" width="80.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="3"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="3"/>
+    <col min="4" max="16384" width="10.73046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F0D5EE-0A8F-4E0F-B4DA-A441BA7DD557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB9A466-E4B3-4FA3-9564-7DB6E8054194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste2" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="286">
   <si>
     <t>Gebiet</t>
   </si>
@@ -502,18 +502,6 @@
     <t>einer binomialverteilten Zufallsgröße Intervallgrenzen bestimmen.</t>
   </si>
   <si>
-    <t>die Entscheidungsregel eines einseitigen Hypothesentests herleiten (linksseitig).</t>
-  </si>
-  <si>
-    <t>die Entscheidungsregel eines einseitigen Hypothesentests herleiten (rechtsseitig).</t>
-  </si>
-  <si>
-    <t>die Entscheidungsregel eines einseitigen Hypothesentests anwenden und das Signifikanzniveau bestimmen (linksseitig).</t>
-  </si>
-  <si>
-    <t>die Entscheidungsregel eines einseitigen Hypothesentests anwenden und das Signifikanzniveau bestimmen (rechtsseitig).</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Binomialverteilung_HypothesenAblehnungsbereich_linksseitig</t>
   </si>
   <si>
@@ -887,6 +875,30 @@
   </si>
   <si>
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_EKG_Kennzahlen</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_HypothesenAblehnungsbereich_linksseitigOhneStruktur</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_HypothesenAblehnungsbereich_rechtsseitigOhneStruktur</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines linksseitigen Hypothesentests anwenden und das Signifikanzniveau bestimmen.</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines rechtsseitigen Hypothesentests anwenden und das Signifikanzniveau bestimmen.</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines linksseitigen Hypothesentests herleiten (mit Strukturhilfe).</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines rechtsseitigen Hypothesentests herleiten (mit Strukturhilfe).</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines linksseitigen Hypothesentests herleiten (ohne Strukturhilfe).</t>
+  </si>
+  <si>
+    <t>die Entscheidungsregel eines rechtsseitigen Hypothesentests herleiten (ohne Strukturhilfe).</t>
   </si>
 </sst>
 </file>
@@ -1015,11 +1027,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H103" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H103" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H103">
-    <sortCondition ref="B2:B103"/>
-    <sortCondition ref="E2:E103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H105" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H105" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H105">
+    <sortCondition ref="B2:B105"/>
+    <sortCondition ref="E2:E105"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -1352,26 +1364,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B89" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1420,7 +1432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1455,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1506,7 +1518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1563,7 +1575,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>74</v>
@@ -1572,7 +1584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>73</v>
@@ -1595,7 +1607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1618,7 +1630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1641,7 +1653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1688,7 +1700,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1711,7 +1723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1771,7 +1783,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>80</v>
@@ -1781,7 +1793,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1795,7 +1807,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>79</v>
@@ -1804,7 +1816,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1827,7 +1839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1850,7 +1862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1867,13 +1879,13 @@
         <v>55</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>84</v>
@@ -1896,7 +1908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1910,7 +1922,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>83</v>
@@ -1919,7 +1931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +1954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1999,7 +2011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2022,7 +2034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2042,10 +2054,10 @@
         <v>92</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2059,16 +2071,16 @@
         <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2082,16 +2094,16 @@
         <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2111,10 +2123,10 @@
         <v>93</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2134,215 +2146,215 @@
         <v>94</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2411,7 +2423,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2434,7 +2446,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
@@ -2480,7 +2492,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
@@ -2494,16 +2506,16 @@
         <v>96</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
@@ -2517,16 +2529,16 @@
         <v>96</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
@@ -2549,7 +2561,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -2566,13 +2578,13 @@
         <v>119</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
@@ -2589,13 +2601,13 @@
         <v>120</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
@@ -2609,16 +2621,16 @@
         <v>95</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2632,16 +2644,16 @@
         <v>95</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2655,14 +2667,14 @@
         <v>95</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
@@ -2676,60 +2688,56 @@
         <v>95</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
@@ -2743,59 +2751,59 @@
         <v>129</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
@@ -2809,16 +2817,16 @@
         <v>148</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -2832,16 +2840,16 @@
         <v>148</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -2855,16 +2863,16 @@
         <v>148</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
@@ -2878,16 +2886,16 @@
         <v>148</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
@@ -2901,177 +2909,177 @@
         <v>148</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
@@ -3082,19 +3090,19 @@
         <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3105,19 +3113,19 @@
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
@@ -3128,19 +3136,19 @@
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3151,19 +3159,19 @@
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G79" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
@@ -3174,19 +3182,19 @@
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3197,65 +3205,65 @@
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -3269,16 +3277,16 @@
         <v>121</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
@@ -3292,338 +3300,384 @@
         <v>121</v>
       </c>
       <c r="F85" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H85" s="1" t="s">
+      <c r="G87" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="1" t="s">
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F86" s="1" t="s">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H91" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B92" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G92" s="1" t="s">
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B94" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B95" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>267</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>268</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H101" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="H105" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3643,23 +3697,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3667,7 +3721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -3678,7 +3732,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -3686,7 +3740,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3694,7 +3748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -3713,10 +3767,10 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -3741,35 +3795,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="3"/>
+    <col min="1" max="1" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.73046875" style="3"/>
+    <col min="4" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB9A466-E4B3-4FA3-9564-7DB6E8054194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A31B0DD-D052-4907-A716-90EC92CB5ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste2" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="286">
   <si>
     <t>Gebiet</t>
   </si>
@@ -832,24 +832,6 @@
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Matrizenelemente_Interpretation</t>
   </si>
   <si>
-    <t>ausgehend von einem Vektor der verfügbaren Rohstoffe den Vektor der daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der verfügbaren Rohstoffe den Vektor der daraus herstellbaren Zwischenprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der verfügbaren Zwischenprodukte den Vektor der daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der herzustellenden Endprodukte den Vektor der dafür benötigten Rohstoffe berechnen.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der herzustellenden Endprodukte den Vektor der dafür benötigten Zwischenprodukte berechnen.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der herzustellenden Zwischenprodukte den Vektor der dafür benötigten Rohstoffe berechnen.</t>
-  </si>
-  <si>
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_gegEgesR</t>
   </si>
   <si>
@@ -899,6 +881,24 @@
   </si>
   <si>
     <t>die Entscheidungsregel eines rechtsseitigen Hypothesentests herleiten (ohne Strukturhilfe).</t>
+  </si>
+  <si>
+    <t>ausgehend von den herzustellenden Endprodukten die dafür benötigten Rohstoffe berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von den herzustellenden Endprodukte die dafür benötigten Zwischenprodukte berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von den herzustellenden Zwischenprodukte die dafür benötigten Rohstoffe berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von den verfügbaren Rohstoffen die daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>ausgehend von den verfügbaren Rohstoffen die daraus herstellbaren Zwischenprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>ausgehend von den verfügbaren Zwischenprodukten die herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
   </si>
 </sst>
 </file>
@@ -1366,24 +1366,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.9296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.73046875" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>172</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>172</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>172</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>172</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>172</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>172</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>172</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>172</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>172</v>
       </c>
@@ -2352,9 +2352,11 @@
       <c r="G43" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>15</v>
       </c>
@@ -2377,7 +2379,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
@@ -2400,7 +2402,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>15</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>15</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
         <v>15</v>
       </c>
@@ -2607,7 +2609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>95</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>153</v>
@@ -2630,7 +2632,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
         <v>15</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>95</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>154</v>
@@ -2653,7 +2655,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
@@ -2667,14 +2669,16 @@
         <v>95</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
         <v>15</v>
       </c>
@@ -2688,14 +2692,16 @@
         <v>95</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
@@ -2709,14 +2715,16 @@
         <v>95</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
@@ -2730,14 +2738,16 @@
         <v>95</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
@@ -2760,7 +2770,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
@@ -2783,7 +2793,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
@@ -2803,7 +2813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
@@ -2826,7 +2836,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
@@ -2849,7 +2859,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
@@ -2872,7 +2882,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
@@ -2895,7 +2905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
@@ -2918,7 +2928,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2941,7 +2951,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
@@ -2964,7 +2974,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
@@ -2987,7 +2997,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
@@ -3010,7 +3020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
@@ -3033,7 +3043,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -3056,7 +3066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
@@ -3079,7 +3089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
@@ -3102,7 +3112,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3125,7 +3135,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
@@ -3148,7 +3158,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3204,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3217,7 +3227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3240,7 +3250,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
@@ -3263,7 +3273,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -3286,7 +3296,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
@@ -3309,7 +3319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B86" s="1" t="s">
         <v>15</v>
       </c>
@@ -3332,7 +3342,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B87" s="1" t="s">
         <v>15</v>
       </c>
@@ -3355,7 +3365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
         <v>245</v>
       </c>
@@ -3374,9 +3384,11 @@
       <c r="G88" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
         <v>245</v>
       </c>
@@ -3395,9 +3407,11 @@
       <c r="G89" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H89" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
         <v>245</v>
       </c>
@@ -3416,9 +3430,11 @@
       <c r="G90" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H90" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
         <v>245</v>
       </c>
@@ -3439,7 +3455,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>245</v>
       </c>
@@ -3460,7 +3476,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
         <v>245</v>
       </c>
@@ -3481,7 +3497,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
         <v>245</v>
       </c>
@@ -3500,9 +3516,11 @@
       <c r="G94" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H94" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
         <v>245</v>
       </c>
@@ -3516,14 +3534,16 @@
         <v>246</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
         <v>245</v>
       </c>
@@ -3537,14 +3557,16 @@
         <v>246</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
         <v>245</v>
       </c>
@@ -3558,14 +3580,16 @@
         <v>246</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
         <v>245</v>
       </c>
@@ -3579,14 +3603,16 @@
         <v>246</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
         <v>245</v>
       </c>
@@ -3600,14 +3626,16 @@
         <v>246</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
         <v>245</v>
       </c>
@@ -3621,14 +3649,16 @@
         <v>246</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
         <v>245</v>
       </c>
@@ -3642,37 +3672,37 @@
         <v>246</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3697,23 +3727,23 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3721,7 +3751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -3732,7 +3762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -3740,7 +3770,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -3748,7 +3778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3759,7 +3789,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -3770,7 +3800,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -3795,35 +3825,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3"/>
+    <col min="1" max="1" width="80.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="3"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="3"/>
+    <col min="4" max="16384" width="10.73046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A31B0DD-D052-4907-A716-90EC92CB5ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB78FC4A-0E3A-4249-A66C-26CE8E88410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="286">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1366,8 +1366,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1482,6 +1482,9 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1502,6 +1505,9 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1522,6 +1528,9 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2358,206 +2367,206 @@
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>114</v>
+        <v>251</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>115</v>
+        <v>252</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>65</v>
@@ -2565,22 +2574,22 @@
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>65</v>
@@ -2588,22 +2597,22 @@
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>65</v>
@@ -2611,22 +2620,22 @@
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>65</v>
@@ -2634,22 +2643,22 @@
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>65</v>
@@ -2657,25 +2666,25 @@
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
-        <v>15</v>
+        <v>245</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2683,22 +2692,22 @@
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2706,22 +2715,22 @@
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2729,22 +2738,22 @@
         <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2758,16 +2767,16 @@
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2781,16 +2790,16 @@
         <v>14</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2804,13 +2813,16 @@
         <v>14</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2818,22 +2830,22 @@
         <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2841,22 +2853,22 @@
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>135</v>
+        <v>237</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>230</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2864,19 +2876,19 @@
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>65</v>
@@ -2887,19 +2899,19 @@
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>65</v>
@@ -2910,22 +2922,22 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2939,16 +2951,16 @@
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2962,16 +2974,16 @@
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2979,19 +2991,19 @@
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>65</v>
@@ -3002,19 +3014,19 @@
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>65</v>
@@ -3025,19 +3037,19 @@
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>65</v>
@@ -3048,19 +3060,19 @@
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>65</v>
@@ -3071,19 +3083,19 @@
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>65</v>
@@ -3094,22 +3106,22 @@
         <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3117,22 +3129,19 @@
         <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3146,16 +3155,16 @@
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3169,16 +3178,16 @@
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3192,16 +3201,16 @@
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3215,13 +3224,13 @@
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>65</v>
@@ -3238,16 +3247,16 @@
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3261,16 +3270,16 @@
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3278,22 +3287,22 @@
         <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3301,22 +3310,22 @@
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3324,22 +3333,22 @@
         <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3347,42 +3356,42 @@
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B88" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>65</v>
@@ -3390,22 +3399,22 @@
     </row>
     <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B89" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>65</v>
@@ -3413,131 +3422,137 @@
     </row>
     <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B90" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>253</v>
+        <v>158</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F91" s="1" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E92" s="1"/>
+      <c r="E92" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F92" s="1" t="s">
-        <v>256</v>
+        <v>160</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>258</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B93" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="F93" s="1" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B94" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B95" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>65</v>
@@ -3545,22 +3560,22 @@
     </row>
     <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B96" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>65</v>
@@ -3568,22 +3583,22 @@
     </row>
     <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B97" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>282</v>
+        <v>170</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>65</v>
@@ -3591,94 +3606,94 @@
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B98" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B99" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>270</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB78FC4A-0E3A-4249-A66C-26CE8E88410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEBBB02-DB4E-439F-B573-F5118BB62781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -172,9 +172,6 @@
     <t>Dazu gehören die Fixkosten, die erlösmaximale Menge, der maximale Erlös, die gewinnmaximale Menge, der maximale Gewinn, der Höchstpreis, die Sättigungmenge, der gewinnmaximale Verkaufspreis, der Cournotsche Punkt und die Menge beim Übergang vom degressiven zum progressiven Kostenwachstum.</t>
   </si>
   <si>
-    <t>Kennzahlen ertragsgesetzlicher Kostenfunktionen gaphisch bestimmen.</t>
-  </si>
-  <si>
     <t>Kennzahlen linearer, ökonomischer Funktionen graphisch bestimmen.</t>
   </si>
   <si>
@@ -899,6 +896,9 @@
   </si>
   <si>
     <t>ausgehend von den verfügbaren Zwischenprodukten die herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>Kennzahlen ertragsgesetzlicher Kostenfunktionen graphisch bestimmen.</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1366,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1420,16 +1420,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1443,16 +1443,16 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1466,16 +1466,16 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1483,22 +1483,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1506,22 +1506,22 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1529,22 +1529,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1561,13 +1561,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1584,10 +1584,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>29</v>
@@ -1607,13 +1607,13 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1633,7 +1633,7 @@
         <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>31</v>
@@ -1656,7 +1656,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>32</v>
@@ -1679,7 +1679,7 @@
         <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
@@ -1702,7 +1702,7 @@
         <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>42</v>
@@ -1723,10 +1723,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>31</v>
@@ -1746,10 +1746,10 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>41</v>
@@ -1769,13 +1769,13 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1792,10 +1792,10 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>30</v>
@@ -1816,13 +1816,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1842,7 +1842,7 @@
         <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>39</v>
@@ -1862,10 +1862,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>39</v>
@@ -1885,13 +1885,13 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1908,10 +1908,10 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>28</v>
@@ -1931,13 +1931,13 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1957,7 +1957,7 @@
         <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>40</v>
@@ -1977,10 +1977,10 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>40</v>
@@ -2000,7 +2000,7 @@
         <v>12</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2014,10 +2014,10 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2037,7 +2037,7 @@
         <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>27</v>
@@ -2057,13 +2057,13 @@
         <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2080,13 +2080,13 @@
         <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2103,13 +2103,13 @@
         <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2126,13 +2126,13 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2149,542 +2149,542 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="H47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F48" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="H50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F56" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2692,22 +2692,22 @@
         <v>15</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2715,22 +2715,22 @@
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2738,22 +2738,22 @@
         <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2761,22 +2761,22 @@
         <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2784,22 +2784,22 @@
         <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2807,22 +2807,22 @@
         <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2830,22 +2830,22 @@
         <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2853,22 +2853,22 @@
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2876,22 +2876,22 @@
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2899,22 +2899,22 @@
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2922,22 +2922,22 @@
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2951,16 +2951,16 @@
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2974,16 +2974,16 @@
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2997,16 +2997,16 @@
         <v>14</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3020,16 +3020,16 @@
         <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3043,16 +3043,16 @@
         <v>14</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3066,16 +3066,16 @@
         <v>14</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3083,22 +3083,22 @@
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3106,22 +3106,22 @@
         <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3129,19 +3129,19 @@
         <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3155,16 +3155,16 @@
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3178,16 +3178,16 @@
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3201,16 +3201,16 @@
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3224,16 +3224,16 @@
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3247,16 +3247,16 @@
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3270,16 +3270,16 @@
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3293,16 +3293,16 @@
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3310,22 +3310,22 @@
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3333,22 +3333,22 @@
         <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F86" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3356,22 +3356,22 @@
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F87" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3379,22 +3379,22 @@
         <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3402,22 +3402,22 @@
         <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F89" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3431,16 +3431,16 @@
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3454,16 +3454,16 @@
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3477,16 +3477,16 @@
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3500,16 +3500,16 @@
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3523,16 +3523,16 @@
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3546,16 +3546,16 @@
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3569,16 +3569,16 @@
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3592,16 +3592,16 @@
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3609,22 +3609,22 @@
         <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3632,22 +3632,22 @@
         <v>15</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3655,22 +3655,22 @@
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3678,22 +3678,22 @@
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3755,7 +3755,7 @@
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
@@ -3771,10 +3771,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
@@ -3782,7 +3782,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
@@ -3798,10 +3798,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
@@ -3809,10 +3809,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
@@ -3820,7 +3820,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEBBB02-DB4E-439F-B573-F5118BB62781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF36EE-F918-4E3B-A552-C9A838D14370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="prompt">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -490,15 +490,6 @@
     <t>Wenn bei einer binomialverteilten Zufallsgröße , die Länge, die Trefferwahrscheinlichkeit und eine Intervallwahrscheinlichkeit gegeben ist, kann ich die entsprechende Intervallgrenze bestimmen.</t>
   </si>
   <si>
-    <t>einer binomialverteilten Zufallsgröße die Länge bestimmen.</t>
-  </si>
-  <si>
-    <t>einer binomialverteilten Zufallsgröße die Trefferwahrscheinlichkeit bestimmen.</t>
-  </si>
-  <si>
-    <t>einer binomialverteilten Zufallsgröße Intervallgrenzen bestimmen.</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Binomialverteilung_HypothesenAblehnungsbereich_linksseitig</t>
   </si>
   <si>
@@ -682,21 +673,6 @@
     <t>Kennzahlen allgemeiner Zufallsgrößen</t>
   </si>
   <si>
-    <t>kann eine fehlende Wahrscheinlichkeit einer Wahrscheinlichkeitsverteilung berechnen.</t>
-  </si>
-  <si>
-    <t>kann den Erwartungswert einer allgemeinen Zufallsgröße berechnen.</t>
-  </si>
-  <si>
-    <t>kann die Standardabweichung einer allgemeinen Zufallsgröße berechnen.</t>
-  </si>
-  <si>
-    <t>kann bei gegebenem Erwartungswert einen fehlenden Wert einer Wahrscheinlichkeitsverteilung berechnen.</t>
-  </si>
-  <si>
-    <t>kann bei gegebenem Erwartungswert zwei fehlende Wahrscheinlichkeiten einer Wahrscheinlichkeitsverteilung berechnen.</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Zufallsgrößen_Kennzahlen_FehlenderWert</t>
   </si>
   <si>
@@ -880,25 +856,49 @@
     <t>die Entscheidungsregel eines rechtsseitigen Hypothesentests herleiten (ohne Strukturhilfe).</t>
   </si>
   <si>
-    <t>ausgehend von den herzustellenden Endprodukten die dafür benötigten Rohstoffe berechnen.</t>
-  </si>
-  <si>
-    <t>ausgehend von den herzustellenden Endprodukte die dafür benötigten Zwischenprodukte berechnen.</t>
-  </si>
-  <si>
-    <t>ausgehend von den herzustellenden Zwischenprodukte die dafür benötigten Rohstoffe berechnen.</t>
-  </si>
-  <si>
-    <t>ausgehend von den verfügbaren Rohstoffen die daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
-  </si>
-  <si>
-    <t>ausgehend von den verfügbaren Rohstoffen die daraus herstellbaren Zwischenprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
-  </si>
-  <si>
-    <t>ausgehend von den verfügbaren Zwischenprodukten die herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
-  </si>
-  <si>
     <t>Kennzahlen ertragsgesetzlicher Kostenfunktionen graphisch bestimmen.</t>
+  </si>
+  <si>
+    <t>eine fehlende Wahrscheinlichkeit einer Wahrscheinlichkeitsverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>den Erwartungswert einer allgemeinen Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>die Standardabweichung einer allgemeinen Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebenem Erwartungswert einen fehlenden Wert einer Wahrscheinlichkeitsverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebenem Erwartungswert zwei fehlende Wahrscheinlichkeiten einer Wahrscheinlichkeitsverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>bei einer binomialverteilten Zufallsgröße Intervallgrenzen berechnen.</t>
+  </si>
+  <si>
+    <t>bei einer binomialverteilten Zufallsgröße die Länge berechnen.</t>
+  </si>
+  <si>
+    <t>bei einer binomialverteilten Zufallsgröße die Trefferwahrscheinlichkeit berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von herzustellenden Endprodukten die dafür benötigten Rohstoffe berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von herzustellenden Endprodukte die dafür benötigten Zwischenprodukte berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von herzustellenden Zwischenprodukte die dafür benötigten Rohstoffe berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von verfügbaren Rohstoffen die daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>ausgehend von verfügbaren Rohstoffen die daraus herstellbaren Zwischenprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>ausgehend von verfügbaren Zwischenprodukten die herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
   </si>
 </sst>
 </file>
@@ -1366,8 +1366,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1584,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>73</v>
@@ -1607,7 +1607,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>72</v>
@@ -1723,7 +1723,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>76</v>
@@ -1792,7 +1792,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>79</v>
@@ -1816,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>78</v>
@@ -1888,7 +1888,7 @@
         <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>122</v>
@@ -1908,7 +1908,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>83</v>
@@ -1931,7 +1931,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>82</v>
@@ -2063,7 +2063,7 @@
         <v>91</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2080,13 +2080,13 @@
         <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2103,13 +2103,13 @@
         <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2132,7 +2132,7 @@
         <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2155,211 +2155,211 @@
         <v>93</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>64</v>
@@ -2367,33 +2367,33 @@
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="H44" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -2402,21 +2402,21 @@
         <v>64</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -2425,33 +2425,33 @@
         <v>64</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>64</v>
@@ -2459,22 +2459,22 @@
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>64</v>
@@ -2482,22 +2482,22 @@
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>64</v>
@@ -2505,22 +2505,22 @@
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>64</v>
@@ -2528,22 +2528,22 @@
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>64</v>
@@ -2551,22 +2551,22 @@
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>64</v>
@@ -2574,22 +2574,22 @@
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>64</v>
@@ -2597,22 +2597,22 @@
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>64</v>
@@ -2620,22 +2620,22 @@
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>64</v>
@@ -2643,22 +2643,22 @@
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>64</v>
@@ -2666,25 +2666,25 @@
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2839,10 +2839,10 @@
         <v>95</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>98</v>
@@ -2862,10 +2862,10 @@
         <v>95</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>102</v>
@@ -2911,7 +2911,7 @@
         <v>118</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>64</v>
@@ -2934,7 +2934,7 @@
         <v>119</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>64</v>
@@ -2954,10 +2954,10 @@
         <v>94</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>64</v>
@@ -2977,10 +2977,10 @@
         <v>94</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>64</v>
@@ -3000,10 +3000,10 @@
         <v>94</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>64</v>
@@ -3023,10 +3023,10 @@
         <v>94</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>64</v>
@@ -3046,10 +3046,10 @@
         <v>94</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>64</v>
@@ -3069,10 +3069,10 @@
         <v>94</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>64</v>
@@ -3187,7 +3187,7 @@
         <v>137</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3250,7 +3250,7 @@
         <v>147</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>150</v>
+        <v>279</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>142</v>
@@ -3273,7 +3273,7 @@
         <v>147</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>143</v>
@@ -3296,7 +3296,7 @@
         <v>147</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>144</v>
@@ -3310,19 +3310,19 @@
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>64</v>
@@ -3333,19 +3333,19 @@
         <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>64</v>
@@ -3356,19 +3356,19 @@
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>64</v>
@@ -3379,19 +3379,19 @@
         <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>216</v>
+        <v>275</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>64</v>
@@ -3402,19 +3402,19 @@
         <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>64</v>
@@ -3431,16 +3431,16 @@
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3454,16 +3454,16 @@
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3477,16 +3477,16 @@
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3500,16 +3500,16 @@
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3523,16 +3523,16 @@
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -3546,13 +3546,13 @@
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>64</v>
@@ -3569,13 +3569,13 @@
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>64</v>
@@ -3592,13 +3592,13 @@
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>64</v>
@@ -3618,10 +3618,10 @@
         <v>120</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>121</v>
@@ -3641,10 +3641,10 @@
         <v>120</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>121</v>
@@ -3664,10 +3664,10 @@
         <v>120</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>100</v>
@@ -3690,7 +3690,7 @@
         <v>99</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>103</v>
@@ -3812,7 +3812,7 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB9A466-E4B3-4FA3-9564-7DB6E8054194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF36EE-F918-4E3B-A552-C9A838D14370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste2" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="prompt">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="286">
   <si>
     <t>Gebiet</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Dazu gehören die Fixkosten, die erlösmaximale Menge, der maximale Erlös, die gewinnmaximale Menge, der maximale Gewinn, der Höchstpreis, die Sättigungmenge, der gewinnmaximale Verkaufspreis, der Cournotsche Punkt und die Menge beim Übergang vom degressiven zum progressiven Kostenwachstum.</t>
   </si>
   <si>
-    <t>Kennzahlen ertragsgesetzlicher Kostenfunktionen gaphisch bestimmen.</t>
-  </si>
-  <si>
     <t>Kennzahlen linearer, ökonomischer Funktionen graphisch bestimmen.</t>
   </si>
   <si>
@@ -493,15 +490,6 @@
     <t>Wenn bei einer binomialverteilten Zufallsgröße , die Länge, die Trefferwahrscheinlichkeit und eine Intervallwahrscheinlichkeit gegeben ist, kann ich die entsprechende Intervallgrenze bestimmen.</t>
   </si>
   <si>
-    <t>einer binomialverteilten Zufallsgröße die Länge bestimmen.</t>
-  </si>
-  <si>
-    <t>einer binomialverteilten Zufallsgröße die Trefferwahrscheinlichkeit bestimmen.</t>
-  </si>
-  <si>
-    <t>einer binomialverteilten Zufallsgröße Intervallgrenzen bestimmen.</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Binomialverteilung_HypothesenAblehnungsbereich_linksseitig</t>
   </si>
   <si>
@@ -685,21 +673,6 @@
     <t>Kennzahlen allgemeiner Zufallsgrößen</t>
   </si>
   <si>
-    <t>kann eine fehlende Wahrscheinlichkeit einer Wahrscheinlichkeitsverteilung berechnen.</t>
-  </si>
-  <si>
-    <t>kann den Erwartungswert einer allgemeinen Zufallsgröße berechnen.</t>
-  </si>
-  <si>
-    <t>kann die Standardabweichung einer allgemeinen Zufallsgröße berechnen.</t>
-  </si>
-  <si>
-    <t>kann bei gegebenem Erwartungswert einen fehlenden Wert einer Wahrscheinlichkeitsverteilung berechnen.</t>
-  </si>
-  <si>
-    <t>kann bei gegebenem Erwartungswert zwei fehlende Wahrscheinlichkeiten einer Wahrscheinlichkeitsverteilung berechnen.</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Zufallsgrößen_Kennzahlen_FehlenderWert</t>
   </si>
   <si>
@@ -832,24 +805,6 @@
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Matrizenelemente_Interpretation</t>
   </si>
   <si>
-    <t>ausgehend von einem Vektor der verfügbaren Rohstoffe den Vektor der daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der verfügbaren Rohstoffe den Vektor der daraus herstellbaren Zwischenprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der verfügbaren Zwischenprodukte den Vektor der daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der herzustellenden Endprodukte den Vektor der dafür benötigten Rohstoffe berechnen.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der herzustellenden Endprodukte den Vektor der dafür benötigten Zwischenprodukte berechnen.</t>
-  </si>
-  <si>
-    <t>ausgehend von einem Vektor der herzustellenden Zwischenprodukte den Vektor der dafür benötigten Rohstoffe berechnen.</t>
-  </si>
-  <si>
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_Mengenvektoren_gegEgesR</t>
   </si>
   <si>
@@ -899,6 +854,51 @@
   </si>
   <si>
     <t>die Entscheidungsregel eines rechtsseitigen Hypothesentests herleiten (ohne Strukturhilfe).</t>
+  </si>
+  <si>
+    <t>Kennzahlen ertragsgesetzlicher Kostenfunktionen graphisch bestimmen.</t>
+  </si>
+  <si>
+    <t>eine fehlende Wahrscheinlichkeit einer Wahrscheinlichkeitsverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>den Erwartungswert einer allgemeinen Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>die Standardabweichung einer allgemeinen Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebenem Erwartungswert einen fehlenden Wert einer Wahrscheinlichkeitsverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>bei gegebenem Erwartungswert zwei fehlende Wahrscheinlichkeiten einer Wahrscheinlichkeitsverteilung berechnen.</t>
+  </si>
+  <si>
+    <t>bei einer binomialverteilten Zufallsgröße Intervallgrenzen berechnen.</t>
+  </si>
+  <si>
+    <t>bei einer binomialverteilten Zufallsgröße die Länge berechnen.</t>
+  </si>
+  <si>
+    <t>bei einer binomialverteilten Zufallsgröße die Trefferwahrscheinlichkeit berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von herzustellenden Endprodukten die dafür benötigten Rohstoffe berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von herzustellenden Endprodukte die dafür benötigten Zwischenprodukte berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von herzustellenden Zwischenprodukte die dafür benötigten Rohstoffe berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von verfügbaren Rohstoffen die daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>ausgehend von verfügbaren Rohstoffen die daraus herstellbaren Zwischenprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>ausgehend von verfügbaren Zwischenprodukten die herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
   </si>
 </sst>
 </file>
@@ -1366,24 +1366,24 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.9296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.73046875" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.28515625" style="2"/>
+    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1420,19 +1420,19 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,19 +1443,19 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1466,79 +1466,88 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1552,16 +1561,16 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1575,16 +1584,16 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1598,16 +1607,16 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1624,13 +1633,13 @@
         <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1647,13 +1656,13 @@
         <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1670,13 +1679,13 @@
         <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1693,14 +1702,14 @@
         <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1714,16 +1723,16 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1737,16 +1746,16 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1760,16 +1769,16 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1783,17 +1792,17 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1807,16 +1816,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1833,13 +1842,13 @@
         <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1853,16 +1862,16 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1876,16 +1885,16 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1899,16 +1908,16 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1922,16 +1931,16 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1948,13 +1957,13 @@
         <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1968,16 +1977,16 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1991,10 +2000,10 @@
         <v>12</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
@@ -2005,13 +2014,13 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2028,13 +2037,13 @@
         <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2048,16 +2057,16 @@
         <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2071,16 +2080,16 @@
         <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2094,16 +2103,16 @@
         <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2117,16 +2126,16 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2140,546 +2149,550 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -2688,19 +2701,21 @@
         <v>95</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -2709,19 +2724,21 @@
         <v>95</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -2730,195 +2747,200 @@
         <v>95</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>137</v>
+        <v>225</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
         <v>15</v>
       </c>
@@ -2929,19 +2951,19 @@
         <v>14</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
@@ -2952,180 +2974,177 @@
         <v>14</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="H74" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
@@ -3136,19 +3155,19 @@
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3159,19 +3178,19 @@
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
@@ -3182,19 +3201,19 @@
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3205,19 +3224,19 @@
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3228,19 +3247,19 @@
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>202</v>
+        <v>142</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
@@ -3251,428 +3270,454 @@
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="G93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="1" t="s">
+    </row>
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F87" s="1" t="s">
+    </row>
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B101" s="1" t="s">
-        <v>245</v>
+        <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>275</v>
+        <v>99</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3697,85 +3742,85 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" customWidth="1"/>
+    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -3795,35 +3840,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3"/>
+    <col min="1" max="1" width="80.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" style="3"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="3"/>
+    <col min="4" max="16384" width="10.73046875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fue\Meine Ablage\digitalmath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF36EE-F918-4E3B-A552-C9A838D14370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD7BEA-3501-4BB2-84BC-4AE987809AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste2" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="prompt">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="315">
   <si>
     <t>Gebiet</t>
   </si>
@@ -121,12 +121,6 @@
     <t>Zusatz zu: Ich kann</t>
   </si>
   <si>
-    <t>Funktionen, die einen Produktlebenszyklus beschreiben, ableiten.</t>
-  </si>
-  <si>
-    <t>Die Funktionen haben die Form f(x)=p(x)*exp(ax)+b.</t>
-  </si>
-  <si>
     <t>Es liegen dabei für drei Mengen die entsprechenden Erlöse, Kosten oder Gewinne vor.</t>
   </si>
   <si>
@@ -154,12 +148,6 @@
     <t>Kennzahlen quadratischer, ökonomischer Funktionen berechnen.</t>
   </si>
   <si>
-    <t>Kennzahlen kubischer, ökonomischer Funktionen berechnen.</t>
-  </si>
-  <si>
-    <t>Kennzahlen kubischer, ökonomischer Funktionen berechnen (ohne Gleichungen dritten Grades).</t>
-  </si>
-  <si>
     <t>Dazu gehören die Fixkosten, der maximale Erlös, der maximale Gewinn, die Gewinnschwelle und die Gewinnzone.</t>
   </si>
   <si>
@@ -178,9 +166,6 @@
     <t>Kennzahlen quadratischer, ökonomischer Funktionen graphisch bestimmen.</t>
   </si>
   <si>
-    <t>Kennzahlen kubischer, ökonomischer Funktionen graphisch bestimmen.</t>
-  </si>
-  <si>
     <t>kein schlüsselwort in vba-dateien</t>
   </si>
   <si>
@@ -199,18 +184,12 @@
     <t>Marktgleichgewicht</t>
   </si>
   <si>
-    <t>Gleichungen kubischer, ökonomischer Funktionen berechnen.</t>
-  </si>
-  <si>
     <t>Gleichungen linearer, ökonomischer Funktionen berechnen.</t>
   </si>
   <si>
     <t>Gleichungen quadratischer, ökonomischer Funktionen berechnen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (ohne Integration). </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (mit Integration). </t>
   </si>
   <si>
@@ -235,9 +214,6 @@
     <t>die Produzenten- und Konsumentenrente berechnen.</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>den Verkaufspreis auf einem Teilmarkt berechnen, so dass die Konsumentenrente optimal abgeschöpft wird.</t>
   </si>
   <si>
@@ -295,30 +271,12 @@
     <t>Analysis_Wirtschaft_Ökonomische Funktionen_Steckbriefaufgaben_quadratischMengen</t>
   </si>
   <si>
-    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E1K3, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K3</t>
-  </si>
-  <si>
-    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K3, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K3</t>
-  </si>
-  <si>
-    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K3ohneGl3Gr, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K3ohneGl3Gr</t>
-  </si>
-  <si>
-    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E1K3, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K3</t>
-  </si>
-  <si>
     <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K2</t>
   </si>
   <si>
     <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K2</t>
   </si>
   <si>
-    <t>Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom0Exp, Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom1Exp, Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom2Exp, Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom3Exp</t>
-  </si>
-  <si>
-    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var1, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var2, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var3, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var4</t>
-  </si>
-  <si>
     <t>Analysis_Wirtschaft_Produktlebenszyklus_Integrale_Gemischt</t>
   </si>
   <si>
@@ -643,18 +601,6 @@
     <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb sigma, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb sigma</t>
   </si>
   <si>
-    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Ableitung, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Ableitung</t>
-  </si>
-  <si>
-    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Umsatz, Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Umsatz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Produktlebenszyklusfunktion bestimmen (ohne Integration). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Ableitung der Produktlebenszyklusfunktion bestimmen (ohne Integration). </t>
-  </si>
-  <si>
     <t>Dazu gehören der Zeitpunkt, an dem der höchste Umsatz erzielt wird, der höchste Umsatz, der Zeitpunkt, an dem der Umsatz am stärksten steigt oder fällt, die Veränderung des Umstatzes, der Umsatz bei der Produkteinführung, der langfristig zu erwartende Umsatz und der Zeitpunkt, an dem das Produkt vom Markt genommen wird.</t>
   </si>
   <si>
@@ -718,15 +664,9 @@
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh1, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh2, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh3</t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_AbhängigOhneBedingt, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_UnabhängigOhneBedingt</t>
-  </si>
-  <si>
     <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Abhängig, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_Unabhängig</t>
-  </si>
-  <si>
     <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten).</t>
   </si>
   <si>
@@ -899,6 +839,153 @@
   </si>
   <si>
     <t>ausgehend von verfügbaren Zwischenprodukten die herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E1K3</t>
+  </si>
+  <si>
+    <t>Gleichungen kubischer, ökonomischer Funktionen berechnen (Angebotspolypol).</t>
+  </si>
+  <si>
+    <t>Gleichungen kubischer, ökonomischer Funktionen berechnen (Angebotsmonopol).</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K3</t>
+  </si>
+  <si>
+    <t>Kennzahlen kubischer, ökonomischer Funktionen berechnen (Angebotspolypol).</t>
+  </si>
+  <si>
+    <t>Kennzahlen kubischer, ökonomischer Funktionen berechnen (Angebotsmonopol).</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K3</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K3</t>
+  </si>
+  <si>
+    <t>Dazu gehören die Fixkosten, der maximale Erlös, die gewinnmaximale Menge, der maximale Gewinn, die Gewinnschwelle, die Gewinngrenze, die Gewinnzone, der Verkaufspreis, der Cournotsche Punkt und die Menge beim Übergang vom degressiven zum progressiven Kostenwachstum.</t>
+  </si>
+  <si>
+    <t>Kennzahlen kubischer, ökonomischer Funktionen berechnen (Angebotspolypol, ohne Gleichungen dritten Grades).</t>
+  </si>
+  <si>
+    <t>Kennzahlen kubischer, ökonomischer Funktionen berechnen (Angebotsmonopol, ohne Gleichungen dritten Grades).</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K3ohneGl3Gr</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K3ohneGl3Gr</t>
+  </si>
+  <si>
+    <t>Dazu gehören die Fixkosten, der maximale Erlös, die gewinnmaximale Menge, der maximale Gewinn, der Verkaufspreis und die Menge beim Übergang vom degressiven zum progressiven Kostenwachstum.</t>
+  </si>
+  <si>
+    <t>Kennzahlen kubischer, ökonomischer Funktionen graphisch bestimmen (Angebotspolypol).</t>
+  </si>
+  <si>
+    <t>Kennzahlen kubischer, ökonomischer Funktionen graphisch bestimmen (Angebotsmonopol).</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E1K3</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K3</t>
+  </si>
+  <si>
+    <t>Dazu gehören die Fixkosten, der maximale Erlös, die gewinnmaximale Menge, der maximale Gewinn, die Gewinnschwelle, die Gewinngrenze, die Gewinnzone, der Verkaufspreis und die Menge beim Übergang vom degressiven zum progressiven Kostenwachstum.</t>
+  </si>
+  <si>
+    <t>Funktionen, die einen Produktlebenszyklus beschreiben, ableiten (Variante 1).</t>
+  </si>
+  <si>
+    <t>Funktionen, die einen Produktlebenszyklus beschreiben, ableiten (Variante 2).</t>
+  </si>
+  <si>
+    <t>Funktionen, die einen Produktlebenszyklus beschreiben, ableiten (Variante 3).</t>
+  </si>
+  <si>
+    <t>Funktionen, die einen Produktlebenszyklus beschreiben, ableiten (Variante 4).</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom0Exp</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom1Exp</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom2Exp</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_Differenzieren_Polynom3Exp</t>
+  </si>
+  <si>
+    <t>Die Funktionen haben die Form f(x)=a*exp(sx)+t.</t>
+  </si>
+  <si>
+    <t>Die Funktionen haben die Form f(x)=(ax+b)*exp(sx)+t.</t>
+  </si>
+  <si>
+    <t>Die Funktionen haben die Form f(x)=(ax^2+b+c)*exp(sx)+t.</t>
+  </si>
+  <si>
+    <t>Die Funktionen haben die Form f(x)=(ax^3+bx^2+cx+d)*exp(sx)+t.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (Variante 1, ohne Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (Variante 2, ohne Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (Variante 3, ohne Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (Variante 4, ohne Integration). </t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var1</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var2</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var3</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Produktlebenszyklusfunktion bestimmen (Variante 1, ohne Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Produktlebenszyklusfunktion bestimmen (Variante 2, ohne Integration). </t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Umsatz</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Umsatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Ableitung der Produktlebenszyklusfunktion bestimmen (Variante 1, ohne Integration). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Ableitung der Produktlebenszyklusfunktion bestimmen (Variante 2, ohne Integration). </t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Ableitung</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Ableitung</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_OhneBedingt</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_MitBedingt</t>
   </si>
 </sst>
 </file>
@@ -1027,11 +1114,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H105" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H105" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H105">
-    <sortCondition ref="B2:B105"/>
-    <sortCondition ref="E2:E105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H117" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H117" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H117">
+    <sortCondition ref="B2:B117"/>
+    <sortCondition ref="E2:E117"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -1364,26 +1451,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="32.265625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.73046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.9296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="49.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="8" width="162.265625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="32.265625" style="2"/>
+    <col min="8" max="8" width="162.28515625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="32.28515625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1420,19 +1507,19 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,19 +1530,19 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1466,88 +1553,75 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1561,16 +1635,16 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1584,16 +1658,16 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>269</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1607,16 +1681,16 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1630,16 +1704,16 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1653,16 +1727,16 @@
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1676,16 +1750,16 @@
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1699,17 +1773,16 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1726,13 +1799,13 @@
         <v>271</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1746,21 +1819,21 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -1769,21 +1842,22 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>276</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -1792,22 +1866,21 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -1816,21 +1889,21 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>218</v>
+        <v>280</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -1839,16 +1912,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>281</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1862,21 +1935,21 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1885,21 +1958,22 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>222</v>
+        <v>71</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1908,21 +1982,21 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1931,21 +2005,21 @@
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -1954,16 +2028,16 @@
         <v>16</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -1977,18 +2051,21 @@
         <v>16</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -1997,15 +2074,21 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>201</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -2014,105 +2097,92 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>133</v>
+        <v>202</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2126,16 +2196,16 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2149,1071 +2219,1040 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>57</v>
+        <v>286</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="G71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="G76" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3224,19 +3263,17 @@
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3247,19 +3284,17 @@
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
@@ -3270,19 +3305,17 @@
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -3293,134 +3326,119 @@
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>274</v>
+        <v>112</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>275</v>
+        <v>113</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>15</v>
       </c>
@@ -3431,19 +3449,19 @@
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>15</v>
       </c>
@@ -3454,19 +3472,19 @@
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>15</v>
       </c>
@@ -3477,19 +3495,17 @@
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>15</v>
       </c>
@@ -3500,19 +3516,17 @@
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>15</v>
       </c>
@@ -3523,19 +3537,19 @@
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>15</v>
       </c>
@@ -3546,19 +3560,19 @@
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>15</v>
       </c>
@@ -3569,160 +3583,420 @@
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="H105" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="H117" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3742,85 +4016,85 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="61.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -3840,35 +4114,35 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="34.35" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" style="3"/>
+    <col min="1" max="1" width="80.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3"/>
     <col min="3" max="3" width="55" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="10.73046875" style="3"/>
+    <col min="4" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD7BEA-3501-4BB2-84BC-4AE987809AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B439B17-FFFF-4EB9-B924-75BB61079926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -313,9 +313,6 @@
     <t>Ausgehend von einer Vierfeldertafel kann ich Wahrscheinlichkeiten symbolisch und textuell beschriebener Ereignisse berechnen. Ich kann anhand einer Vierfeldertafel feststellen, ob Ereignisse stochastisch unabhängig sind.</t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester1, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester2, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester3</t>
-  </si>
-  <si>
     <t>den Satz von der Gegenwahrscheinlichkeit und von Sylvester anwenden.</t>
   </si>
   <si>
@@ -658,12 +655,6 @@
     <t xml:space="preserve">Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K2 </t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh1, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh2, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneUnabh3</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh1, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh2, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitUnabh3</t>
-  </si>
-  <si>
     <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
   </si>
   <si>
@@ -986,6 +977,15 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammFolgern_MitBedingt</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_nurSylvester</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_ohneGegUnabh1</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitGegUnabh</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1635,13 +1635,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,13 +1658,13 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>65</v>
@@ -1704,13 +1704,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1773,13 +1773,13 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,10 +1796,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>37</v>
@@ -1819,13 +1819,13 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,10 +1842,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -1866,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>68</v>
@@ -1889,13 +1889,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1912,10 +1912,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>37</v>
@@ -1941,7 +1941,7 @@
         <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>71</v>
@@ -1982,13 +1982,13 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,10 +2054,10 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
@@ -2097,13 +2097,13 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -2196,13 +2196,13 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2219,13 +2219,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,13 +2242,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,13 +2265,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2288,13 +2288,13 @@
         <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2311,13 +2311,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2334,13 +2334,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2357,13 +2357,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,13 +2380,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,13 +2403,13 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2426,13 +2426,13 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2449,13 +2449,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>78</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,508 +2501,508 @@
         <v>79</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="G60" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3019,10 +3019,10 @@
         <v>81</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>83</v>
@@ -3042,10 +3042,10 @@
         <v>81</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>83</v>
@@ -3065,10 +3065,10 @@
         <v>81</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>83</v>
@@ -3088,10 +3088,10 @@
         <v>81</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>83</v>
@@ -3111,10 +3111,10 @@
         <v>81</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>83</v>
@@ -3134,10 +3134,10 @@
         <v>81</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>83</v>
@@ -3157,10 +3157,10 @@
         <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>84</v>
@@ -3180,10 +3180,10 @@
         <v>81</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>88</v>
@@ -3203,10 +3203,10 @@
         <v>87</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="H78" s="1"/>
     </row>
@@ -3224,10 +3224,10 @@
         <v>87</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="H79" s="1"/>
     </row>
@@ -3245,10 +3245,10 @@
         <v>87</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="H80" s="1"/>
     </row>
@@ -3266,10 +3266,10 @@
         <v>80</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H81" s="1"/>
     </row>
@@ -3287,10 +3287,10 @@
         <v>80</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H82" s="1"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>80</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H83" s="1"/>
     </row>
@@ -3329,10 +3329,10 @@
         <v>80</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H84" s="1"/>
     </row>
@@ -3350,10 +3350,10 @@
         <v>80</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H85" s="1"/>
     </row>
@@ -3371,10 +3371,10 @@
         <v>80</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H86" s="1"/>
     </row>
@@ -3389,13 +3389,13 @@
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H87" s="1"/>
     </row>
@@ -3410,13 +3410,13 @@
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H88" s="1"/>
     </row>
@@ -3431,10 +3431,10 @@
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H89" s="1"/>
     </row>
@@ -3449,16 +3449,16 @@
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3472,16 +3472,16 @@
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,13 +3495,13 @@
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H92" s="1"/>
     </row>
@@ -3516,13 +3516,13 @@
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H93" s="1"/>
     </row>
@@ -3537,16 +3537,16 @@
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3560,16 +3560,16 @@
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3583,16 +3583,16 @@
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3600,19 +3600,19 @@
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F97" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H97" s="1"/>
     </row>
@@ -3621,19 +3621,19 @@
         <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F98" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H98" s="1"/>
     </row>
@@ -3642,19 +3642,19 @@
         <v>15</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F99" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H99" s="1"/>
     </row>
@@ -3663,19 +3663,19 @@
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="H100" s="1"/>
     </row>
@@ -3684,19 +3684,19 @@
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F101" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H101" s="1"/>
     </row>
@@ -3711,16 +3711,16 @@
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="G102" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3734,16 +3734,16 @@
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3757,16 +3757,16 @@
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,16 +3780,16 @@
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3803,16 +3803,16 @@
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3826,13 +3826,13 @@
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H107" s="1"/>
     </row>
@@ -3847,13 +3847,13 @@
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H108" s="1"/>
     </row>
@@ -3868,13 +3868,13 @@
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H109" s="1"/>
     </row>
@@ -3889,16 +3889,16 @@
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3912,16 +3912,16 @@
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3935,13 +3935,13 @@
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>86</v>
@@ -3958,13 +3958,13 @@
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>89</v>
@@ -4086,7 +4086,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B439B17-FFFF-4EB9-B924-75BB61079926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F95FA-DF88-4C97-927B-357077DC86A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -418,21 +418,6 @@
     <t>Stochastik_Allgemein_Binomialverteilung_Histogramme_kumuliert</t>
   </si>
   <si>
-    <t>Wenn bei einer binomialverteilten Zufallsgröße eine Intervallwahrscheinlichkeit, das entsprechende Intervall und die Trefferwahrscheinlichkeit gegeben ist, kann ich die Länge bestimmen.</t>
-  </si>
-  <si>
-    <t>Wenn bei einer binomialverteilten Zufallsgröße eine Intervallwahrscheinlichkeit, das entsprechende Intervall und die Länge gegeben ist, kann ich die Trefferwahrscheinlichkeit bestimmen.</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var1, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var2, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var3, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_n gesucht Var4</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_p gesucht Var1, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_p gesucht Var2, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_p gesucht Var3, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_p gesucht Var4</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var1, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var2, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var3, Stochastik_Allgemein_Binomialverteilung_Bestimmung_npk_k gesucht Var4</t>
-  </si>
-  <si>
     <t>Intervallwahrscheinlichkeiten der Binomialverteilung mit Hilfe eines Histogramms der Einzelwahrscheinlichkeiten bestimmen.</t>
   </si>
   <si>
@@ -442,9 +427,6 @@
     <t>Intervallwahrscheinlichkeiten</t>
   </si>
   <si>
-    <t>Wenn bei einer binomialverteilten Zufallsgröße , die Länge, die Trefferwahrscheinlichkeit und eine Intervallwahrscheinlichkeit gegeben ist, kann ich die entsprechende Intervallgrenze bestimmen.</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Binomialverteilung_HypothesenAblehnungsbereich_linksseitig</t>
   </si>
   <si>
@@ -808,9 +790,6 @@
     <t>bei einer binomialverteilten Zufallsgröße Intervallgrenzen berechnen.</t>
   </si>
   <si>
-    <t>bei einer binomialverteilten Zufallsgröße die Länge berechnen.</t>
-  </si>
-  <si>
     <t>bei einer binomialverteilten Zufallsgröße die Trefferwahrscheinlichkeit berechnen.</t>
   </si>
   <si>
@@ -986,6 +965,27 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BayesUndSylvester_mitGegUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Npk_n</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Npk_p</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Npk_k</t>
+  </si>
+  <si>
+    <t>Wenn bei einer binomialverteilten Zufallsgröße eine Intervallwahrscheinlichkeit, das entsprechende Intervall und die Trefferwahrscheinlichkeit gegeben ist, kann ich die Versuchsanzahl bestimmen.</t>
+  </si>
+  <si>
+    <t>Wenn bei einer binomialverteilten Zufallsgröße eine Intervallwahrscheinlichkeit, das entsprechende Intervall und die Versuchsanzahl gegeben ist, kann ich die Trefferwahrscheinlichkeit bestimmen.</t>
+  </si>
+  <si>
+    <t>Wenn bei einer binomialverteilten Zufallsgröße , die Versuchsanzahl, die Trefferwahrscheinlichkeit und eine Intervallwahrscheinlichkeit gegeben ist, kann ich die entsprechende Intervallgrenze bestimmen.</t>
+  </si>
+  <si>
+    <t>bei einer binomialverteilten Zufallsgröße die Versuchsanzahl berechnen.</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1453,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1635,10 +1635,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>107</v>
@@ -1658,10 +1658,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>107</v>
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>65</v>
@@ -1704,7 +1704,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>64</v>
@@ -1773,13 +1773,13 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1796,10 +1796,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>37</v>
@@ -1819,13 +1819,13 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,10 +1842,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -1866,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>68</v>
@@ -1889,13 +1889,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1912,10 +1912,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>37</v>
@@ -1958,7 +1958,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>71</v>
@@ -1982,7 +1982,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
@@ -2054,7 +2054,7 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>107</v>
@@ -2074,7 +2074,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
@@ -2097,7 +2097,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>74</v>
@@ -2196,13 +2196,13 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2219,13 +2219,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,13 +2242,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2265,13 +2265,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2288,13 +2288,13 @@
         <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2311,13 +2311,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2334,13 +2334,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2357,13 +2357,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2380,13 +2380,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,13 +2403,13 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2426,13 +2426,13 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2449,13 +2449,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>78</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2501,508 +2501,508 @@
         <v>79</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3157,10 +3157,10 @@
         <v>81</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>84</v>
@@ -3180,10 +3180,10 @@
         <v>81</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>88</v>
@@ -3206,7 +3206,7 @@
         <v>90</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H78" s="1"/>
     </row>
@@ -3227,7 +3227,7 @@
         <v>103</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H79" s="1"/>
     </row>
@@ -3248,7 +3248,7 @@
         <v>104</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H80" s="1"/>
     </row>
@@ -3266,10 +3266,10 @@
         <v>80</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H81" s="1"/>
     </row>
@@ -3287,10 +3287,10 @@
         <v>80</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H82" s="1"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>80</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H83" s="1"/>
     </row>
@@ -3329,10 +3329,10 @@
         <v>80</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H84" s="1"/>
     </row>
@@ -3350,10 +3350,10 @@
         <v>80</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H85" s="1"/>
     </row>
@@ -3371,10 +3371,10 @@
         <v>80</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H86" s="1"/>
     </row>
@@ -3449,7 +3449,7 @@
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>117</v>
@@ -3472,7 +3472,7 @@
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>119</v>
@@ -3481,7 +3481,7 @@
         <v>122</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,10 +3495,10 @@
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>123</v>
@@ -3516,10 +3516,10 @@
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>124</v>
@@ -3537,16 +3537,16 @@
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3560,16 +3560,16 @@
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>125</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3583,16 +3583,16 @@
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>133</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3600,19 +3600,19 @@
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H97" s="1"/>
     </row>
@@ -3621,19 +3621,19 @@
         <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H98" s="1"/>
     </row>
@@ -3642,19 +3642,19 @@
         <v>15</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H99" s="1"/>
     </row>
@@ -3663,19 +3663,19 @@
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H100" s="1"/>
     </row>
@@ -3684,19 +3684,19 @@
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="H101" s="1"/>
     </row>
@@ -3711,16 +3711,16 @@
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3734,16 +3734,16 @@
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3757,16 +3757,16 @@
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,16 +3780,16 @@
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3803,16 +3803,16 @@
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3826,13 +3826,13 @@
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H107" s="1"/>
     </row>
@@ -3847,13 +3847,13 @@
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H108" s="1"/>
     </row>
@@ -3868,13 +3868,13 @@
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H109" s="1"/>
     </row>
@@ -3892,10 +3892,10 @@
         <v>105</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>106</v>
@@ -3915,10 +3915,10 @@
         <v>105</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>106</v>
@@ -3938,10 +3938,10 @@
         <v>105</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>86</v>
@@ -3964,7 +3964,7 @@
         <v>85</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>89</v>
@@ -4086,7 +4086,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F95FA-DF88-4C97-927B-357077DC86A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00489BAA-1A69-431C-BEB6-5928487BF6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="323">
   <si>
     <t>Gebiet</t>
   </si>
@@ -271,12 +271,6 @@
     <t>Analysis_Wirtschaft_Ökonomische Funktionen_Steckbriefaufgaben_quadratischMengen</t>
   </si>
   <si>
-    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_E2K2</t>
-  </si>
-  <si>
-    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_E2K2</t>
-  </si>
-  <si>
     <t>Analysis_Wirtschaft_Produktlebenszyklus_Integrale_Gemischt</t>
   </si>
   <si>
@@ -634,36 +628,15 @@
     <t>Mit Hilfe eines Tafelwerks oder Taschenrechners.</t>
   </si>
   <si>
-    <t xml:space="preserve">Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K1, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E1K2, Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_E2K2 </t>
-  </si>
-  <si>
     <t>Baumdiagramme interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
   </si>
   <si>
     <t>Baumdiagramme interpretieren (mit bedingten Wahrscheinlichkeiten).</t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_AbhängigOhneBedingt, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_UnabhängigOhneBedingt</t>
-  </si>
-  <si>
     <t>Vierfeldertafeln interpretieren (ohne bedingten Wahrscheinlichkeiten).</t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_Abhängig, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_Unabhängig</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1keineInfoUnabh, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2keineInfoUnabh, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var3keineInfoUnabh, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var4keineInfoUnabh</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1InfoUnabh, Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2InfoUnabh</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
     <t>Lineare Algebra</t>
   </si>
   <si>
@@ -986,6 +959,57 @@
   </si>
   <si>
     <t>bei einer binomialverteilten Zufallsgröße die Versuchsanzahl berechnen.</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_OhneBedingt</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_MitBedingt</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (Variante 1, mit Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (Variante 2, mit Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1InfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2InfoUnabh</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (Variante 1, ohne Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (Variante 2, ohne Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (Variante 3, ohne Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (Variante 4, ohne Verwendung stochastischer Unabhängigkeit).</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var3keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var4keineInfoUnabh</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenGraphisch_quad</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_KennzahlenRechnerisch_quad</t>
+  </si>
+  <si>
+    <t>Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_quad</t>
   </si>
 </sst>
 </file>
@@ -1114,11 +1138,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H117" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H117" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H117">
-    <sortCondition ref="B2:B117"/>
-    <sortCondition ref="E2:E117"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H121" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H121" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Quadratische Funktionen"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H121">
+    <sortCondition ref="B2:B121"/>
+    <sortCondition ref="E2:E121"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -1451,10 +1481,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1496,7 +1526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1519,7 +1549,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +1615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1603,7 +1633,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1621,7 +1651,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1635,16 +1665,16 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1658,16 +1688,16 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>65</v>
@@ -1690,7 +1720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1704,16 +1734,16 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1759,7 +1789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1773,16 +1803,16 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1796,16 +1826,16 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1819,16 +1849,16 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1842,17 +1872,17 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1866,7 +1896,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>68</v>
@@ -1875,7 +1905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1889,16 +1919,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1912,16 +1942,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1941,10 +1971,10 @@
         <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1958,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>71</v>
@@ -1968,7 +1998,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1982,16 +2012,16 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2014,7 +2044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -2054,10 +2084,10 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2074,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
@@ -2097,13 +2127,13 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2123,7 +2153,7 @@
         <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>36</v>
@@ -2146,13 +2176,13 @@
         <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2167,7 +2197,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2178,11 +2208,11 @@
         <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2196,16 +2226,16 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2219,16 +2249,16 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -2242,16 +2272,16 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2265,16 +2295,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
@@ -2288,16 +2318,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2311,16 +2341,16 @@
         <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -2334,16 +2364,16 @@
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2357,16 +2387,16 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
@@ -2380,16 +2410,16 @@
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
@@ -2403,16 +2433,16 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
@@ -2426,16 +2456,16 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
@@ -2449,16 +2479,16 @@
         <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
@@ -2475,13 +2505,13 @@
         <v>49</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
@@ -2498,761 +2528,761 @@
         <v>50</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="F55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="G69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F74" s="1" t="s">
+    </row>
+    <row r="77" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="G79" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G80" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3263,17 +3293,17 @@
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3284,17 +3314,17 @@
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
@@ -3305,17 +3335,17 @@
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -3326,17 +3356,17 @@
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
@@ -3347,17 +3377,17 @@
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>15</v>
       </c>
@@ -3368,77 +3398,77 @@
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>15</v>
       </c>
@@ -3449,19 +3479,19 @@
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>15</v>
       </c>
@@ -3472,19 +3502,19 @@
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>15</v>
       </c>
@@ -3495,17 +3525,17 @@
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>15</v>
       </c>
@@ -3516,17 +3546,17 @@
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>15</v>
       </c>
@@ -3537,19 +3567,19 @@
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>15</v>
       </c>
@@ -3560,19 +3590,19 @@
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>15</v>
       </c>
@@ -3583,124 +3613,124 @@
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G98" s="1" t="s">
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>15</v>
       </c>
@@ -3711,19 +3741,19 @@
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>15</v>
       </c>
@@ -3734,19 +3764,19 @@
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>15</v>
       </c>
@@ -3757,19 +3787,19 @@
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>15</v>
       </c>
@@ -3780,19 +3810,19 @@
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>15</v>
       </c>
@@ -3803,19 +3833,19 @@
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>15</v>
       </c>
@@ -3826,17 +3856,17 @@
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>15</v>
       </c>
@@ -3847,17 +3877,17 @@
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>15</v>
       </c>
@@ -3868,135 +3898,227 @@
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>206</v>
+        <v>313</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>205</v>
+        <v>317</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>200</v>
+        <v>318</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="H114" s="1"/>
-    </row>
-    <row r="115" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="H115" s="1"/>
-    </row>
-    <row r="116" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="H116" s="1"/>
-    </row>
-    <row r="117" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="H117" s="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="H121" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4086,7 +4208,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00489BAA-1A69-431C-BEB6-5928487BF6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E468EFBB-D415-4EFE-93C1-C39A6BB2AD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -565,15 +565,6 @@
     <t>Stochastik_Allgemein_Binomialverteilung_Kennzahlen_p sigma gegeben</t>
   </si>
   <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb absolut, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb absolut</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb relativ, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb relativ</t>
-  </si>
-  <si>
-    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_innerhalb sigma, Stochastik_Allgemein_Binomialverteilung_Umgebungen_außerhalb sigma</t>
-  </si>
-  <si>
     <t>Dazu gehören der Zeitpunkt, an dem der höchste Umsatz erzielt wird, der höchste Umsatz, der Zeitpunkt, an dem der Umsatz am stärksten steigt oder fällt, die Veränderung des Umstatzes, der Umsatz bei der Produkteinführung, der langfristig zu erwartende Umsatz und der Zeitpunkt, an dem das Produkt vom Markt genommen wird.</t>
   </si>
   <si>
@@ -1010,6 +1001,15 @@
   </si>
   <si>
     <t>Analysis_Wirtschaft_Ökonomische Funktionen_Funktionsterme_quad</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_absolut</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_relativ</t>
+  </si>
+  <si>
+    <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_sigma</t>
   </si>
 </sst>
 </file>
@@ -1139,13 +1139,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H121" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H121" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Quadratische Funktionen"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:H121" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H121">
     <sortCondition ref="B2:B121"/>
     <sortCondition ref="E2:E121"/>
@@ -1483,8 +1477,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B99" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1549,7 +1543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1595,7 +1589,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1633,7 +1627,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1651,7 +1645,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1665,16 +1659,16 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1688,16 +1682,16 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1711,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>65</v>
@@ -1720,7 +1714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1734,7 +1728,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>64</v>
@@ -1743,7 +1737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1789,7 +1783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1803,16 +1797,16 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1826,16 +1820,16 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1849,16 +1843,16 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1872,17 +1866,17 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1896,7 +1890,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>68</v>
@@ -1905,7 +1899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1919,16 +1913,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1942,16 +1936,16 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1974,7 +1968,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1988,7 +1982,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>71</v>
@@ -1998,7 +1992,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
@@ -2021,7 +2015,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
@@ -2084,7 +2078,7 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>105</v>
@@ -2104,7 +2098,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
@@ -2127,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>74</v>
@@ -2153,7 +2147,7 @@
         <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>36</v>
@@ -2176,13 +2170,13 @@
         <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2197,7 +2191,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:9" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2212,7 +2206,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2226,16 +2220,16 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2249,16 +2243,16 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>10</v>
       </c>
@@ -2272,16 +2266,16 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2295,16 +2289,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
@@ -2318,16 +2312,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2341,16 +2335,16 @@
         <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -2364,16 +2358,16 @@
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2387,16 +2381,16 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
@@ -2410,16 +2404,16 @@
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
@@ -2433,16 +2427,16 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
@@ -2456,16 +2450,16 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
@@ -2479,16 +2473,16 @@
         <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
@@ -2508,10 +2502,10 @@
         <v>76</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
@@ -2531,10 +2525,10 @@
         <v>77</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>145</v>
       </c>
@@ -2557,7 +2551,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>145</v>
       </c>
@@ -2580,7 +2574,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>145</v>
       </c>
@@ -2603,7 +2597,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>145</v>
       </c>
@@ -2626,7 +2620,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>145</v>
       </c>
@@ -2649,7 +2643,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>145</v>
       </c>
@@ -2672,7 +2666,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>145</v>
       </c>
@@ -2695,7 +2689,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>145</v>
       </c>
@@ -2718,7 +2712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>145</v>
       </c>
@@ -2739,303 +2733,303 @@
       </c>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="G69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
@@ -3058,7 +3052,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>15</v>
       </c>
@@ -3081,7 +3075,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
@@ -3104,7 +3098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>15</v>
       </c>
@@ -3127,7 +3121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -3150,7 +3144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>15</v>
       </c>
@@ -3173,7 +3167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>15</v>
       </c>
@@ -3187,16 +3181,16 @@
         <v>79</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3210,16 +3204,16 @@
         <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>15</v>
       </c>
@@ -3236,11 +3230,11 @@
         <v>88</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>15</v>
       </c>
@@ -3257,11 +3251,11 @@
         <v>101</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>15</v>
       </c>
@@ -3278,11 +3272,11 @@
         <v>102</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
@@ -3296,14 +3290,14 @@
         <v>78</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>15</v>
       </c>
@@ -3317,14 +3311,14 @@
         <v>78</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>127</v>
       </c>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>15</v>
       </c>
@@ -3338,14 +3332,14 @@
         <v>78</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
@@ -3359,14 +3353,14 @@
         <v>78</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
@@ -3380,14 +3374,14 @@
         <v>78</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>128</v>
       </c>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>15</v>
       </c>
@@ -3401,14 +3395,14 @@
         <v>78</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>129</v>
       </c>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>15</v>
       </c>
@@ -3429,7 +3423,7 @@
       </c>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>15</v>
       </c>
@@ -3450,7 +3444,7 @@
       </c>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>15</v>
       </c>
@@ -3468,7 +3462,7 @@
       </c>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>15</v>
       </c>
@@ -3491,7 +3485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>15</v>
       </c>
@@ -3511,10 +3505,10 @@
         <v>120</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>15</v>
       </c>
@@ -3535,7 +3529,7 @@
       </c>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>15</v>
       </c>
@@ -3556,7 +3550,7 @@
       </c>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>15</v>
       </c>
@@ -3570,16 +3564,16 @@
         <v>125</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G94" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>15</v>
       </c>
@@ -3593,16 +3587,16 @@
         <v>125</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G95" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>15</v>
       </c>
@@ -3616,121 +3610,121 @@
         <v>125</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G100" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>15</v>
       </c>
@@ -3753,7 +3747,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>15</v>
       </c>
@@ -3776,7 +3770,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>15</v>
       </c>
@@ -3799,7 +3793,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>15</v>
       </c>
@@ -3822,7 +3816,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>15</v>
       </c>
@@ -3845,7 +3839,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>15</v>
       </c>
@@ -3862,11 +3856,11 @@
         <v>141</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>174</v>
+        <v>320</v>
       </c>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>15</v>
       </c>
@@ -3883,11 +3877,11 @@
         <v>142</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>175</v>
+        <v>321</v>
       </c>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>15</v>
       </c>
@@ -3904,11 +3898,11 @@
         <v>143</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>15</v>
       </c>
@@ -3922,16 +3916,16 @@
         <v>103</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>15</v>
       </c>
@@ -3945,16 +3939,16 @@
         <v>103</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>15</v>
       </c>
@@ -3968,16 +3962,16 @@
         <v>103</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>15</v>
       </c>
@@ -3991,16 +3985,16 @@
         <v>103</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>15</v>
       </c>
@@ -4014,16 +4008,16 @@
         <v>103</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>15</v>
       </c>
@@ -4037,16 +4031,16 @@
         <v>103</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>15</v>
       </c>
@@ -4060,16 +4054,16 @@
         <v>103</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>15</v>
       </c>
@@ -4086,34 +4080,34 @@
         <v>83</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="2:8" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E468EFBB-D415-4EFE-93C1-C39A6BB2AD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03859789-FDDE-461B-9EAB-27866A9F10BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="331">
   <si>
     <t>Gebiet</t>
   </si>
@@ -1010,6 +1010,30 @@
   </si>
   <si>
     <t>Stochastik_Allgemein_Binomialverteilung_Umgebungen_sigma</t>
+  </si>
+  <si>
+    <t>Gleichungssysteme</t>
+  </si>
+  <si>
+    <t>lineare Gleichungssysteme mit 2 Unbekannten und 2 Gleichungen lösen.</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSLösen_2x2</t>
+  </si>
+  <si>
+    <t>Gauß-Algorithmus</t>
+  </si>
+  <si>
+    <t>lineare Gleichungssysteme mit 3 Unbekannten und 3 Gleichungen lösen.</t>
+  </si>
+  <si>
+    <t>lineare Gleichungssysteme mit 4 Unbekannten und 4 Gleichungen lösen.</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSLösen_3x3</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSLösen_4x4</t>
   </si>
 </sst>
 </file>
@@ -1477,8 +1501,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2741,18 +2765,18 @@
         <v>197</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -2762,18 +2786,18 @@
         <v>197</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="F57" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
@@ -2783,18 +2807,18 @@
         <v>197</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
@@ -2810,10 +2834,10 @@
         <v>196</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="H59" s="1"/>
     </row>
@@ -2831,10 +2855,10 @@
         <v>196</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="H60" s="1"/>
     </row>
@@ -2852,10 +2876,10 @@
         <v>196</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H61" s="1"/>
     </row>
@@ -2873,10 +2897,10 @@
         <v>196</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H62" s="1"/>
     </row>
@@ -2894,10 +2918,10 @@
         <v>196</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H63" s="1"/>
     </row>
@@ -2915,10 +2939,10 @@
         <v>196</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H64" s="1"/>
     </row>
@@ -2936,10 +2960,10 @@
         <v>196</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H65" s="1"/>
     </row>
@@ -2957,12 +2981,14 @@
         <v>196</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="H66" s="1"/>
+        <v>221</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -2972,18 +2998,18 @@
         <v>197</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H67" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
@@ -2993,18 +3019,18 @@
         <v>197</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H68" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
@@ -3014,88 +3040,80 @@
         <v>197</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>89</v>
+        <v>324</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>90</v>
+        <v>327</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>91</v>
+        <v>328</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>94</v>
+        <v>330</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>81</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3112,10 +3130,10 @@
         <v>79</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>81</v>
@@ -3135,10 +3153,10 @@
         <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>81</v>
@@ -3158,10 +3176,10 @@
         <v>79</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>81</v>
@@ -3181,13 +3199,13 @@
         <v>79</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>291</v>
+        <v>95</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3204,13 +3222,13 @@
         <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>292</v>
+        <v>96</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3224,15 +3242,17 @@
         <v>14</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="H78" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="79" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
@@ -3245,15 +3265,17 @@
         <v>14</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H79" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
@@ -3266,34 +3288,36 @@
         <v>14</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H80" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>226</v>
+        <v>88</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="H81" s="1"/>
     </row>
@@ -3302,19 +3326,19 @@
         <v>15</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
       <c r="H82" s="1"/>
     </row>
@@ -3323,19 +3347,19 @@
         <v>15</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="H83" s="1"/>
     </row>
@@ -3353,10 +3377,10 @@
         <v>78</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="H84" s="1"/>
     </row>
@@ -3374,10 +3398,10 @@
         <v>78</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H85" s="1"/>
     </row>
@@ -3395,10 +3419,10 @@
         <v>78</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="H86" s="1"/>
     </row>
@@ -3407,19 +3431,19 @@
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="H87" s="1"/>
     </row>
@@ -3428,19 +3452,19 @@
         <v>15</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H88" s="1"/>
     </row>
@@ -3449,16 +3473,19 @@
         <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>114</v>
+        <v>225</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="H89" s="1"/>
     </row>
@@ -3467,65 +3494,58 @@
         <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H90" s="1"/>
     </row>
     <row r="91" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H91" s="1"/>
     </row>
     <row r="92" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H92" s="1"/>
     </row>
@@ -3543,12 +3563,14 @@
         <v>125</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H93" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
@@ -3564,13 +3586,13 @@
         <v>125</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>302</v>
+        <v>117</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>296</v>
+        <v>120</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3587,14 +3609,12 @@
         <v>125</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>300</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H95" s="1"/>
     </row>
     <row r="96" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
@@ -3610,77 +3630,81 @@
         <v>125</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>301</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="H96" s="1"/>
     </row>
     <row r="97" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H97" s="1"/>
+        <v>296</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H98" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H99" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
@@ -3696,10 +3720,10 @@
         <v>179</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H100" s="1"/>
     </row>
@@ -3717,10 +3741,10 @@
         <v>179</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H101" s="1"/>
     </row>
@@ -3729,69 +3753,63 @@
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="H102" s="1"/>
     </row>
     <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H103" s="1"/>
     </row>
     <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="H104" s="1"/>
     </row>
     <row r="105" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
@@ -3807,13 +3825,13 @@
         <v>130</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3830,13 +3848,13 @@
         <v>130</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3853,12 +3871,14 @@
         <v>130</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H107" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
@@ -3874,12 +3894,14 @@
         <v>130</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="H108" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
@@ -3895,81 +3917,77 @@
         <v>130</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H109" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>309</v>
+        <v>141</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="H110" s="1"/>
     </row>
     <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>310</v>
+        <v>142</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="H111" s="1"/>
     </row>
     <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>311</v>
+        <v>143</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="H112" s="1"/>
     </row>
     <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
@@ -3985,10 +4003,10 @@
         <v>103</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>104</v>
@@ -4008,10 +4026,10 @@
         <v>103</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>104</v>
@@ -4031,10 +4049,10 @@
         <v>103</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>104</v>
@@ -4054,13 +4072,13 @@
         <v>103</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4077,35 +4095,83 @@
         <v>103</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="H118" s="1"/>
-    </row>
-    <row r="119" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="H119" s="1"/>
-    </row>
-    <row r="120" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="H120" s="1"/>
     </row>
     <row r="121" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03859789-FDDE-461B-9EAB-27866A9F10BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73462C95-015C-4D45-A862-227AFC1BA2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -1018,9 +1018,6 @@
     <t>lineare Gleichungssysteme mit 2 Unbekannten und 2 Gleichungen lösen.</t>
   </si>
   <si>
-    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSLösen_2x2</t>
-  </si>
-  <si>
     <t>Gauß-Algorithmus</t>
   </si>
   <si>
@@ -1030,10 +1027,13 @@
     <t>lineare Gleichungssysteme mit 4 Unbekannten und 4 Gleichungen lösen.</t>
   </si>
   <si>
-    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSLösen_3x3</t>
-  </si>
-  <si>
-    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSLösen_4x4</t>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSlösen_2x2</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSlösen_3x3</t>
+  </si>
+  <si>
+    <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSlösen_4x4</t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1501,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3068,10 +3068,10 @@
         <v>324</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3086,13 +3086,13 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>329</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,13 +3107,13 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>330</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73462C95-015C-4D45-A862-227AFC1BA2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0092CFFD-21E6-40FA-B8C4-5910342E97A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0092CFFD-21E6-40FA-B8C4-5910342E97A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC142C-56BE-4938-888E-C5EE71CA9FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -451,12 +451,6 @@
     <t>die Standardabweichung und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
   <si>
-    <t>Hier sind die Länge und die Trefferwahrscheinlichkeit gegeben.</t>
-  </si>
-  <si>
-    <t>Hier sind die Länge und der Erwartungswert gegeben.</t>
-  </si>
-  <si>
     <t>Hier sind der Erwartungswert und die Trefferwahrscheinlichkeit gegeben.</t>
   </si>
   <si>
@@ -571,9 +565,6 @@
     <t>Dazu gehören der Zeitpunkt, an dem der höchste Umsatz erzielt wird, der Zeitpunkt, an dem der Umsatz am stärksten steigt oder fällt und die Veränderung des Umstatzes.</t>
   </si>
   <si>
-    <t>Hierbei kann zwischen dem Umsatz pro Zeiteinheit und dem Gesamtumsatz unterscheiden.</t>
-  </si>
-  <si>
     <t>Dazu zählt die Untersuchung der zeitlichen Entwicklung von Erlösen, Kosten und Gewinnen.</t>
   </si>
   <si>
@@ -760,12 +751,6 @@
     <t>ausgehend von herzustellenden Endprodukten die dafür benötigten Rohstoffe berechnen.</t>
   </si>
   <si>
-    <t>ausgehend von herzustellenden Endprodukte die dafür benötigten Zwischenprodukte berechnen.</t>
-  </si>
-  <si>
-    <t>ausgehend von herzustellenden Zwischenprodukte die dafür benötigten Rohstoffe berechnen.</t>
-  </si>
-  <si>
     <t>ausgehend von verfügbaren Rohstoffen die daraus herstellbaren Endprodukte berechnen, wenn das Lager vollständig geräumt werden soll.</t>
   </si>
   <si>
@@ -1034,6 +1019,21 @@
   </si>
   <si>
     <t>LineareAlgebra_Wirtschaft_Mehrstufige Produktionsprozesse_LGSlösen_4x4</t>
+  </si>
+  <si>
+    <t>ausgehend von herzustellenden Endprodukten die dafür benötigten Zwischenprodukte berechnen.</t>
+  </si>
+  <si>
+    <t>ausgehend von herzustellenden Zwischenprodukten die dafür benötigten Rohstoffe berechnen.</t>
+  </si>
+  <si>
+    <t>Hierbei kann ich zwischen dem Umsatz pro Zeiteinheit und dem Gesamtumsatz unterscheiden.</t>
+  </si>
+  <si>
+    <t>Hier sind die Versuchsanzahl und die Trefferwahrscheinlichkeit gegeben.</t>
+  </si>
+  <si>
+    <t>Hier sind die Versuchsanzahl und der Erwartungswert gegeben.</t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1501,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="E99" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1683,10 +1683,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>105</v>
@@ -1706,10 +1706,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>105</v>
@@ -1729,7 +1729,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>65</v>
@@ -1752,7 +1752,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>64</v>
@@ -1821,13 +1821,13 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,10 +1844,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>37</v>
@@ -1867,13 +1867,13 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,10 +1890,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -1914,7 +1914,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>68</v>
@@ -1937,13 +1937,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,10 +1960,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>37</v>
@@ -2006,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>71</v>
@@ -2030,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
@@ -2102,7 +2102,7 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>105</v>
@@ -2122,7 +2122,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
@@ -2145,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>74</v>
@@ -2171,7 +2171,7 @@
         <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>36</v>
@@ -2194,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>36</v>
@@ -2244,13 +2244,13 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,13 +2267,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,13 +2290,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,13 +2313,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,13 +2336,13 @@
         <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,13 +2359,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,13 +2382,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,13 +2405,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,13 +2428,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,13 +2451,13 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,13 +2474,13 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,13 +2497,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
         <v>76</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>176</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,571 +2549,571 @@
         <v>77</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,10 +3268,10 @@
         <v>79</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>82</v>
@@ -3291,10 +3291,10 @@
         <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>86</v>
@@ -3317,7 +3317,7 @@
         <v>88</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H81" s="1"/>
     </row>
@@ -3338,7 +3338,7 @@
         <v>101</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H82" s="1"/>
     </row>
@@ -3359,7 +3359,7 @@
         <v>102</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H83" s="1"/>
     </row>
@@ -3377,7 +3377,7 @@
         <v>78</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>126</v>
@@ -3398,7 +3398,7 @@
         <v>78</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>127</v>
@@ -3419,10 +3419,10 @@
         <v>78</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H86" s="1"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>78</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H87" s="1"/>
     </row>
@@ -3461,7 +3461,7 @@
         <v>78</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>128</v>
@@ -3482,7 +3482,7 @@
         <v>78</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>129</v>
@@ -3592,7 +3592,7 @@
         <v>120</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3651,13 +3651,13 @@
         <v>125</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3674,13 +3674,13 @@
         <v>125</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,13 +3697,13 @@
         <v>125</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,19 +3711,19 @@
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H100" s="1"/>
     </row>
@@ -3732,19 +3732,19 @@
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="H101" s="1"/>
     </row>
@@ -3753,19 +3753,19 @@
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H102" s="1"/>
     </row>
@@ -3774,19 +3774,19 @@
         <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H103" s="1"/>
     </row>
@@ -3795,19 +3795,19 @@
         <v>15</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H104" s="1"/>
     </row>
@@ -3828,10 +3828,10 @@
         <v>131</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3851,10 +3851,10 @@
         <v>135</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>137</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3874,10 +3874,10 @@
         <v>133</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3897,10 +3897,10 @@
         <v>134</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3920,10 +3920,10 @@
         <v>132</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3940,10 +3940,10 @@
         <v>130</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H110" s="1"/>
     </row>
@@ -3961,10 +3961,10 @@
         <v>130</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H111" s="1"/>
     </row>
@@ -3982,10 +3982,10 @@
         <v>130</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H112" s="1"/>
     </row>
@@ -4003,10 +4003,10 @@
         <v>103</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>104</v>
@@ -4026,10 +4026,10 @@
         <v>103</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>104</v>
@@ -4049,10 +4049,10 @@
         <v>103</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>104</v>
@@ -4072,10 +4072,10 @@
         <v>103</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>104</v>
@@ -4095,10 +4095,10 @@
         <v>103</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>104</v>
@@ -4118,10 +4118,10 @@
         <v>103</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>104</v>
@@ -4141,10 +4141,10 @@
         <v>103</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>84</v>
@@ -4167,7 +4167,7 @@
         <v>83</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>87</v>
@@ -4268,7 +4268,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC142C-56BE-4938-888E-C5EE71CA9FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972842B-5A4B-43C5-8957-E6689B2FDDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -439,15 +439,6 @@
     <t>den Erwartungswert und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
   <si>
-    <t>den Erwartungswert und die Länge einer binomialverteilten Zufallsgröße berechnen.</t>
-  </si>
-  <si>
-    <t>die Länge und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
-  </si>
-  <si>
-    <t>die Länge und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
-  </si>
-  <si>
     <t>die Standardabweichung und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
   <si>
@@ -1034,6 +1025,15 @@
   </si>
   <si>
     <t>Hier sind die Versuchsanzahl und der Erwartungswert gegeben.</t>
+  </si>
+  <si>
+    <t>die Versuchsanzahl und die Standardabweichung einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>die Versuchsanzahl und die Trefferwahrscheinlichkeit einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>den Erwartungswert und die Versuchsanzahl einer binomialverteilten Zufallsgröße berechnen.</t>
   </si>
 </sst>
 </file>
@@ -1501,8 +1501,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E99" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="E102" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1683,10 +1683,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>105</v>
@@ -1706,10 +1706,10 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>105</v>
@@ -1729,7 +1729,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>65</v>
@@ -1752,7 +1752,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>64</v>
@@ -1821,13 +1821,13 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,10 +1844,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>37</v>
@@ -1867,13 +1867,13 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,10 +1890,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -1914,7 +1914,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>68</v>
@@ -1937,13 +1937,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,10 +1960,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>37</v>
@@ -2006,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>71</v>
@@ -2030,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
@@ -2102,7 +2102,7 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>105</v>
@@ -2122,7 +2122,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
@@ -2145,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>74</v>
@@ -2171,7 +2171,7 @@
         <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>36</v>
@@ -2194,7 +2194,7 @@
         <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>36</v>
@@ -2244,13 +2244,13 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,13 +2267,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,13 +2290,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,13 +2313,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,13 +2336,13 @@
         <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,13 +2359,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,13 +2382,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,13 +2405,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,13 +2428,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,13 +2451,13 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,13 +2474,13 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,13 +2497,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
         <v>76</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,571 +2549,571 @@
         <v>77</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G55" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="H68" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="H69" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="H72" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,10 +3268,10 @@
         <v>79</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>82</v>
@@ -3291,10 +3291,10 @@
         <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>86</v>
@@ -3317,7 +3317,7 @@
         <v>88</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H81" s="1"/>
     </row>
@@ -3338,7 +3338,7 @@
         <v>101</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H82" s="1"/>
     </row>
@@ -3359,7 +3359,7 @@
         <v>102</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H83" s="1"/>
     </row>
@@ -3377,7 +3377,7 @@
         <v>78</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>126</v>
@@ -3398,7 +3398,7 @@
         <v>78</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>127</v>
@@ -3419,10 +3419,10 @@
         <v>78</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H86" s="1"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>78</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H87" s="1"/>
     </row>
@@ -3461,7 +3461,7 @@
         <v>78</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>128</v>
@@ -3482,7 +3482,7 @@
         <v>78</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>129</v>
@@ -3592,7 +3592,7 @@
         <v>120</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3651,13 +3651,13 @@
         <v>125</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G97" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3674,13 +3674,13 @@
         <v>125</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G98" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,13 +3697,13 @@
         <v>125</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G99" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,19 +3711,19 @@
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="H100" s="1"/>
     </row>
@@ -3732,19 +3732,19 @@
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="H101" s="1"/>
     </row>
@@ -3753,19 +3753,19 @@
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H102" s="1"/>
     </row>
@@ -3774,19 +3774,19 @@
         <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H103" s="1"/>
     </row>
@@ -3795,19 +3795,19 @@
         <v>15</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H104" s="1"/>
     </row>
@@ -3828,10 +3828,10 @@
         <v>131</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3848,13 +3848,13 @@
         <v>130</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3871,13 +3871,13 @@
         <v>130</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3894,13 +3894,13 @@
         <v>130</v>
       </c>
       <c r="F108" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3917,13 +3917,13 @@
         <v>130</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3940,10 +3940,10 @@
         <v>130</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H110" s="1"/>
     </row>
@@ -3961,10 +3961,10 @@
         <v>130</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H111" s="1"/>
     </row>
@@ -3982,10 +3982,10 @@
         <v>130</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H112" s="1"/>
     </row>
@@ -4003,10 +4003,10 @@
         <v>103</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>104</v>
@@ -4026,10 +4026,10 @@
         <v>103</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>104</v>
@@ -4049,10 +4049,10 @@
         <v>103</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>104</v>
@@ -4072,10 +4072,10 @@
         <v>103</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>104</v>
@@ -4095,10 +4095,10 @@
         <v>103</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>104</v>
@@ -4118,10 +4118,10 @@
         <v>103</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>104</v>
@@ -4141,10 +4141,10 @@
         <v>103</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>84</v>
@@ -4167,7 +4167,7 @@
         <v>83</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>87</v>
@@ -4268,7 +4268,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972842B-5A4B-43C5-8957-E6689B2FDDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAAF570-B6C8-414B-8CFE-D55C18EACEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="339">
   <si>
     <t>Gebiet</t>
   </si>
@@ -310,15 +310,6 @@
     <t>den Satz von der Gegenwahrscheinlichkeit und von Sylvester anwenden.</t>
   </si>
   <si>
-    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 1)</t>
-  </si>
-  <si>
-    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 2)</t>
-  </si>
-  <si>
-    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit). (Variante 3)</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_Var1KeineInfoUnabh</t>
   </si>
   <si>
@@ -337,21 +328,6 @@
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_BaumdiagrammErstellen_Var3InfoUnabh</t>
   </si>
   <si>
-    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 1)</t>
-  </si>
-  <si>
-    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 2)</t>
-  </si>
-  <si>
-    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit). (Variante 3)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 1)</t>
-  </si>
-  <si>
-    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden. (Variante 2)</t>
-  </si>
-  <si>
     <t>Vierfeldertafeln</t>
   </si>
   <si>
@@ -844,18 +820,6 @@
     <t>Die Funktionen haben die Form f(x)=(ax^3+bx^2+cx+d)*exp(sx)+t.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (Variante 1, ohne Integration). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (Variante 2, ohne Integration). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (Variante 3, ohne Integration). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (Variante 4, ohne Integration). </t>
-  </si>
-  <si>
     <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var1</t>
   </si>
   <si>
@@ -868,24 +832,12 @@
     <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenRechnerisch_Var4</t>
   </si>
   <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Produktlebenszyklusfunktion bestimmen (Variante 1, ohne Integration). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Produktlebenszyklusfunktion bestimmen (Variante 2, ohne Integration). </t>
-  </si>
-  <si>
     <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Umsatz</t>
   </si>
   <si>
     <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form2Umsatz</t>
   </si>
   <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Ableitung der Produktlebenszyklusfunktion bestimmen (Variante 1, ohne Integration). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Ableitung der Produktlebenszyklusfunktion bestimmen (Variante 2, ohne Integration). </t>
-  </si>
-  <si>
     <t>Analysis_Wirtschaft_Produktlebenszyklus_KennzahlenGraphisch_Form1Ableitung</t>
   </si>
   <si>
@@ -934,30 +886,12 @@
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelFolgern_MitBedingt</t>
   </si>
   <si>
-    <t>Vierfeldertafeln vervollständigen (Variante 1, mit Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (Variante 2, mit Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1InfoUnabh</t>
   </si>
   <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var2InfoUnabh</t>
   </si>
   <si>
-    <t>Vierfeldertafeln vervollständigen (Variante 1, ohne Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (Variante 2, ohne Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (Variante 3, ohne Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
-    <t>Vierfeldertafeln vervollständigen (Variante 4, ohne Verwendung stochastischer Unabhängigkeit).</t>
-  </si>
-  <si>
     <t>Stochastik_Allgemein_Methoden der Wahrscheinlichkeitsrechnung_VierFelderTafelErstellen_Var1keineInfoUnabh</t>
   </si>
   <si>
@@ -994,9 +928,6 @@
     <t>lineare Gleichungssysteme mit 2 Unbekannten und 2 Gleichungen lösen.</t>
   </si>
   <si>
-    <t>Gauß-Algorithmus</t>
-  </si>
-  <si>
     <t>lineare Gleichungssysteme mit 3 Unbekannten und 3 Gleichungen lösen.</t>
   </si>
   <si>
@@ -1034,6 +965,99 @@
   </si>
   <si>
     <t>den Erwartungswert und die Versuchsanzahl einer binomialverteilten Zufallsgröße berechnen.</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit, Variante 1).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit, Variante 2).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit, Variante 3).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (ohne Verwendung stochastischer Unabhängigkeit, Variante 4).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit, Variante 1).</t>
+  </si>
+  <si>
+    <t>Vierfeldertafeln vervollständigen (mit Verwendung stochastischer Unabhängigkeit, Variante 2).</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden (Variante 1).</t>
+  </si>
+  <si>
+    <t>den Satz von der Gegenwahrscheinlichkeit, von Sylvester und von Bayes anwenden (Variante 2).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit, Variante 1).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit, Variante 2).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (mit Verwendung stochastischer Unabhängigkeit, Variante 3).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit, Variante 1).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit, Variante 2).</t>
+  </si>
+  <si>
+    <t>Baumdiagramme vervollständigen (ohne Verwendung stochastischer Unabhängigkeit, Variante 3).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (ohne Integration, Variante 1). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (ohne Integration, Variante 2). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (ohne Integration, Variante 3). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus berechnen (ohne Integration, Variante 4). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Produktlebenszyklusfunktion bestimmen (ohne Integration, Variante 1). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Produktlebenszyklusfunktion bestimmen (ohne Integration, Variante 2). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Ableitung der Produktlebenszyklusfunktion bestimmen (ohne Integration, Variante 1). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzahlen des Produklebenszyklus anhand des Graphen der Ableitung der Produktlebenszyklusfunktion bestimmen (ohne Integration, Variante 2). </t>
+  </si>
+  <si>
+    <t>Gauß-Algorithmus, inverse Matrix</t>
+  </si>
+  <si>
+    <t>Nullstellen linearer Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t>Analysis_Allgemein_ElementareFunktionen_Nullstellen_linear</t>
+  </si>
+  <si>
+    <t>Nullstellen quadratischer Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t>Analysis_Allgemein_ElementareFunktionen_Nullstellen_quadratisch</t>
+  </si>
+  <si>
+    <t>Nullstellen kubischer Funktionen berechnen.</t>
+  </si>
+  <si>
+    <t>Analysis_Allgemein_ElementareFunktionen_Nullstellen_kubisch</t>
+  </si>
+  <si>
+    <t>Nullstellen kubischer Funktionen berechnen, wenn eine Nullstelle bekannt ist.</t>
+  </si>
+  <si>
+    <t>Analysis_Allgemein_ElementareFunktionen_Nullstellen_kubischVorgabe</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1186,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H121" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B1:H121" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H124" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="B1:H124" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H121">
     <sortCondition ref="B2:B121"/>
     <sortCondition ref="E2:E121"/>
@@ -1499,10 +1523,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618ACB22-E350-4F54-8EA5-18CA3830263F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E102" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1683,13 +1707,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1706,13 +1730,13 @@
         <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1729,7 +1753,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>65</v>
@@ -1752,13 +1776,13 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1821,13 +1845,13 @@
         <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1844,10 +1868,10 @@
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>37</v>
@@ -1867,13 +1891,13 @@
         <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,10 +1914,10 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>38</v>
@@ -1914,7 +1938,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>68</v>
@@ -1937,13 +1961,13 @@
         <v>16</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1960,10 +1984,10 @@
         <v>16</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>37</v>
@@ -1989,7 +2013,7 @@
         <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2006,7 +2030,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>71</v>
@@ -2030,13 +2054,13 @@
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2102,10 +2126,10 @@
         <v>48</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,7 +2146,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>75</v>
@@ -2145,13 +2169,13 @@
         <v>16</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2171,7 +2195,7 @@
         <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>36</v>
@@ -2194,7 +2218,7 @@
         <v>40</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>36</v>
@@ -2226,7 +2250,7 @@
         <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -2244,13 +2268,13 @@
         <v>13</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,13 +2291,13 @@
         <v>13</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,13 +2314,13 @@
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,13 +2337,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2336,13 +2360,13 @@
         <v>13</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,13 +2383,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2382,13 +2406,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2405,13 +2429,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,13 +2452,13 @@
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,13 +2475,13 @@
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,13 +2498,13 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,13 +2521,13 @@
         <v>13</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2526,7 +2550,7 @@
         <v>76</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,571 +2573,571 @@
         <v>77</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F49" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F50" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G58" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3130,10 +3154,10 @@
         <v>79</v>
       </c>
       <c r="F73" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>81</v>
@@ -3153,10 +3177,10 @@
         <v>79</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>81</v>
@@ -3176,10 +3200,10 @@
         <v>79</v>
       </c>
       <c r="F75" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>81</v>
@@ -3199,10 +3223,10 @@
         <v>79</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>98</v>
+        <v>316</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>81</v>
@@ -3222,10 +3246,10 @@
         <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>99</v>
+        <v>317</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>81</v>
@@ -3245,10 +3269,10 @@
         <v>79</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>100</v>
+        <v>318</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>81</v>
@@ -3268,10 +3292,10 @@
         <v>79</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>82</v>
@@ -3291,10 +3315,10 @@
         <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>86</v>
@@ -3317,7 +3341,7 @@
         <v>88</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="H81" s="1"/>
     </row>
@@ -3335,10 +3359,10 @@
         <v>85</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="H82" s="1"/>
     </row>
@@ -3356,10 +3380,10 @@
         <v>85</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="H83" s="1"/>
     </row>
@@ -3377,10 +3401,10 @@
         <v>78</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H84" s="1"/>
     </row>
@@ -3398,10 +3422,10 @@
         <v>78</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H85" s="1"/>
     </row>
@@ -3419,10 +3443,10 @@
         <v>78</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H86" s="1"/>
     </row>
@@ -3440,10 +3464,10 @@
         <v>78</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H87" s="1"/>
     </row>
@@ -3461,10 +3485,10 @@
         <v>78</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H88" s="1"/>
     </row>
@@ -3482,10 +3506,10 @@
         <v>78</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H89" s="1"/>
     </row>
@@ -3500,13 +3524,13 @@
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H90" s="1"/>
     </row>
@@ -3521,13 +3545,13 @@
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H91" s="1"/>
     </row>
@@ -3542,10 +3566,10 @@
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H92" s="1"/>
     </row>
@@ -3560,16 +3584,16 @@
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3583,16 +3607,16 @@
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,13 +3630,13 @@
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H95" s="1"/>
     </row>
@@ -3627,13 +3651,13 @@
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H96" s="1"/>
     </row>
@@ -3648,16 +3672,16 @@
         <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3671,16 +3695,16 @@
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3694,16 +3718,16 @@
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3711,19 +3735,19 @@
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H100" s="1"/>
     </row>
@@ -3732,19 +3756,19 @@
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H101" s="1"/>
     </row>
@@ -3753,19 +3777,19 @@
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H102" s="1"/>
     </row>
@@ -3774,19 +3798,19 @@
         <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H103" s="1"/>
     </row>
@@ -3795,19 +3819,19 @@
         <v>15</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H104" s="1"/>
     </row>
@@ -3822,16 +3846,16 @@
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3845,16 +3869,16 @@
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,16 +3892,16 @@
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3891,16 +3915,16 @@
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3914,16 +3938,16 @@
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3937,13 +3961,13 @@
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="H110" s="1"/>
     </row>
@@ -3958,13 +3982,13 @@
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="H111" s="1"/>
     </row>
@@ -3979,13 +4003,13 @@
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="G112" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="H112" s="1"/>
     </row>
@@ -4000,16 +4024,16 @@
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4023,16 +4047,16 @@
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4046,16 +4070,16 @@
         <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4069,16 +4093,16 @@
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4092,16 +4116,16 @@
         <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4115,16 +4139,16 @@
         <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4138,13 +4162,13 @@
         <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>84</v>
@@ -4161,24 +4185,93 @@
         <v>14</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H124" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4268,7 +4361,7 @@
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">

--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\Google Drive\digitalmath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAAF570-B6C8-414B-8CFE-D55C18EACEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591745EA-2233-429C-80F5-84DE4F997142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="978" xr2:uid="{0B272BAC-C477-48B6-90A6-043BF20DB78E}"/>
   </bookViews>
@@ -1188,9 +1188,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}" name="Tabelle13" displayName="Tabelle13" ref="B1:H124" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B1:H124" xr:uid="{D7BA96B0-67EC-48CD-9065-570244EEE77E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H121">
-    <sortCondition ref="B2:B121"/>
-    <sortCondition ref="E2:E121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H124">
+    <sortCondition ref="B2:B124"/>
+    <sortCondition ref="E2:E124"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{98B50BA9-85D2-4463-A53C-3D360FD870F3}" name="Gebiet" dataDxfId="6"/>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="32.28515625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2578,95 +2578,79 @@
     </row>
     <row r="47" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>143</v>
+        <v>331</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>144</v>
+        <v>333</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>145</v>
+        <v>335</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>140</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
@@ -2679,13 +2663,13 @@
         <v>11</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>138</v>
@@ -2702,13 +2686,13 @@
         <v>11</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>138</v>
@@ -2725,13 +2709,13 @@
         <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>138</v>
@@ -2748,13 +2732,13 @@
         <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>138</v>
@@ -2771,97 +2755,105 @@
         <v>11</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="56" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="57" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H57" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="58" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H58" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="59" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="H59" s="1"/>
     </row>
@@ -2879,10 +2871,10 @@
         <v>182</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H60" s="1"/>
     </row>
@@ -2900,10 +2892,10 @@
         <v>182</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="H61" s="1"/>
     </row>
@@ -2921,10 +2913,10 @@
         <v>182</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H62" s="1"/>
     </row>
@@ -2942,10 +2934,10 @@
         <v>182</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H63" s="1"/>
     </row>
@@ -2963,10 +2955,10 @@
         <v>182</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H64" s="1"/>
     </row>
@@ -2984,10 +2976,10 @@
         <v>182</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H65" s="1"/>
     </row>
@@ -3005,14 +2997,12 @@
         <v>182</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>206</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -3022,18 +3012,18 @@
         <v>183</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F67" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
@@ -3043,18 +3033,18 @@
         <v>183</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F68" s="1" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
@@ -3064,38 +3054,40 @@
         <v>183</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="F70" s="1" t="s">
-        <v>294</v>
+        <v>205</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>330</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3103,20 +3095,20 @@
         <v>181</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>295</v>
+        <v>190</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>330</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,112 +3116,104 @@
         <v>181</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>296</v>
+        <v>192</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>330</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>319</v>
+        <v>193</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>91</v>
+        <v>298</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>92</v>
+        <v>299</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>81</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3246,10 +3230,10 @@
         <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>81</v>
@@ -3269,10 +3253,10 @@
         <v>79</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>81</v>
@@ -3292,13 +3276,13 @@
         <v>79</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>178</v>
+        <v>321</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3315,13 +3299,13 @@
         <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>268</v>
+        <v>92</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3335,15 +3319,17 @@
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>88</v>
+        <v>317</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H81" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="82" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
@@ -3356,15 +3342,17 @@
         <v>14</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H82" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="83" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
@@ -3377,55 +3365,59 @@
         <v>14</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H83" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="84" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H84" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="85" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
       <c r="H85" s="1"/>
     </row>
@@ -3434,19 +3426,19 @@
         <v>15</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>214</v>
+        <v>314</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="H86" s="1"/>
     </row>
@@ -3455,19 +3447,19 @@
         <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="H87" s="1"/>
     </row>
@@ -3485,10 +3477,10 @@
         <v>78</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H88" s="1"/>
     </row>
@@ -3506,10 +3498,10 @@
         <v>78</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H89" s="1"/>
     </row>
@@ -3518,19 +3510,19 @@
         <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="H90" s="1"/>
     </row>
@@ -3539,19 +3531,19 @@
         <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="H91" s="1"/>
     </row>
@@ -3560,16 +3552,19 @@
         <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>106</v>
+        <v>210</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="H92" s="1"/>
     </row>
@@ -3584,59 +3579,55 @@
         <v>14</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H93" s="1"/>
     </row>
     <row r="94" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>177</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H94" s="1"/>
     </row>
     <row r="95" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H95" s="1"/>
     </row>
@@ -3645,19 +3636,16 @@
         <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H96" s="1"/>
     </row>
@@ -3675,13 +3663,13 @@
         <v>117</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>272</v>
+        <v>111</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>275</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3698,13 +3686,13 @@
         <v>117</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3721,33 +3709,31 @@
         <v>117</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>277</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="H99" s="1"/>
     </row>
     <row r="100" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="H100" s="1"/>
     </row>
@@ -3756,63 +3742,69 @@
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H101" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="102" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H102" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="103" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H103" s="1"/>
+        <v>274</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="104" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
@@ -3828,10 +3820,10 @@
         <v>165</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H104" s="1"/>
     </row>
@@ -3840,92 +3832,84 @@
         <v>15</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="H105" s="1"/>
     </row>
     <row r="106" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>304</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H106" s="1"/>
     </row>
     <row r="107" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H107" s="1"/>
     </row>
     <row r="108" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="H108" s="1"/>
     </row>
     <row r="109" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
@@ -3941,13 +3925,13 @@
         <v>122</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3964,12 +3948,14 @@
         <v>122</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H110" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="111" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
@@ -3985,12 +3971,14 @@
         <v>122</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H111" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="112" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
@@ -4006,34 +3994,36 @@
         <v>122</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H112" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="113" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4041,69 +4031,63 @@
         <v>15</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>309</v>
+        <v>128</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="H114" s="1"/>
     </row>
     <row r="115" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>310</v>
+        <v>129</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="H115" s="1"/>
     </row>
     <row r="116" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>311</v>
+        <v>130</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>96</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="H116" s="1"/>
     </row>
     <row r="117" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
@@ -4119,10 +4103,10 @@
         <v>95</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>96</v>
@@ -4142,10 +4126,10 @@
         <v>95</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>96</v>
@@ -4165,13 +4149,13 @@
         <v>95</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
      